--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_11_10.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_11_10.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2263206.568269669</v>
+        <v>-2263919.17274371</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>169821.4284147701</v>
+        <v>169821.4284147699</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>632041.4518058546</v>
+        <v>632041.451805854</v>
       </c>
     </row>
     <row r="9">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>162.9182962266281</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1382,13 +1382,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>188.5623770505815</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>168.6883080494461</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>62.66716559384193</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>49.17968824550869</v>
+        <v>49.17968824550863</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -1427,16 +1427,16 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>142.5501342845968</v>
+        <v>142.5501342845967</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>159.5668145012116</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>188.5623770505815</v>
+        <v>149.120762183292</v>
       </c>
     </row>
     <row r="12">
@@ -1449,13 +1449,13 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>12.03642063988027</v>
+        <v>9.188502199810614</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -1470,7 +1470,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>52.45818464705466</v>
+        <v>52.45818464705467</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1497,25 +1497,25 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>13.25780256851665</v>
+        <v>187.9332928483861</v>
       </c>
       <c r="T12" t="n">
         <v>188.5623770505815</v>
       </c>
       <c r="U12" t="n">
-        <v>58.89840834437492</v>
+        <v>58.89840834437486</v>
       </c>
       <c r="V12" t="n">
-        <v>62.31927159084699</v>
+        <v>62.31927159084694</v>
       </c>
       <c r="W12" t="n">
-        <v>88.37493425245634</v>
+        <v>88.37493425245628</v>
       </c>
       <c r="X12" t="n">
-        <v>38.98326511491535</v>
+        <v>38.9832651149153</v>
       </c>
       <c r="Y12" t="n">
-        <v>45.05463680947037</v>
+        <v>45.05463680947031</v>
       </c>
     </row>
     <row r="13">
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>25.09353465650161</v>
+        <v>25.09353465650156</v>
       </c>
       <c r="S13" t="n">
-        <v>57.10576830412742</v>
+        <v>57.10576830412736</v>
       </c>
       <c r="T13" t="n">
-        <v>45.43126511605257</v>
+        <v>45.43126511605251</v>
       </c>
       <c r="U13" t="n">
         <v>110.3268994226097</v>
       </c>
       <c r="V13" t="n">
-        <v>66.77936585989465</v>
+        <v>66.7793658598946</v>
       </c>
       <c r="W13" t="n">
-        <v>111.9810577647801</v>
+        <v>111.98105776478</v>
       </c>
       <c r="X13" t="n">
-        <v>43.58980608368728</v>
+        <v>43.58980608368722</v>
       </c>
       <c r="Y13" t="n">
-        <v>38.81162348961317</v>
+        <v>38.81162348961311</v>
       </c>
     </row>
     <row r="14">
@@ -1613,7 +1613,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>188.5623770505815</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -1622,10 +1622,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>125.2936608408908</v>
+        <v>66.54886729885624</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>62.66716559384199</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1652,25 +1652,25 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>16.53078872718773</v>
+        <v>16.53078872718771</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>44.13476116065506</v>
+        <v>44.13476116065502</v>
       </c>
       <c r="U14" t="n">
-        <v>71.82086528673102</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>142.5501342845968</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>159.5668145012117</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>181.4530649701509</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1686,7 +1686,7 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>9.188502199810699</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -1707,7 +1707,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>52.45818464705466</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1728,31 +1728,31 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>6.84650648066852</v>
+        <v>6.846506480668527</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>134.7086383504342</v>
       </c>
       <c r="S15" t="n">
-        <v>188.5623770505815</v>
+        <v>13.25780256851665</v>
       </c>
       <c r="T15" t="n">
-        <v>181.0867863677172</v>
+        <v>36.64054962134804</v>
       </c>
       <c r="U15" t="n">
-        <v>58.89840834437495</v>
+        <v>58.89840834437492</v>
       </c>
       <c r="V15" t="n">
-        <v>62.31927159084702</v>
+        <v>62.31927159084699</v>
       </c>
       <c r="W15" t="n">
-        <v>88.37493425245637</v>
+        <v>88.37493425245634</v>
       </c>
       <c r="X15" t="n">
-        <v>38.98326511491538</v>
+        <v>98.15397331541475</v>
       </c>
       <c r="Y15" t="n">
-        <v>45.0546368094704</v>
+        <v>45.05463680947037</v>
       </c>
     </row>
     <row r="16">
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>25.09353465650164</v>
+        <v>25.09353465650162</v>
       </c>
       <c r="S16" t="n">
-        <v>57.10576830412744</v>
+        <v>57.10576830412742</v>
       </c>
       <c r="T16" t="n">
-        <v>45.4312651160526</v>
+        <v>45.43126511605257</v>
       </c>
       <c r="U16" t="n">
-        <v>110.3268994226098</v>
+        <v>110.3268994226097</v>
       </c>
       <c r="V16" t="n">
-        <v>66.77936585989468</v>
+        <v>66.77936585989465</v>
       </c>
       <c r="W16" t="n">
         <v>111.9810577647801</v>
       </c>
       <c r="X16" t="n">
-        <v>43.58980608368731</v>
+        <v>43.58980608368728</v>
       </c>
       <c r="Y16" t="n">
-        <v>38.8116234896132</v>
+        <v>38.81162348961317</v>
       </c>
     </row>
     <row r="17">
@@ -1859,7 +1859,7 @@
         <v>121.4132451535436</v>
       </c>
       <c r="H17" t="n">
-        <v>49.59336558194014</v>
+        <v>49.59336558194013</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1920,19 +1920,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -1941,10 +1941,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>107.3572203790713</v>
       </c>
       <c r="J18" t="n">
-        <v>52.45818464705466</v>
+        <v>52.45818464705467</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1965,10 +1965,10 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>6.84650648066852</v>
+        <v>6.846506480668527</v>
       </c>
       <c r="R18" t="n">
-        <v>134.7086383504342</v>
+        <v>75.28763531479558</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -1980,7 +1980,7 @@
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>173.4908974577077</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>76.6626485857721</v>
+        <v>76.66264858577216</v>
       </c>
       <c r="C20" t="n">
-        <v>52.78090558911759</v>
+        <v>52.78090558911765</v>
       </c>
       <c r="D20" t="n">
-        <v>40.34756785016606</v>
+        <v>40.34756785016612</v>
       </c>
       <c r="E20" t="n">
-        <v>74.05432026957493</v>
+        <v>74.05432026957499</v>
       </c>
       <c r="F20" t="n">
-        <v>105.7746578479516</v>
+        <v>105.7746578479523</v>
       </c>
       <c r="G20" t="n">
         <v>121.4132451535436</v>
       </c>
       <c r="H20" t="n">
-        <v>49.59336558194013</v>
+        <v>49.59336558194019</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2138,16 +2138,16 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>23.45519181709079</v>
+        <v>23.45519181709085</v>
       </c>
       <c r="W20" t="n">
-        <v>40.47187203370567</v>
+        <v>40.47187203370578</v>
       </c>
       <c r="X20" t="n">
-        <v>62.3581225026449</v>
+        <v>62.35812250264496</v>
       </c>
       <c r="Y20" t="n">
-        <v>84.86097562638867</v>
+        <v>84.86097562638872</v>
       </c>
     </row>
     <row r="21">
@@ -2157,16 +2157,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C21" t="n">
         <v>187.5181515243659</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>149.0272207315632</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -2181,7 +2181,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>52.45818464705466</v>
+        <v>52.45818464705467</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2202,7 +2202,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>6.84650648066852</v>
+        <v>6.846506480668527</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -2217,16 +2217,16 @@
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>188.5623770505815</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>107.8252761046447</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>188.5623770505815</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2315,16 +2315,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>76.6626485857721</v>
+        <v>76.66264858577216</v>
       </c>
       <c r="C23" t="n">
-        <v>52.78090558911759</v>
+        <v>52.78090558911765</v>
       </c>
       <c r="D23" t="n">
-        <v>40.34756785016606</v>
+        <v>40.34756785016612</v>
       </c>
       <c r="E23" t="n">
-        <v>74.05432026957493</v>
+        <v>74.05432026957499</v>
       </c>
       <c r="F23" t="n">
         <v>105.7746578479523</v>
@@ -2333,7 +2333,7 @@
         <v>121.4132451535436</v>
       </c>
       <c r="H23" t="n">
-        <v>49.59336558194014</v>
+        <v>49.5933655819402</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2375,16 +2375,16 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>23.45519181709079</v>
+        <v>23.45519181709085</v>
       </c>
       <c r="W23" t="n">
-        <v>40.47187203370567</v>
+        <v>40.47187203370572</v>
       </c>
       <c r="X23" t="n">
-        <v>62.3581225026449</v>
+        <v>62.35812250264496</v>
       </c>
       <c r="Y23" t="n">
-        <v>84.86097562638867</v>
+        <v>84.86097562638872</v>
       </c>
     </row>
     <row r="24">
@@ -2394,7 +2394,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>136.5199885090821</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -2406,19 +2406,19 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>125.7337882414754</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>107.3572203790713</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>52.45818464705466</v>
+        <v>52.45818464705467</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2439,7 +2439,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>6.84650648066852</v>
+        <v>6.846506480668527</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -2451,13 +2451,13 @@
         <v>0</v>
       </c>
       <c r="U24" t="n">
+        <v>0</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="n">
         <v>188.5623770505815</v>
-      </c>
-      <c r="V24" t="n">
-        <v>0</v>
-      </c>
-      <c r="W24" t="n">
-        <v>62.25241900846386</v>
       </c>
       <c r="X24" t="n">
         <v>188.5623770505815</v>
@@ -2555,7 +2555,7 @@
         <v>160.6202637098006</v>
       </c>
       <c r="C26" t="n">
-        <v>136.738520713146</v>
+        <v>136.7385207131461</v>
       </c>
       <c r="D26" t="n">
         <v>124.3051829741945</v>
@@ -2567,13 +2567,13 @@
         <v>189.7322729719807</v>
       </c>
       <c r="G26" t="n">
-        <v>205.370860277572</v>
+        <v>205.3708602775721</v>
       </c>
       <c r="H26" t="n">
         <v>133.5509807059686</v>
       </c>
       <c r="I26" t="n">
-        <v>27.52983825036446</v>
+        <v>27.52983825036449</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,16 +2603,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>14.04236090203116</v>
+        <v>14.04236090203119</v>
       </c>
       <c r="T26" t="n">
-        <v>8.997433817177505</v>
+        <v>8.997433817177523</v>
       </c>
       <c r="U26" t="n">
-        <v>36.68353794325347</v>
+        <v>36.6835379432535</v>
       </c>
       <c r="V26" t="n">
-        <v>107.4128069411192</v>
+        <v>107.4128069411193</v>
       </c>
       <c r="W26" t="n">
         <v>124.4294871577341</v>
@@ -2634,19 +2634,19 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>86.29955302522542</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>148.7444246896586</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2655,7 +2655,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>52.45818464705467</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2676,7 +2676,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>6.846506480668527</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -2685,22 +2685,22 @@
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>1.503222277870521</v>
+        <v>1.50322227787055</v>
       </c>
       <c r="U27" t="n">
-        <v>23.7610810008974</v>
+        <v>45.14437764410274</v>
       </c>
       <c r="V27" t="n">
-        <v>27.18194424736947</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W27" t="n">
-        <v>266.7045835770116</v>
+        <v>53.23760690897885</v>
       </c>
       <c r="X27" t="n">
-        <v>3.845937771437832</v>
+        <v>3.84593777143786</v>
       </c>
       <c r="Y27" t="n">
-        <v>9.917309465992844</v>
+        <v>9.917309465992872</v>
       </c>
     </row>
     <row r="28">
@@ -2761,25 +2761,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>21.96844096064989</v>
+        <v>21.96844096064992</v>
       </c>
       <c r="T28" t="n">
-        <v>10.29393777257505</v>
+        <v>10.29393777257508</v>
       </c>
       <c r="U28" t="n">
-        <v>75.18957207913222</v>
+        <v>75.18957207913225</v>
       </c>
       <c r="V28" t="n">
-        <v>31.64203851641713</v>
+        <v>31.64203851641716</v>
       </c>
       <c r="W28" t="n">
-        <v>76.84373042130255</v>
+        <v>76.84373042130258</v>
       </c>
       <c r="X28" t="n">
-        <v>8.452478740209756</v>
+        <v>8.452478740209784</v>
       </c>
       <c r="Y28" t="n">
-        <v>3.674296146135646</v>
+        <v>3.674296146135674</v>
       </c>
     </row>
     <row r="29">
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>160.6202637098005</v>
+        <v>160.6202637098006</v>
       </c>
       <c r="C29" t="n">
         <v>136.738520713146</v>
@@ -2810,7 +2810,7 @@
         <v>133.5509807059686</v>
       </c>
       <c r="I29" t="n">
-        <v>27.52983825036443</v>
+        <v>27.52983825036446</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,13 +2840,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>14.04236090203114</v>
+        <v>14.04236090203117</v>
       </c>
       <c r="T29" t="n">
-        <v>8.997433817177477</v>
+        <v>8.997433817177507</v>
       </c>
       <c r="U29" t="n">
-        <v>36.68353794325344</v>
+        <v>36.68353794325347</v>
       </c>
       <c r="V29" t="n">
         <v>107.4128069411192</v>
@@ -2855,7 +2855,7 @@
         <v>124.4294871577341</v>
       </c>
       <c r="X29" t="n">
-        <v>146.3157376266733</v>
+        <v>146.3157376266734</v>
       </c>
       <c r="Y29" t="n">
         <v>168.8185907504171</v>
@@ -2868,10 +2868,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>128.1816956285979</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -2880,19 +2880,19 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>125.7337882414754</v>
       </c>
       <c r="I30" t="n">
-        <v>107.3572203790713</v>
+        <v>18.44510794772184</v>
       </c>
       <c r="J30" t="n">
-        <v>52.45818464705466</v>
+        <v>52.45818464705467</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2913,7 +2913,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>6.84650648066852</v>
+        <v>6.846506480668527</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -2922,22 +2922,22 @@
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>1.503222277870492</v>
+        <v>214.9701989459033</v>
       </c>
       <c r="U30" t="n">
-        <v>23.76108100089737</v>
+        <v>23.7610810008974</v>
       </c>
       <c r="V30" t="n">
-        <v>27.18194424736944</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W30" t="n">
-        <v>53.23760690897879</v>
+        <v>53.23760690897882</v>
       </c>
       <c r="X30" t="n">
-        <v>3.845937771437804</v>
+        <v>3.845937771437832</v>
       </c>
       <c r="Y30" t="n">
-        <v>9.917309465992815</v>
+        <v>9.917309465992844</v>
       </c>
     </row>
     <row r="31">
@@ -2998,25 +2998,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>21.96844096064986</v>
+        <v>21.96844096064989</v>
       </c>
       <c r="T31" t="n">
-        <v>10.29393777257502</v>
+        <v>10.29393777257505</v>
       </c>
       <c r="U31" t="n">
-        <v>75.18957207913219</v>
+        <v>75.18957207913222</v>
       </c>
       <c r="V31" t="n">
-        <v>31.6420385164171</v>
+        <v>31.64203851641713</v>
       </c>
       <c r="W31" t="n">
-        <v>76.84373042130252</v>
+        <v>76.84373042130255</v>
       </c>
       <c r="X31" t="n">
-        <v>8.452478740209727</v>
+        <v>8.452478740209756</v>
       </c>
       <c r="Y31" t="n">
-        <v>3.674296146135617</v>
+        <v>3.674296146135646</v>
       </c>
     </row>
     <row r="32">
@@ -3026,10 +3026,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>160.6202637098006</v>
+        <v>160.6202637098007</v>
       </c>
       <c r="C32" t="n">
-        <v>136.7385207131461</v>
+        <v>136.7385207131462</v>
       </c>
       <c r="D32" t="n">
         <v>124.3051829741946</v>
@@ -3047,7 +3047,7 @@
         <v>133.5509807059687</v>
       </c>
       <c r="I32" t="n">
-        <v>27.52983825036455</v>
+        <v>27.52983825036458</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,22 +3077,22 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>14.04236090203125</v>
+        <v>14.04236090203128</v>
       </c>
       <c r="T32" t="n">
-        <v>8.99743381717758</v>
+        <v>8.997433817177608</v>
       </c>
       <c r="U32" t="n">
-        <v>36.68353794325355</v>
+        <v>36.68353794325358</v>
       </c>
       <c r="V32" t="n">
-        <v>107.4128069411193</v>
+        <v>107.4128069411194</v>
       </c>
       <c r="W32" t="n">
         <v>124.4294871577342</v>
       </c>
       <c r="X32" t="n">
-        <v>146.3157376266734</v>
+        <v>146.3157376266735</v>
       </c>
       <c r="Y32" t="n">
         <v>168.8185907504172</v>
@@ -3108,7 +3108,7 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
@@ -3117,19 +3117,19 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>125.7337882414754</v>
       </c>
       <c r="I33" t="n">
-        <v>107.3572203790713</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>52.45818464705466</v>
+        <v>52.45818464705467</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3150,31 +3150,31 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>6.84650648066852</v>
+        <v>6.846506480668527</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>134.7086383504342</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>1.503222277870606</v>
+        <v>1.503222277870635</v>
       </c>
       <c r="U33" t="n">
-        <v>23.76108100089748</v>
+        <v>23.76108100089751</v>
       </c>
       <c r="V33" t="n">
-        <v>27.18194424736956</v>
+        <v>27.18194424736959</v>
       </c>
       <c r="W33" t="n">
-        <v>144.7028202672091</v>
+        <v>176.3898783179654</v>
       </c>
       <c r="X33" t="n">
-        <v>3.845937771437917</v>
+        <v>3.845937771437946</v>
       </c>
       <c r="Y33" t="n">
-        <v>223.3842861340256</v>
+        <v>9.917309465992957</v>
       </c>
     </row>
     <row r="34">
@@ -3235,25 +3235,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>21.96844096064998</v>
+        <v>21.96844096065001</v>
       </c>
       <c r="T34" t="n">
-        <v>10.29393777257514</v>
+        <v>10.29393777257516</v>
       </c>
       <c r="U34" t="n">
-        <v>75.1895720791323</v>
+        <v>75.18957207913233</v>
       </c>
       <c r="V34" t="n">
-        <v>31.64203851641722</v>
+        <v>31.64203851641724</v>
       </c>
       <c r="W34" t="n">
-        <v>76.84373042130264</v>
+        <v>76.84373042130267</v>
       </c>
       <c r="X34" t="n">
-        <v>8.452478740209841</v>
+        <v>8.45247874020987</v>
       </c>
       <c r="Y34" t="n">
-        <v>3.674296146135731</v>
+        <v>3.674296146135759</v>
       </c>
     </row>
     <row r="35">
@@ -3266,22 +3266,22 @@
         <v>102.027563532976</v>
       </c>
       <c r="C35" t="n">
-        <v>78.14582053632148</v>
+        <v>78.14582053632154</v>
       </c>
       <c r="D35" t="n">
-        <v>65.71248279736994</v>
+        <v>65.71248279737</v>
       </c>
       <c r="E35" t="n">
-        <v>99.41923521677882</v>
+        <v>99.41923521677887</v>
       </c>
       <c r="F35" t="n">
-        <v>131.1395727951561</v>
+        <v>131.1395727951562</v>
       </c>
       <c r="G35" t="n">
         <v>146.7781601007475</v>
       </c>
       <c r="H35" t="n">
-        <v>74.95828052914402</v>
+        <v>74.95828052914408</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3323,13 +3323,13 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>48.82010676429468</v>
+        <v>48.82010676429474</v>
       </c>
       <c r="W35" t="n">
-        <v>65.83678698090955</v>
+        <v>65.83678698090961</v>
       </c>
       <c r="X35" t="n">
-        <v>87.72303744984879</v>
+        <v>87.72303744984885</v>
       </c>
       <c r="Y35" t="n">
         <v>110.2258905735926</v>
@@ -3342,31 +3342,31 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C36" t="n">
         <v>187.5181515243659</v>
       </c>
       <c r="D36" t="n">
-        <v>159.1723150765785</v>
+        <v>93.20029665523128</v>
       </c>
       <c r="E36" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>72.52316476486052</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>125.7337882414754</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>107.3572203790713</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>52.45818464705467</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3387,7 +3387,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>6.846506480668527</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -3478,13 +3478,13 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>16.59687190230765</v>
+        <v>16.5968719023077</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>18.25103024447799</v>
+        <v>18.25103024447805</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3503,22 +3503,22 @@
         <v>102.027563532976</v>
       </c>
       <c r="C38" t="n">
-        <v>78.14582053632148</v>
+        <v>78.14582053632154</v>
       </c>
       <c r="D38" t="n">
-        <v>65.71248279736994</v>
+        <v>65.71248279737</v>
       </c>
       <c r="E38" t="n">
-        <v>99.41923521677882</v>
+        <v>99.41923521677887</v>
       </c>
       <c r="F38" t="n">
-        <v>131.1395727951561</v>
+        <v>131.1395727951562</v>
       </c>
       <c r="G38" t="n">
         <v>146.7781601007475</v>
       </c>
       <c r="H38" t="n">
-        <v>74.95828052914402</v>
+        <v>74.95828052914408</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3560,13 +3560,13 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>48.82010676429468</v>
+        <v>48.82010676429474</v>
       </c>
       <c r="W38" t="n">
-        <v>65.83678698090955</v>
+        <v>65.83678698090961</v>
       </c>
       <c r="X38" t="n">
-        <v>87.72303744984879</v>
+        <v>87.72303744984885</v>
       </c>
       <c r="Y38" t="n">
         <v>110.2258905735926</v>
@@ -3582,28 +3582,28 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>125.7337882414754</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>107.3572203790713</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>52.45818464705466</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -3624,10 +3624,10 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>6.84650648066852</v>
+        <v>6.846506480668527</v>
       </c>
       <c r="R39" t="n">
-        <v>134.7086383504342</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -3639,16 +3639,16 @@
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>65.67665828419175</v>
       </c>
       <c r="W39" t="n">
         <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>105.4473897873585</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3715,13 +3715,13 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>16.59687190230765</v>
+        <v>16.5968719023077</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>18.25103024447799</v>
+        <v>18.25103024447805</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3794,7 +3794,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>9.153699692889006</v>
+        <v>9.153699692889013</v>
       </c>
       <c r="V41" t="n">
         <v>79.88296869075478</v>
@@ -3819,28 +3819,28 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>125.7337882414754</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>107.3572203790713</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>52.45818464705466</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -3861,16 +3861,16 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>6.84650648066852</v>
+        <v>6.846506480668527</v>
       </c>
       <c r="R42" t="n">
-        <v>134.7086383504342</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>214.9701989459033</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
@@ -3879,10 +3879,10 @@
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>25.70776865861436</v>
+        <v>65.67665828419175</v>
       </c>
       <c r="X42" t="n">
-        <v>82.08233662231149</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -4031,7 +4031,7 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>9.153699692889006</v>
+        <v>9.153699692889013</v>
       </c>
       <c r="V44" t="n">
         <v>79.88296869075478</v>
@@ -4056,10 +4056,10 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
@@ -4068,13 +4068,13 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>148.7444246896586</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>107.3572203790713</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4113,16 +4113,16 @@
         <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>253.1140763414009</v>
+        <v>179.7898895905627</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="46">
@@ -5015,46 +5015,46 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>205.5520376898864</v>
+        <v>248.7773877835292</v>
       </c>
       <c r="C11" t="n">
-        <v>205.5520376898864</v>
+        <v>248.7773877835292</v>
       </c>
       <c r="D11" t="n">
-        <v>205.5520376898864</v>
+        <v>248.7773877835292</v>
       </c>
       <c r="E11" t="n">
-        <v>205.5520376898864</v>
+        <v>248.7773877835292</v>
       </c>
       <c r="F11" t="n">
-        <v>205.5520376898864</v>
+        <v>248.7773877835292</v>
       </c>
       <c r="G11" t="n">
-        <v>15.08499016404652</v>
+        <v>248.7773877835292</v>
       </c>
       <c r="H11" t="n">
-        <v>15.08499016404652</v>
+        <v>78.38515743055352</v>
       </c>
       <c r="I11" t="n">
         <v>15.08499016404652</v>
       </c>
       <c r="J11" t="n">
-        <v>115.6457740567086</v>
+        <v>15.08499016404652</v>
       </c>
       <c r="K11" t="n">
-        <v>285.5745218649279</v>
+        <v>127.5677175903082</v>
       </c>
       <c r="L11" t="n">
-        <v>332.3478600952218</v>
+        <v>314.2444708703839</v>
       </c>
       <c r="M11" t="n">
-        <v>413.2681708183735</v>
+        <v>395.1647815935356</v>
       </c>
       <c r="N11" t="n">
-        <v>488.6554207516116</v>
+        <v>470.5520315267736</v>
       </c>
       <c r="O11" t="n">
-        <v>522.9321043850412</v>
+        <v>504.8287151602032</v>
       </c>
       <c r="P11" t="n">
         <v>666.4818518381371</v>
@@ -5078,13 +5078,13 @@
         <v>560.5830207981792</v>
       </c>
       <c r="W11" t="n">
-        <v>560.5830207981792</v>
+        <v>399.4044202919049</v>
       </c>
       <c r="X11" t="n">
-        <v>560.5830207981792</v>
+        <v>399.4044202919049</v>
       </c>
       <c r="Y11" t="n">
-        <v>370.1159732723393</v>
+        <v>248.7773877835292</v>
       </c>
     </row>
     <row r="12">
@@ -5094,43 +5094,43 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>253.794259989031</v>
+        <v>77.3543708174458</v>
       </c>
       <c r="C12" t="n">
-        <v>241.6362593426873</v>
+        <v>68.07305546410174</v>
       </c>
       <c r="D12" t="n">
-        <v>241.6362593426873</v>
+        <v>68.07305546410174</v>
       </c>
       <c r="E12" t="n">
-        <v>68.07305546410173</v>
+        <v>68.07305546410174</v>
       </c>
       <c r="F12" t="n">
-        <v>68.07305546410173</v>
+        <v>68.07305546410174</v>
       </c>
       <c r="G12" t="n">
-        <v>68.07305546410173</v>
+        <v>68.07305546410174</v>
       </c>
       <c r="H12" t="n">
-        <v>68.07305546410173</v>
+        <v>68.07305546410174</v>
       </c>
       <c r="I12" t="n">
-        <v>68.07305546410173</v>
+        <v>68.07305546410174</v>
       </c>
       <c r="J12" t="n">
         <v>15.08499016404652</v>
       </c>
       <c r="K12" t="n">
-        <v>53.07705719635116</v>
+        <v>53.07705719635129</v>
       </c>
       <c r="L12" t="n">
-        <v>170.4486221681694</v>
+        <v>170.4486221681695</v>
       </c>
       <c r="M12" t="n">
-        <v>352.1703666486675</v>
+        <v>352.1703666486676</v>
       </c>
       <c r="N12" t="n">
-        <v>538.8471199287432</v>
+        <v>538.8471199287433</v>
       </c>
       <c r="O12" t="n">
         <v>670.5904072110301</v>
@@ -5145,25 +5145,25 @@
         <v>754.2495082023261</v>
       </c>
       <c r="S12" t="n">
-        <v>740.8577884361476</v>
+        <v>564.4178992645623</v>
       </c>
       <c r="T12" t="n">
-        <v>550.3907409103077</v>
+        <v>373.9508517387223</v>
       </c>
       <c r="U12" t="n">
-        <v>490.8973991483128</v>
+        <v>314.4575099767275</v>
       </c>
       <c r="V12" t="n">
-        <v>427.9486399656391</v>
+        <v>251.5087507940538</v>
       </c>
       <c r="W12" t="n">
-        <v>338.6810296096226</v>
+        <v>162.2411404380373</v>
       </c>
       <c r="X12" t="n">
-        <v>299.3039941400111</v>
+        <v>122.8641049684259</v>
       </c>
       <c r="Y12" t="n">
-        <v>253.794259989031</v>
+        <v>77.3543708174458</v>
       </c>
     </row>
     <row r="13">
@@ -5176,70 +5176,70 @@
         <v>15.08499016404652</v>
       </c>
       <c r="C13" t="n">
-        <v>15.08499016404652</v>
+        <v>26.83873383310365</v>
       </c>
       <c r="D13" t="n">
-        <v>15.08499016404652</v>
+        <v>59.6542629162098</v>
       </c>
       <c r="E13" t="n">
-        <v>51.37196319525348</v>
+        <v>95.9412359474168</v>
       </c>
       <c r="F13" t="n">
-        <v>90.38070263030099</v>
+        <v>95.9412359474168</v>
       </c>
       <c r="G13" t="n">
-        <v>99.91343750215098</v>
+        <v>105.4739708192669</v>
       </c>
       <c r="H13" t="n">
-        <v>112.2949633427587</v>
+        <v>117.8554966598746</v>
       </c>
       <c r="I13" t="n">
-        <v>125.6413651916691</v>
+        <v>117.8554966598746</v>
       </c>
       <c r="J13" t="n">
-        <v>183.1610562582808</v>
+        <v>117.8554966598746</v>
       </c>
       <c r="K13" t="n">
-        <v>183.1610562582808</v>
+        <v>228.0595056208724</v>
       </c>
       <c r="L13" t="n">
-        <v>327.8992957135388</v>
+        <v>228.0595056208724</v>
       </c>
       <c r="M13" t="n">
-        <v>379.7825711421978</v>
+        <v>308.4176569022806</v>
       </c>
       <c r="N13" t="n">
-        <v>379.7825711421978</v>
+        <v>468.6318884260452</v>
       </c>
       <c r="O13" t="n">
-        <v>519.2459201612854</v>
+        <v>468.6318884260452</v>
       </c>
       <c r="P13" t="n">
-        <v>519.2459201612854</v>
+        <v>468.6318884260452</v>
       </c>
       <c r="Q13" t="n">
-        <v>519.2459201612854</v>
+        <v>519.245920161285</v>
       </c>
       <c r="R13" t="n">
-        <v>493.8989154577484</v>
+        <v>493.898915457748</v>
       </c>
       <c r="S13" t="n">
-        <v>436.2163212111551</v>
+        <v>436.2163212111548</v>
       </c>
       <c r="T13" t="n">
-        <v>390.3261544272636</v>
+        <v>390.3261544272634</v>
       </c>
       <c r="U13" t="n">
-        <v>278.884841879173</v>
+        <v>278.8848418791728</v>
       </c>
       <c r="V13" t="n">
-        <v>211.4309369701885</v>
+        <v>211.4309369701883</v>
       </c>
       <c r="W13" t="n">
-        <v>98.31875740980456</v>
+        <v>98.31875740980445</v>
       </c>
       <c r="X13" t="n">
-        <v>54.28865025456488</v>
+        <v>54.28865025456482</v>
       </c>
       <c r="Y13" t="n">
         <v>15.08499016404652</v>
@@ -5252,25 +5252,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>315.256211272647</v>
+        <v>509.6852507700095</v>
       </c>
       <c r="C14" t="n">
-        <v>141.6442435386837</v>
+        <v>336.0732830360463</v>
       </c>
       <c r="D14" t="n">
-        <v>141.6442435386837</v>
+        <v>336.0732830360463</v>
       </c>
       <c r="E14" t="n">
-        <v>141.6442435386837</v>
+        <v>145.6062355102063</v>
       </c>
       <c r="F14" t="n">
-        <v>141.6442435386837</v>
+        <v>145.6062355102063</v>
       </c>
       <c r="G14" t="n">
-        <v>141.6442435386837</v>
+        <v>145.6062355102063</v>
       </c>
       <c r="H14" t="n">
-        <v>15.08499016404652</v>
+        <v>78.38515743055358</v>
       </c>
       <c r="I14" t="n">
         <v>15.08499016404652</v>
@@ -5279,7 +5279,7 @@
         <v>115.6457740567086</v>
       </c>
       <c r="K14" t="n">
-        <v>285.5745218649278</v>
+        <v>285.5745218649279</v>
       </c>
       <c r="L14" t="n">
         <v>472.2512751450035</v>
@@ -5306,22 +5306,22 @@
         <v>737.5517418112273</v>
       </c>
       <c r="T14" t="n">
-        <v>692.9711749822828</v>
+        <v>692.9711749822831</v>
       </c>
       <c r="U14" t="n">
-        <v>620.4248464098271</v>
+        <v>692.9711749822831</v>
       </c>
       <c r="V14" t="n">
-        <v>476.4348117789212</v>
+        <v>692.9711749822831</v>
       </c>
       <c r="W14" t="n">
-        <v>315.256211272647</v>
+        <v>692.9711749822831</v>
       </c>
       <c r="X14" t="n">
-        <v>315.256211272647</v>
+        <v>509.6852507700095</v>
       </c>
       <c r="Y14" t="n">
-        <v>315.256211272647</v>
+        <v>509.6852507700095</v>
       </c>
     </row>
     <row r="15">
@@ -5331,43 +5331,43 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>77.35437081744587</v>
+        <v>204.4972644310828</v>
       </c>
       <c r="C15" t="n">
-        <v>68.07305546410173</v>
+        <v>15.08499016404652</v>
       </c>
       <c r="D15" t="n">
-        <v>68.07305546410173</v>
+        <v>15.08499016404652</v>
       </c>
       <c r="E15" t="n">
-        <v>68.07305546410173</v>
+        <v>15.08499016404652</v>
       </c>
       <c r="F15" t="n">
-        <v>68.07305546410173</v>
+        <v>15.08499016404652</v>
       </c>
       <c r="G15" t="n">
-        <v>68.07305546410173</v>
+        <v>15.08499016404652</v>
       </c>
       <c r="H15" t="n">
-        <v>68.07305546410173</v>
+        <v>15.08499016404652</v>
       </c>
       <c r="I15" t="n">
-        <v>68.07305546410173</v>
+        <v>15.08499016404652</v>
       </c>
       <c r="J15" t="n">
         <v>15.08499016404652</v>
       </c>
       <c r="K15" t="n">
-        <v>53.07705719635116</v>
+        <v>53.07705719635129</v>
       </c>
       <c r="L15" t="n">
-        <v>170.4486221681694</v>
+        <v>170.4486221681695</v>
       </c>
       <c r="M15" t="n">
-        <v>352.1703666486675</v>
+        <v>352.1703666486676</v>
       </c>
       <c r="N15" t="n">
-        <v>538.8471199287432</v>
+        <v>538.8471199287433</v>
       </c>
       <c r="O15" t="n">
         <v>670.5904072110301</v>
@@ -5376,31 +5376,31 @@
         <v>754.2495082023261</v>
       </c>
       <c r="Q15" t="n">
-        <v>747.3338450905397</v>
+        <v>747.3338450905396</v>
       </c>
       <c r="R15" t="n">
-        <v>747.3338450905397</v>
+        <v>611.2645134234344</v>
       </c>
       <c r="S15" t="n">
-        <v>556.8667975646998</v>
+        <v>597.872793657256</v>
       </c>
       <c r="T15" t="n">
-        <v>373.9508517387228</v>
+        <v>560.8621374740761</v>
       </c>
       <c r="U15" t="n">
-        <v>314.4575099767279</v>
+        <v>501.3687957120812</v>
       </c>
       <c r="V15" t="n">
-        <v>251.5087507940541</v>
+        <v>438.4200365294075</v>
       </c>
       <c r="W15" t="n">
-        <v>162.2411404380376</v>
+        <v>349.152426173391</v>
       </c>
       <c r="X15" t="n">
-        <v>122.8641049684261</v>
+        <v>250.006998582063</v>
       </c>
       <c r="Y15" t="n">
-        <v>77.35437081744587</v>
+        <v>204.4972644310828</v>
       </c>
     </row>
     <row r="16">
@@ -5410,73 +5410,73 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>15.79059153703778</v>
+        <v>15.08499016404652</v>
       </c>
       <c r="C16" t="n">
-        <v>15.79059153703778</v>
+        <v>26.83873383310359</v>
       </c>
       <c r="D16" t="n">
-        <v>48.60612062014384</v>
+        <v>59.65426291620969</v>
       </c>
       <c r="E16" t="n">
-        <v>48.60612062014384</v>
+        <v>95.94123594741664</v>
       </c>
       <c r="F16" t="n">
-        <v>87.61486005519131</v>
+        <v>134.9499753824641</v>
       </c>
       <c r="G16" t="n">
-        <v>89.04098346245787</v>
+        <v>144.4827102543141</v>
       </c>
       <c r="H16" t="n">
-        <v>101.4225093030656</v>
+        <v>156.8642360949219</v>
       </c>
       <c r="I16" t="n">
-        <v>114.7689111519759</v>
+        <v>170.2106379438322</v>
       </c>
       <c r="J16" t="n">
-        <v>172.2886022185876</v>
+        <v>227.7303290104439</v>
       </c>
       <c r="K16" t="n">
-        <v>172.2886022185876</v>
+        <v>337.9343379714416</v>
       </c>
       <c r="L16" t="n">
-        <v>317.0268416738455</v>
+        <v>482.6725774266996</v>
       </c>
       <c r="M16" t="n">
-        <v>468.631888426046</v>
+        <v>519.2459201612854</v>
       </c>
       <c r="N16" t="n">
-        <v>468.631888426046</v>
+        <v>519.2459201612854</v>
       </c>
       <c r="O16" t="n">
-        <v>468.631888426046</v>
+        <v>519.2459201612854</v>
       </c>
       <c r="P16" t="n">
-        <v>468.631888426046</v>
+        <v>519.2459201612854</v>
       </c>
       <c r="Q16" t="n">
-        <v>519.2459201612857</v>
+        <v>519.2459201612854</v>
       </c>
       <c r="R16" t="n">
-        <v>493.8989154577487</v>
+        <v>493.8989154577484</v>
       </c>
       <c r="S16" t="n">
-        <v>436.2163212111553</v>
+        <v>436.2163212111551</v>
       </c>
       <c r="T16" t="n">
-        <v>390.3261544272638</v>
+        <v>390.3261544272636</v>
       </c>
       <c r="U16" t="n">
-        <v>278.8848418791731</v>
+        <v>278.884841879173</v>
       </c>
       <c r="V16" t="n">
-        <v>211.4309369701886</v>
+        <v>211.4309369701885</v>
       </c>
       <c r="W16" t="n">
-        <v>98.31875740980462</v>
+        <v>98.31875740980456</v>
       </c>
       <c r="X16" t="n">
-        <v>54.28865025456491</v>
+        <v>54.28865025456488</v>
       </c>
       <c r="Y16" t="n">
         <v>15.08499016404652</v>
@@ -5489,19 +5489,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>463.533537934041</v>
+        <v>463.5335379340411</v>
       </c>
       <c r="C17" t="n">
-        <v>410.2194918844273</v>
+        <v>410.2194918844274</v>
       </c>
       <c r="D17" t="n">
-        <v>369.4643728438555</v>
+        <v>369.4643728438556</v>
       </c>
       <c r="E17" t="n">
-        <v>294.6620291372141</v>
+        <v>294.6620291372143</v>
       </c>
       <c r="F17" t="n">
-        <v>187.8189404019088</v>
+        <v>187.818940401909</v>
       </c>
       <c r="G17" t="n">
         <v>65.17929883267293</v>
@@ -5516,34 +5516,34 @@
         <v>257.6252425490496</v>
       </c>
       <c r="K17" t="n">
-        <v>373.465244508653</v>
+        <v>368.5520770703305</v>
       </c>
       <c r="L17" t="n">
-        <v>420.2385827389469</v>
+        <v>415.3254153006244</v>
       </c>
       <c r="M17" t="n">
-        <v>501.1588934620986</v>
+        <v>496.2457260237761</v>
       </c>
       <c r="N17" t="n">
-        <v>576.5461433953367</v>
+        <v>571.6329759570142</v>
       </c>
       <c r="O17" t="n">
-        <v>610.8228270287663</v>
+        <v>605.9096595904438</v>
       </c>
       <c r="P17" t="n">
-        <v>610.8228270287663</v>
+        <v>605.9096595904438</v>
       </c>
       <c r="Q17" t="n">
-        <v>610.8228270287663</v>
+        <v>605.9096595904438</v>
       </c>
       <c r="R17" t="n">
-        <v>610.8228270287663</v>
+        <v>707.4481717933588</v>
       </c>
       <c r="S17" t="n">
-        <v>680.0389287085436</v>
+        <v>707.4481717933588</v>
       </c>
       <c r="T17" t="n">
-        <v>754.2495082023261</v>
+        <v>707.4481717933588</v>
       </c>
       <c r="U17" t="n">
         <v>754.2495082023261</v>
@@ -5555,7 +5555,7 @@
         <v>689.6767164338448</v>
       </c>
       <c r="X17" t="n">
-        <v>626.6887139059206</v>
+        <v>626.6887139059207</v>
       </c>
       <c r="Y17" t="n">
         <v>540.9705567075482</v>
@@ -5568,34 +5568,34 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>257.485329731138</v>
+        <v>671.2857286109481</v>
       </c>
       <c r="C18" t="n">
-        <v>68.07305546410173</v>
+        <v>671.2857286109481</v>
       </c>
       <c r="D18" t="n">
-        <v>68.07305546410173</v>
+        <v>510.5056123719799</v>
       </c>
       <c r="E18" t="n">
-        <v>68.07305546410173</v>
+        <v>336.9424084933943</v>
       </c>
       <c r="F18" t="n">
-        <v>68.07305546410173</v>
+        <v>176.5146922106384</v>
       </c>
       <c r="G18" t="n">
-        <v>68.07305546410173</v>
+        <v>176.5146922106384</v>
       </c>
       <c r="H18" t="n">
-        <v>68.07305546410173</v>
+        <v>176.5146922106384</v>
       </c>
       <c r="I18" t="n">
-        <v>68.07305546410173</v>
+        <v>68.07305546410174</v>
       </c>
       <c r="J18" t="n">
         <v>15.08499016404652</v>
       </c>
       <c r="K18" t="n">
-        <v>53.07705719635115</v>
+        <v>53.07705719635112</v>
       </c>
       <c r="L18" t="n">
         <v>170.4486221681694</v>
@@ -5604,7 +5604,7 @@
         <v>352.1703666486675</v>
       </c>
       <c r="N18" t="n">
-        <v>538.8471199287432</v>
+        <v>538.8471199287433</v>
       </c>
       <c r="O18" t="n">
         <v>670.5904072110301</v>
@@ -5613,31 +5613,31 @@
         <v>754.2495082023261</v>
       </c>
       <c r="Q18" t="n">
-        <v>747.3338450905397</v>
+        <v>747.3338450905396</v>
       </c>
       <c r="R18" t="n">
-        <v>611.2645134234344</v>
+        <v>671.2857286109481</v>
       </c>
       <c r="S18" t="n">
-        <v>611.2645134234344</v>
+        <v>671.2857286109481</v>
       </c>
       <c r="T18" t="n">
-        <v>611.2645134234344</v>
+        <v>671.2857286109481</v>
       </c>
       <c r="U18" t="n">
-        <v>611.2645134234344</v>
+        <v>671.2857286109481</v>
       </c>
       <c r="V18" t="n">
-        <v>436.0211826580731</v>
+        <v>671.2857286109481</v>
       </c>
       <c r="W18" t="n">
-        <v>436.0211826580731</v>
+        <v>671.2857286109481</v>
       </c>
       <c r="X18" t="n">
-        <v>436.0211826580731</v>
+        <v>671.2857286109481</v>
       </c>
       <c r="Y18" t="n">
-        <v>436.0211826580731</v>
+        <v>671.2857286109481</v>
       </c>
     </row>
     <row r="19">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>463.5335379340412</v>
+        <v>463.5335379340403</v>
       </c>
       <c r="C20" t="n">
-        <v>410.2194918844275</v>
+        <v>410.2194918844265</v>
       </c>
       <c r="D20" t="n">
-        <v>369.4643728438555</v>
+        <v>369.4643728438549</v>
       </c>
       <c r="E20" t="n">
-        <v>294.6620291372137</v>
+        <v>294.6620291372135</v>
       </c>
       <c r="F20" t="n">
-        <v>187.818940401909</v>
+        <v>187.8189404019081</v>
       </c>
       <c r="G20" t="n">
-        <v>65.17929883267293</v>
+        <v>65.17929883267298</v>
       </c>
       <c r="H20" t="n">
         <v>15.08499016404652</v>
       </c>
       <c r="I20" t="n">
-        <v>70.94848926897387</v>
+        <v>15.08499016404652</v>
       </c>
       <c r="J20" t="n">
-        <v>70.94848926897387</v>
+        <v>38.44864261669541</v>
       </c>
       <c r="K20" t="n">
-        <v>257.6252425490496</v>
+        <v>38.44864261669541</v>
       </c>
       <c r="L20" t="n">
-        <v>304.3985807793435</v>
+        <v>85.22198084698934</v>
       </c>
       <c r="M20" t="n">
-        <v>385.3188915024953</v>
+        <v>166.142291570141</v>
       </c>
       <c r="N20" t="n">
-        <v>460.7061414357333</v>
+        <v>241.5295415033791</v>
       </c>
       <c r="O20" t="n">
-        <v>494.9828250691629</v>
+        <v>275.8062251368086</v>
       </c>
       <c r="P20" t="n">
-        <v>494.9828250691629</v>
+        <v>462.4829784168844</v>
       </c>
       <c r="Q20" t="n">
-        <v>610.8228270287663</v>
+        <v>462.4829784168844</v>
       </c>
       <c r="R20" t="n">
-        <v>610.8228270287663</v>
+        <v>564.0214906197994</v>
       </c>
       <c r="S20" t="n">
-        <v>680.0389287085436</v>
+        <v>633.2375922995766</v>
       </c>
       <c r="T20" t="n">
-        <v>754.2495082023261</v>
+        <v>707.4481717933589</v>
       </c>
       <c r="U20" t="n">
         <v>754.2495082023261</v>
       </c>
       <c r="V20" t="n">
-        <v>730.5573952557697</v>
+        <v>730.5573952557696</v>
       </c>
       <c r="W20" t="n">
-        <v>689.6767164338451</v>
+        <v>689.6767164338443</v>
       </c>
       <c r="X20" t="n">
-        <v>626.6887139059208</v>
+        <v>626.6887139059201</v>
       </c>
       <c r="Y20" t="n">
-        <v>540.9705567075483</v>
+        <v>540.9705567075475</v>
       </c>
     </row>
     <row r="21">
@@ -5805,28 +5805,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>257.485329731138</v>
+        <v>568.7979921636045</v>
       </c>
       <c r="C21" t="n">
-        <v>68.07305546410173</v>
+        <v>379.3857178965682</v>
       </c>
       <c r="D21" t="n">
-        <v>68.07305546410173</v>
+        <v>218.6056016575999</v>
       </c>
       <c r="E21" t="n">
-        <v>68.07305546410173</v>
+        <v>68.07305546410174</v>
       </c>
       <c r="F21" t="n">
-        <v>68.07305546410173</v>
+        <v>68.07305546410174</v>
       </c>
       <c r="G21" t="n">
-        <v>68.07305546410173</v>
+        <v>68.07305546410174</v>
       </c>
       <c r="H21" t="n">
-        <v>68.07305546410173</v>
+        <v>68.07305546410174</v>
       </c>
       <c r="I21" t="n">
-        <v>68.07305546410173</v>
+        <v>68.07305546410174</v>
       </c>
       <c r="J21" t="n">
         <v>15.08499016404652</v>
@@ -5838,10 +5838,10 @@
         <v>170.4486221681694</v>
       </c>
       <c r="M21" t="n">
-        <v>352.1703666486675</v>
+        <v>352.1703666486676</v>
       </c>
       <c r="N21" t="n">
-        <v>538.8471199287432</v>
+        <v>538.8471199287433</v>
       </c>
       <c r="O21" t="n">
         <v>670.5904072110301</v>
@@ -5850,31 +5850,31 @@
         <v>754.2495082023261</v>
       </c>
       <c r="Q21" t="n">
-        <v>747.3338450905397</v>
+        <v>747.3338450905396</v>
       </c>
       <c r="R21" t="n">
-        <v>747.3338450905397</v>
+        <v>747.3338450905396</v>
       </c>
       <c r="S21" t="n">
-        <v>747.3338450905397</v>
+        <v>747.3338450905396</v>
       </c>
       <c r="T21" t="n">
-        <v>747.3338450905397</v>
+        <v>747.3338450905396</v>
       </c>
       <c r="U21" t="n">
-        <v>747.3338450905397</v>
+        <v>747.3338450905396</v>
       </c>
       <c r="V21" t="n">
-        <v>556.8667975646998</v>
+        <v>747.3338450905396</v>
       </c>
       <c r="W21" t="n">
-        <v>447.9523772569779</v>
+        <v>747.3338450905396</v>
       </c>
       <c r="X21" t="n">
-        <v>447.9523772569779</v>
+        <v>747.3338450905396</v>
       </c>
       <c r="Y21" t="n">
-        <v>257.485329731138</v>
+        <v>747.3338450905396</v>
       </c>
     </row>
     <row r="22">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>463.5335379340411</v>
+        <v>463.5335379340415</v>
       </c>
       <c r="C23" t="n">
-        <v>410.2194918844273</v>
+        <v>410.2194918844277</v>
       </c>
       <c r="D23" t="n">
-        <v>369.4643728438555</v>
+        <v>369.4643728438558</v>
       </c>
       <c r="E23" t="n">
-        <v>294.6620291372142</v>
+        <v>294.6620291372144</v>
       </c>
       <c r="F23" t="n">
-        <v>187.8189404019089</v>
+        <v>187.818940401909</v>
       </c>
       <c r="G23" t="n">
-        <v>65.17929883267293</v>
+        <v>65.179298832673</v>
       </c>
       <c r="H23" t="n">
         <v>15.08499016404652</v>
       </c>
       <c r="I23" t="n">
-        <v>15.08499016404652</v>
+        <v>70.94848926897382</v>
       </c>
       <c r="J23" t="n">
-        <v>15.08499016404652</v>
+        <v>70.94848926897382</v>
       </c>
       <c r="K23" t="n">
-        <v>15.08499016404652</v>
+        <v>70.94848926897382</v>
       </c>
       <c r="L23" t="n">
-        <v>61.85832839434047</v>
+        <v>117.7218274992677</v>
       </c>
       <c r="M23" t="n">
-        <v>147.4179119531318</v>
+        <v>198.6421382224194</v>
       </c>
       <c r="N23" t="n">
-        <v>334.0946652332075</v>
+        <v>274.0293881556575</v>
       </c>
       <c r="O23" t="n">
-        <v>520.7714185132832</v>
+        <v>308.306071789087</v>
       </c>
       <c r="P23" t="n">
-        <v>707.4481717933588</v>
+        <v>308.306071789087</v>
       </c>
       <c r="Q23" t="n">
-        <v>707.4481717933588</v>
+        <v>462.482978416885</v>
       </c>
       <c r="R23" t="n">
-        <v>707.4481717933588</v>
+        <v>564.0214906198</v>
       </c>
       <c r="S23" t="n">
-        <v>707.4481717933588</v>
+        <v>633.2375922995773</v>
       </c>
       <c r="T23" t="n">
-        <v>707.4481717933588</v>
+        <v>707.4481717933596</v>
       </c>
       <c r="U23" t="n">
-        <v>754.2495082023261</v>
+        <v>754.2495082023268</v>
       </c>
       <c r="V23" t="n">
-        <v>730.5573952557697</v>
+        <v>730.5573952557703</v>
       </c>
       <c r="W23" t="n">
-        <v>689.6767164338448</v>
+        <v>689.6767164338453</v>
       </c>
       <c r="X23" t="n">
-        <v>626.6887139059206</v>
+        <v>626.6887139059211</v>
       </c>
       <c r="Y23" t="n">
-        <v>540.9705567075482</v>
+        <v>540.9705567075487</v>
       </c>
     </row>
     <row r="24">
@@ -6042,28 +6042,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>303.5185187171792</v>
+        <v>228.5007717468577</v>
       </c>
       <c r="C24" t="n">
-        <v>303.5185187171792</v>
+        <v>228.5007717468577</v>
       </c>
       <c r="D24" t="n">
-        <v>303.5185187171792</v>
+        <v>228.5007717468577</v>
       </c>
       <c r="E24" t="n">
-        <v>303.5185187171792</v>
+        <v>228.5007717468577</v>
       </c>
       <c r="F24" t="n">
-        <v>303.5185187171792</v>
+        <v>68.07305546410174</v>
       </c>
       <c r="G24" t="n">
-        <v>303.5185187171792</v>
+        <v>68.07305546410174</v>
       </c>
       <c r="H24" t="n">
-        <v>176.5146922106384</v>
+        <v>68.07305546410174</v>
       </c>
       <c r="I24" t="n">
-        <v>68.07305546410173</v>
+        <v>68.07305546410174</v>
       </c>
       <c r="J24" t="n">
         <v>15.08499016404652</v>
@@ -6075,7 +6075,7 @@
         <v>170.4486221681694</v>
       </c>
       <c r="M24" t="n">
-        <v>352.1703666486674</v>
+        <v>352.1703666486675</v>
       </c>
       <c r="N24" t="n">
         <v>538.8471199287433</v>
@@ -6087,31 +6087,31 @@
         <v>754.2495082023261</v>
       </c>
       <c r="Q24" t="n">
-        <v>747.3338450905397</v>
+        <v>747.3338450905396</v>
       </c>
       <c r="R24" t="n">
-        <v>747.3338450905397</v>
+        <v>747.3338450905396</v>
       </c>
       <c r="S24" t="n">
-        <v>747.3338450905397</v>
+        <v>747.3338450905396</v>
       </c>
       <c r="T24" t="n">
-        <v>747.3338450905397</v>
+        <v>747.3338450905396</v>
       </c>
       <c r="U24" t="n">
-        <v>556.8667975646998</v>
+        <v>747.3338450905396</v>
       </c>
       <c r="V24" t="n">
-        <v>556.8667975646998</v>
+        <v>747.3338450905396</v>
       </c>
       <c r="W24" t="n">
-        <v>493.9855662430192</v>
+        <v>556.8667975646997</v>
       </c>
       <c r="X24" t="n">
-        <v>303.5185187171792</v>
+        <v>366.3997500388598</v>
       </c>
       <c r="Y24" t="n">
-        <v>303.5185187171792</v>
+        <v>366.3997500388598</v>
       </c>
     </row>
     <row r="25">
@@ -6203,43 +6203,43 @@
         <v>1021.01215797134</v>
       </c>
       <c r="C26" t="n">
-        <v>882.8924400792729</v>
+        <v>882.892440079273</v>
       </c>
       <c r="D26" t="n">
-        <v>757.3316491962481</v>
+        <v>757.3316491962482</v>
       </c>
       <c r="E26" t="n">
-        <v>597.7236336471537</v>
+        <v>597.7236336471539</v>
       </c>
       <c r="F26" t="n">
-        <v>406.0748730693955</v>
+        <v>406.0748730693956</v>
       </c>
       <c r="G26" t="n">
-        <v>198.6295596577065</v>
+        <v>198.6295596577066</v>
       </c>
       <c r="H26" t="n">
-        <v>63.7295791466274</v>
+        <v>63.7295791466272</v>
       </c>
       <c r="I26" t="n">
         <v>35.92166172201684</v>
       </c>
       <c r="J26" t="n">
-        <v>171.2683996847217</v>
+        <v>171.2683996847215</v>
       </c>
       <c r="K26" t="n">
-        <v>375.9831015629835</v>
+        <v>375.9831015629834</v>
       </c>
       <c r="L26" t="n">
-        <v>634.0887466946299</v>
+        <v>634.0887466946298</v>
       </c>
       <c r="M26" t="n">
-        <v>926.3413643191343</v>
+        <v>926.3413643191338</v>
       </c>
       <c r="N26" t="n">
-        <v>1213.060921153725</v>
+        <v>1213.060921153724</v>
       </c>
       <c r="O26" t="n">
-        <v>1458.669911688507</v>
+        <v>1458.669911688506</v>
       </c>
       <c r="P26" t="n">
         <v>1655.109002436483</v>
@@ -6257,7 +6257,7 @@
         <v>1772.810566182449</v>
       </c>
       <c r="U26" t="n">
-        <v>1735.756487451889</v>
+        <v>1735.75648745189</v>
       </c>
       <c r="V26" t="n">
         <v>1627.25870266288</v>
@@ -6279,34 +6279,34 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>457.0838475654041</v>
+        <v>428.5688949150261</v>
       </c>
       <c r="C27" t="n">
-        <v>369.9125818833583</v>
+        <v>239.1566206479898</v>
       </c>
       <c r="D27" t="n">
-        <v>369.9125818833583</v>
+        <v>239.1566206479898</v>
       </c>
       <c r="E27" t="n">
-        <v>196.3493780047727</v>
+        <v>239.1566206479898</v>
       </c>
       <c r="F27" t="n">
-        <v>35.92166172201684</v>
+        <v>239.1566206479898</v>
       </c>
       <c r="G27" t="n">
-        <v>35.92166172201684</v>
+        <v>88.90972702207205</v>
       </c>
       <c r="H27" t="n">
-        <v>35.92166172201684</v>
+        <v>88.90972702207205</v>
       </c>
       <c r="I27" t="n">
-        <v>35.92166172201684</v>
+        <v>88.90972702207205</v>
       </c>
       <c r="J27" t="n">
         <v>35.92166172201684</v>
       </c>
       <c r="K27" t="n">
-        <v>73.91372875432148</v>
+        <v>73.91372875432147</v>
       </c>
       <c r="L27" t="n">
         <v>191.2852937261397</v>
@@ -6315,40 +6315,40 @@
         <v>373.0070382066378</v>
       </c>
       <c r="N27" t="n">
-        <v>577.9583061004876</v>
+        <v>577.9583061004874</v>
       </c>
       <c r="O27" t="n">
-        <v>709.7015933827745</v>
+        <v>709.7015933827743</v>
       </c>
       <c r="P27" t="n">
-        <v>793.3606943740705</v>
+        <v>793.3606943740702</v>
       </c>
       <c r="Q27" t="n">
-        <v>793.3606943740705</v>
+        <v>786.4450312622838</v>
       </c>
       <c r="R27" t="n">
-        <v>793.3606943740705</v>
+        <v>786.4450312622838</v>
       </c>
       <c r="S27" t="n">
-        <v>793.3606943740705</v>
+        <v>786.4450312622838</v>
       </c>
       <c r="T27" t="n">
-        <v>791.8422880327871</v>
+        <v>784.9266249210004</v>
       </c>
       <c r="U27" t="n">
-        <v>767.8411961126887</v>
+        <v>739.3262434623108</v>
       </c>
       <c r="V27" t="n">
-        <v>740.3846867719114</v>
+        <v>496.2465253659449</v>
       </c>
       <c r="W27" t="n">
-        <v>470.9861175022028</v>
+        <v>442.4711648518248</v>
       </c>
       <c r="X27" t="n">
-        <v>467.1013318744878</v>
+        <v>438.5863792241098</v>
       </c>
       <c r="Y27" t="n">
-        <v>457.0838475654041</v>
+        <v>428.5688949150261</v>
       </c>
     </row>
     <row r="28">
@@ -6358,73 +6358,73 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>71.41321716505087</v>
+        <v>35.92166172201684</v>
       </c>
       <c r="C28" t="n">
-        <v>117.9529149041507</v>
+        <v>35.92166172201684</v>
       </c>
       <c r="D28" t="n">
-        <v>117.9529149041507</v>
+        <v>35.92166172201684</v>
       </c>
       <c r="E28" t="n">
-        <v>117.9529149041507</v>
+        <v>35.92166172201684</v>
       </c>
       <c r="F28" t="n">
-        <v>117.9529149041507</v>
+        <v>35.92166172201684</v>
       </c>
       <c r="G28" t="n">
-        <v>162.2716038460434</v>
+        <v>35.92166172201684</v>
       </c>
       <c r="H28" t="n">
-        <v>209.4390837566939</v>
+        <v>35.92166172201684</v>
       </c>
       <c r="I28" t="n">
-        <v>209.4390837566939</v>
+        <v>35.92166172201684</v>
       </c>
       <c r="J28" t="n">
-        <v>209.4390837566939</v>
+        <v>35.92166172201684</v>
       </c>
       <c r="K28" t="n">
-        <v>209.4390837566939</v>
+        <v>35.92166172201684</v>
       </c>
       <c r="L28" t="n">
-        <v>209.4390837566939</v>
+        <v>35.92166172201684</v>
       </c>
       <c r="M28" t="n">
-        <v>209.4390837566939</v>
+        <v>35.92166172201684</v>
       </c>
       <c r="N28" t="n">
-        <v>209.4390837566939</v>
+        <v>35.92166172201684</v>
       </c>
       <c r="O28" t="n">
-        <v>209.4390837566939</v>
+        <v>35.92166172201684</v>
       </c>
       <c r="P28" t="n">
-        <v>209.4390837566939</v>
+        <v>170.946497557055</v>
       </c>
       <c r="Q28" t="n">
-        <v>266.2898381224434</v>
+        <v>256.3464833623374</v>
       </c>
       <c r="R28" t="n">
-        <v>266.2898381224434</v>
+        <v>266.2898381224435</v>
       </c>
       <c r="S28" t="n">
-        <v>244.0994937177465</v>
+        <v>244.0994937177466</v>
       </c>
       <c r="T28" t="n">
-        <v>233.7015767757515</v>
+        <v>233.7015767757516</v>
       </c>
       <c r="U28" t="n">
-        <v>157.7525140695573</v>
+        <v>157.7525140695574</v>
       </c>
       <c r="V28" t="n">
-        <v>125.7908590024693</v>
+        <v>125.7908590024694</v>
       </c>
       <c r="W28" t="n">
-        <v>48.17092928398189</v>
+        <v>48.17092928398195</v>
       </c>
       <c r="X28" t="n">
-        <v>39.6330719706387</v>
+        <v>39.63307197063873</v>
       </c>
       <c r="Y28" t="n">
         <v>35.92166172201684</v>
@@ -6440,22 +6440,22 @@
         <v>1021.01215797134</v>
       </c>
       <c r="C29" t="n">
-        <v>882.8924400792733</v>
+        <v>882.8924400792738</v>
       </c>
       <c r="D29" t="n">
-        <v>757.3316491962487</v>
+        <v>757.331649196249</v>
       </c>
       <c r="E29" t="n">
-        <v>597.7236336471542</v>
+        <v>597.7236336471547</v>
       </c>
       <c r="F29" t="n">
-        <v>406.0748730693959</v>
+        <v>406.0748730693964</v>
       </c>
       <c r="G29" t="n">
-        <v>198.629559657707</v>
+        <v>198.6295596577074</v>
       </c>
       <c r="H29" t="n">
-        <v>63.72957914662737</v>
+        <v>63.7295791466274</v>
       </c>
       <c r="I29" t="n">
         <v>35.92166172201684</v>
@@ -6464,13 +6464,13 @@
         <v>171.2683996847217</v>
       </c>
       <c r="K29" t="n">
-        <v>375.9831015629837</v>
+        <v>375.9831015629836</v>
       </c>
       <c r="L29" t="n">
-        <v>634.0887466946301</v>
+        <v>634.0887466946299</v>
       </c>
       <c r="M29" t="n">
-        <v>926.3413643191343</v>
+        <v>926.3413643191341</v>
       </c>
       <c r="N29" t="n">
         <v>1213.060921153725</v>
@@ -6506,7 +6506,7 @@
         <v>1353.778677628125</v>
       </c>
       <c r="Y29" t="n">
-        <v>1183.2548485873</v>
+        <v>1183.254848587301</v>
       </c>
     </row>
     <row r="30">
@@ -6516,25 +6516,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>487.2555402822716</v>
+        <v>234.5449756980288</v>
       </c>
       <c r="C30" t="n">
-        <v>357.7790800513646</v>
+        <v>234.5449756980288</v>
       </c>
       <c r="D30" t="n">
-        <v>357.7790800513646</v>
+        <v>234.5449756980288</v>
       </c>
       <c r="E30" t="n">
-        <v>357.7790800513646</v>
+        <v>234.5449756980288</v>
       </c>
       <c r="F30" t="n">
-        <v>197.3513637686087</v>
+        <v>234.5449756980288</v>
       </c>
       <c r="G30" t="n">
-        <v>197.3513637686087</v>
+        <v>234.5449756980288</v>
       </c>
       <c r="H30" t="n">
-        <v>197.3513637686087</v>
+        <v>107.541149191488</v>
       </c>
       <c r="I30" t="n">
         <v>88.90972702207205</v>
@@ -6543,7 +6543,7 @@
         <v>35.92166172201684</v>
       </c>
       <c r="K30" t="n">
-        <v>73.91372875432148</v>
+        <v>73.91372875432147</v>
       </c>
       <c r="L30" t="n">
         <v>191.2852937261397</v>
@@ -6552,40 +6552,40 @@
         <v>373.0070382066378</v>
       </c>
       <c r="N30" t="n">
-        <v>577.9583061004876</v>
+        <v>577.9583061004874</v>
       </c>
       <c r="O30" t="n">
-        <v>709.7015933827745</v>
+        <v>709.7015933827743</v>
       </c>
       <c r="P30" t="n">
-        <v>793.3606943740705</v>
+        <v>793.3606943740702</v>
       </c>
       <c r="Q30" t="n">
-        <v>786.4450312622841</v>
+        <v>786.4450312622838</v>
       </c>
       <c r="R30" t="n">
-        <v>786.4450312622841</v>
+        <v>786.4450312622838</v>
       </c>
       <c r="S30" t="n">
-        <v>786.4450312622841</v>
+        <v>786.4450312622838</v>
       </c>
       <c r="T30" t="n">
-        <v>784.9266249210008</v>
+        <v>569.3034161654118</v>
       </c>
       <c r="U30" t="n">
-        <v>760.9255330009024</v>
+        <v>545.3023242453135</v>
       </c>
       <c r="V30" t="n">
-        <v>733.4690236601252</v>
+        <v>302.2226061489475</v>
       </c>
       <c r="W30" t="n">
-        <v>679.6936631460053</v>
+        <v>248.4472456348275</v>
       </c>
       <c r="X30" t="n">
-        <v>675.8088775182904</v>
+        <v>244.5624600071125</v>
       </c>
       <c r="Y30" t="n">
-        <v>665.7913932092067</v>
+        <v>234.5449756980288</v>
       </c>
     </row>
     <row r="31">
@@ -6610,58 +6610,58 @@
         <v>35.92166172201684</v>
       </c>
       <c r="G31" t="n">
-        <v>80.2403506639096</v>
+        <v>35.92166172201684</v>
       </c>
       <c r="H31" t="n">
-        <v>80.2403506639096</v>
+        <v>35.92166172201684</v>
       </c>
       <c r="I31" t="n">
-        <v>80.2403506639096</v>
+        <v>35.92166172201684</v>
       </c>
       <c r="J31" t="n">
-        <v>80.2403506639096</v>
+        <v>35.92166172201684</v>
       </c>
       <c r="K31" t="n">
-        <v>80.2403506639096</v>
+        <v>35.92166172201684</v>
       </c>
       <c r="L31" t="n">
-        <v>80.2403506639096</v>
+        <v>35.92166172201684</v>
       </c>
       <c r="M31" t="n">
-        <v>80.2403506639096</v>
+        <v>35.92166172201684</v>
       </c>
       <c r="N31" t="n">
-        <v>80.2403506639096</v>
+        <v>35.92166172201684</v>
       </c>
       <c r="O31" t="n">
-        <v>80.2403506639096</v>
+        <v>180.8898523171609</v>
       </c>
       <c r="P31" t="n">
-        <v>180.8898523171606</v>
+        <v>180.8898523171609</v>
       </c>
       <c r="Q31" t="n">
-        <v>266.2898381224431</v>
+        <v>266.2898381224434</v>
       </c>
       <c r="R31" t="n">
-        <v>266.2898381224431</v>
+        <v>266.2898381224434</v>
       </c>
       <c r="S31" t="n">
-        <v>244.0994937177463</v>
+        <v>244.0994937177465</v>
       </c>
       <c r="T31" t="n">
-        <v>233.7015767757513</v>
+        <v>233.7015767757515</v>
       </c>
       <c r="U31" t="n">
-        <v>157.7525140695572</v>
+        <v>157.7525140695573</v>
       </c>
       <c r="V31" t="n">
-        <v>125.7908590024692</v>
+        <v>125.7908590024693</v>
       </c>
       <c r="W31" t="n">
-        <v>48.17092928398183</v>
+        <v>48.17092928398189</v>
       </c>
       <c r="X31" t="n">
-        <v>39.63307197063867</v>
+        <v>39.6330719706387</v>
       </c>
       <c r="Y31" t="n">
         <v>35.92166172201684</v>
@@ -6677,37 +6677,37 @@
         <v>1021.01215797134</v>
       </c>
       <c r="C32" t="n">
-        <v>882.8924400792729</v>
+        <v>882.8924400792728</v>
       </c>
       <c r="D32" t="n">
-        <v>757.331649196248</v>
+        <v>757.3316491962479</v>
       </c>
       <c r="E32" t="n">
         <v>597.7236336471535</v>
       </c>
       <c r="F32" t="n">
-        <v>406.0748730693951</v>
+        <v>406.074873069395</v>
       </c>
       <c r="G32" t="n">
-        <v>198.6295596577061</v>
+        <v>198.6295596577071</v>
       </c>
       <c r="H32" t="n">
-        <v>63.72957914662661</v>
+        <v>63.72957914662752</v>
       </c>
       <c r="I32" t="n">
         <v>35.92166172201684</v>
       </c>
       <c r="J32" t="n">
-        <v>171.2683996847222</v>
+        <v>171.2683996847216</v>
       </c>
       <c r="K32" t="n">
-        <v>375.9831015629841</v>
+        <v>375.9831015629834</v>
       </c>
       <c r="L32" t="n">
-        <v>634.0887466946303</v>
+        <v>634.0887466946297</v>
       </c>
       <c r="M32" t="n">
-        <v>926.3413643191344</v>
+        <v>926.3413643191348</v>
       </c>
       <c r="N32" t="n">
         <v>1213.060921153725</v>
@@ -6753,25 +6753,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>357.7790800513646</v>
+        <v>405.3258277956492</v>
       </c>
       <c r="C33" t="n">
-        <v>357.7790800513646</v>
+        <v>215.9135535286129</v>
       </c>
       <c r="D33" t="n">
-        <v>357.7790800513646</v>
+        <v>215.9135535286129</v>
       </c>
       <c r="E33" t="n">
-        <v>357.7790800513646</v>
+        <v>215.9135535286129</v>
       </c>
       <c r="F33" t="n">
-        <v>197.3513637686087</v>
+        <v>215.9135535286129</v>
       </c>
       <c r="G33" t="n">
-        <v>197.3513637686087</v>
+        <v>215.9135535286129</v>
       </c>
       <c r="H33" t="n">
-        <v>197.3513637686087</v>
+        <v>88.90972702207205</v>
       </c>
       <c r="I33" t="n">
         <v>88.90972702207205</v>
@@ -6780,7 +6780,7 @@
         <v>35.92166172201684</v>
       </c>
       <c r="K33" t="n">
-        <v>73.91372875432148</v>
+        <v>73.91372875432147</v>
       </c>
       <c r="L33" t="n">
         <v>191.2852937261397</v>
@@ -6789,40 +6789,40 @@
         <v>373.0070382066378</v>
       </c>
       <c r="N33" t="n">
-        <v>577.9583061004876</v>
+        <v>577.9583061004874</v>
       </c>
       <c r="O33" t="n">
-        <v>709.7015933827745</v>
+        <v>709.7015933827743</v>
       </c>
       <c r="P33" t="n">
-        <v>793.3606943740705</v>
+        <v>793.3606943740702</v>
       </c>
       <c r="Q33" t="n">
-        <v>786.4450312622841</v>
+        <v>786.4450312622838</v>
       </c>
       <c r="R33" t="n">
-        <v>786.4450312622841</v>
+        <v>650.3756995951785</v>
       </c>
       <c r="S33" t="n">
-        <v>786.4450312622841</v>
+        <v>650.3756995951785</v>
       </c>
       <c r="T33" t="n">
-        <v>784.9266249210007</v>
+        <v>648.857293253895</v>
       </c>
       <c r="U33" t="n">
-        <v>760.9255330009022</v>
+        <v>624.8562013337965</v>
       </c>
       <c r="V33" t="n">
-        <v>733.4690236601249</v>
+        <v>597.3996919930191</v>
       </c>
       <c r="W33" t="n">
-        <v>587.3045587437521</v>
+        <v>419.228097732448</v>
       </c>
       <c r="X33" t="n">
-        <v>583.419773116037</v>
+        <v>415.3433121047329</v>
       </c>
       <c r="Y33" t="n">
-        <v>357.7790800513646</v>
+        <v>405.3258277956492</v>
       </c>
     </row>
     <row r="34">
@@ -6835,70 +6835,70 @@
         <v>35.92166172201684</v>
       </c>
       <c r="C34" t="n">
-        <v>82.46135946111657</v>
+        <v>35.92166172201684</v>
       </c>
       <c r="D34" t="n">
-        <v>150.0628426142653</v>
+        <v>35.92166172201684</v>
       </c>
       <c r="E34" t="n">
-        <v>150.0628426142653</v>
+        <v>35.92166172201684</v>
       </c>
       <c r="F34" t="n">
-        <v>150.0628426142653</v>
+        <v>109.716355227107</v>
       </c>
       <c r="G34" t="n">
-        <v>150.0628426142653</v>
+        <v>109.716355227107</v>
       </c>
       <c r="H34" t="n">
-        <v>197.2303225249157</v>
+        <v>156.8838351377574</v>
       </c>
       <c r="I34" t="n">
-        <v>245.3626784438688</v>
+        <v>205.0161910567104</v>
       </c>
       <c r="J34" t="n">
-        <v>256.3464833623379</v>
+        <v>266.2898381224442</v>
       </c>
       <c r="K34" t="n">
-        <v>256.3464833623379</v>
+        <v>266.2898381224442</v>
       </c>
       <c r="L34" t="n">
-        <v>256.3464833623379</v>
+        <v>266.2898381224442</v>
       </c>
       <c r="M34" t="n">
-        <v>256.3464833623379</v>
+        <v>266.2898381224442</v>
       </c>
       <c r="N34" t="n">
-        <v>256.3464833623379</v>
+        <v>266.2898381224442</v>
       </c>
       <c r="O34" t="n">
-        <v>256.3464833623379</v>
+        <v>266.2898381224442</v>
       </c>
       <c r="P34" t="n">
-        <v>256.3464833623379</v>
+        <v>266.2898381224442</v>
       </c>
       <c r="Q34" t="n">
-        <v>256.3464833623379</v>
+        <v>266.2898381224442</v>
       </c>
       <c r="R34" t="n">
-        <v>266.2898381224439</v>
+        <v>266.2898381224442</v>
       </c>
       <c r="S34" t="n">
-        <v>244.099493717747</v>
+        <v>244.0994937177472</v>
       </c>
       <c r="T34" t="n">
-        <v>233.7015767757519</v>
+        <v>233.7015767757521</v>
       </c>
       <c r="U34" t="n">
-        <v>157.7525140695577</v>
+        <v>157.7525140695578</v>
       </c>
       <c r="V34" t="n">
-        <v>125.7908590024696</v>
+        <v>125.7908590024697</v>
       </c>
       <c r="W34" t="n">
-        <v>48.17092928398206</v>
+        <v>48.17092928398212</v>
       </c>
       <c r="X34" t="n">
-        <v>39.63307197063879</v>
+        <v>39.63307197063882</v>
       </c>
       <c r="Y34" t="n">
         <v>35.92166172201684</v>
@@ -6911,7 +6911,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>623.0119765837458</v>
+        <v>623.0119765837459</v>
       </c>
       <c r="C35" t="n">
         <v>544.0768043248352</v>
@@ -6923,19 +6923,19 @@
         <v>377.2770891590283</v>
       </c>
       <c r="F35" t="n">
-        <v>244.8128742144263</v>
+        <v>244.8128742144258</v>
       </c>
       <c r="G35" t="n">
-        <v>96.55210643589356</v>
+        <v>96.55210643589363</v>
       </c>
       <c r="H35" t="n">
-        <v>20.83667155797031</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="I35" t="n">
-        <v>51.58890486516582</v>
+        <v>51.58890486516576</v>
       </c>
       <c r="J35" t="n">
-        <v>244.942416002927</v>
+        <v>244.9424160029269</v>
       </c>
       <c r="K35" t="n">
         <v>502.7962265328096</v>
@@ -6953,34 +6953,34 @@
         <v>740.1538090529228</v>
       </c>
       <c r="P35" t="n">
-        <v>994.5996729759559</v>
+        <v>740.1538090529228</v>
       </c>
       <c r="Q35" t="n">
-        <v>994.5996729759559</v>
+        <v>850.5121113040013</v>
       </c>
       <c r="R35" t="n">
-        <v>994.5996729759559</v>
+        <v>926.9393577091845</v>
       </c>
       <c r="S35" t="n">
-        <v>1038.704508858001</v>
+        <v>971.0441935912299</v>
       </c>
       <c r="T35" t="n">
-        <v>1038.704508858001</v>
+        <v>1020.14350728728</v>
       </c>
       <c r="U35" t="n">
-        <v>1041.833577898515</v>
+        <v>1041.833577898516</v>
       </c>
       <c r="V35" t="n">
-        <v>992.5203387426618</v>
+        <v>992.5203387426623</v>
       </c>
       <c r="W35" t="n">
-        <v>926.0185337114401</v>
+        <v>926.0185337114403</v>
       </c>
       <c r="X35" t="n">
-        <v>837.4094049742191</v>
+        <v>837.4094049742193</v>
       </c>
       <c r="Y35" t="n">
-        <v>726.0701215665498</v>
+        <v>726.0701215665499</v>
       </c>
     </row>
     <row r="36">
@@ -6990,31 +6990,31 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>778.2757042100239</v>
+        <v>592.8241881713022</v>
       </c>
       <c r="C36" t="n">
-        <v>588.8634299429876</v>
+        <v>403.4119139042659</v>
       </c>
       <c r="D36" t="n">
-        <v>428.0833137040194</v>
+        <v>309.270200111103</v>
       </c>
       <c r="E36" t="n">
-        <v>254.5201098254338</v>
+        <v>309.270200111103</v>
       </c>
       <c r="F36" t="n">
-        <v>94.09239354267791</v>
+        <v>309.270200111103</v>
       </c>
       <c r="G36" t="n">
-        <v>20.83667155797031</v>
+        <v>309.270200111103</v>
       </c>
       <c r="H36" t="n">
-        <v>20.83667155797031</v>
+        <v>182.2663736045622</v>
       </c>
       <c r="I36" t="n">
-        <v>20.83667155797031</v>
+        <v>73.82473685802553</v>
       </c>
       <c r="J36" t="n">
-        <v>20.83667155797031</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="K36" t="n">
         <v>58.82873859027495</v>
@@ -7026,40 +7026,40 @@
         <v>357.9220480425913</v>
       </c>
       <c r="N36" t="n">
-        <v>562.873315936441</v>
+        <v>562.8733159364409</v>
       </c>
       <c r="O36" t="n">
-        <v>694.616603218728</v>
+        <v>694.6166032187277</v>
       </c>
       <c r="P36" t="n">
-        <v>778.2757042100239</v>
+        <v>778.2757042100237</v>
       </c>
       <c r="Q36" t="n">
-        <v>778.2757042100239</v>
+        <v>771.3600410982373</v>
       </c>
       <c r="R36" t="n">
-        <v>778.2757042100239</v>
+        <v>771.3600410982373</v>
       </c>
       <c r="S36" t="n">
-        <v>778.2757042100239</v>
+        <v>771.3600410982373</v>
       </c>
       <c r="T36" t="n">
-        <v>778.2757042100239</v>
+        <v>771.3600410982373</v>
       </c>
       <c r="U36" t="n">
-        <v>778.2757042100239</v>
+        <v>771.3600410982373</v>
       </c>
       <c r="V36" t="n">
-        <v>778.2757042100239</v>
+        <v>771.3600410982373</v>
       </c>
       <c r="W36" t="n">
-        <v>778.2757042100239</v>
+        <v>771.3600410982373</v>
       </c>
       <c r="X36" t="n">
-        <v>778.2757042100239</v>
+        <v>771.3600410982373</v>
       </c>
       <c r="Y36" t="n">
-        <v>778.2757042100239</v>
+        <v>771.3600410982373</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>20.83667155797031</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="C37" t="n">
-        <v>20.83667155797031</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="D37" t="n">
-        <v>20.83667155797031</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="E37" t="n">
-        <v>20.83667155797031</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="F37" t="n">
-        <v>20.83667155797031</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="G37" t="n">
-        <v>20.83667155797031</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="H37" t="n">
-        <v>56.03657271633964</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="I37" t="n">
-        <v>56.03657271633964</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="J37" t="n">
-        <v>56.03657271633964</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="K37" t="n">
-        <v>56.03657271633964</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="L37" t="n">
-        <v>56.03657271633964</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="M37" t="n">
-        <v>56.03657271633964</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="N37" t="n">
-        <v>56.03657271633964</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="O37" t="n">
-        <v>56.03657271633964</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="P37" t="n">
-        <v>56.03657271633964</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="Q37" t="n">
-        <v>56.03657271633964</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="R37" t="n">
-        <v>56.03657271633964</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="S37" t="n">
-        <v>56.03657271633964</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="T37" t="n">
-        <v>56.03657271633964</v>
+        <v>56.03657271633976</v>
       </c>
       <c r="U37" t="n">
-        <v>39.27205564330161</v>
+        <v>39.27205564330168</v>
       </c>
       <c r="V37" t="n">
-        <v>39.27205564330161</v>
+        <v>39.27205564330168</v>
       </c>
       <c r="W37" t="n">
-        <v>20.83667155797031</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="X37" t="n">
-        <v>20.83667155797031</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="Y37" t="n">
-        <v>20.83667155797031</v>
+        <v>20.83667155797032</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>623.0119765837461</v>
+        <v>623.0119765837462</v>
       </c>
       <c r="C38" t="n">
-        <v>544.0768043248355</v>
+        <v>544.0768043248356</v>
       </c>
       <c r="D38" t="n">
         <v>477.7005590749669</v>
       </c>
       <c r="E38" t="n">
-        <v>377.2770891590287</v>
+        <v>377.2770891590286</v>
       </c>
       <c r="F38" t="n">
-        <v>244.8128742144265</v>
+        <v>244.8128742144263</v>
       </c>
       <c r="G38" t="n">
-        <v>96.55210643589356</v>
+        <v>96.55210643589363</v>
       </c>
       <c r="H38" t="n">
-        <v>20.83667155797031</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="I38" t="n">
-        <v>51.58890486516582</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="J38" t="n">
-        <v>244.942416002927</v>
+        <v>214.1901826957314</v>
       </c>
       <c r="K38" t="n">
-        <v>502.7962265328096</v>
+        <v>214.1901826957314</v>
       </c>
       <c r="L38" t="n">
-        <v>760.650037062692</v>
+        <v>260.9635209260254</v>
       </c>
       <c r="M38" t="n">
-        <v>841.5703477858438</v>
+        <v>341.8838316491771</v>
       </c>
       <c r="N38" t="n">
-        <v>916.9575977190818</v>
+        <v>417.2710815824151</v>
       </c>
       <c r="O38" t="n">
-        <v>951.2342813525114</v>
+        <v>451.5477652158447</v>
       </c>
       <c r="P38" t="n">
-        <v>951.2342813525114</v>
+        <v>705.9936291388776</v>
       </c>
       <c r="Q38" t="n">
-        <v>951.2342813525114</v>
+        <v>886.5540127481655</v>
       </c>
       <c r="R38" t="n">
-        <v>1027.661527757695</v>
+        <v>962.9812591533487</v>
       </c>
       <c r="S38" t="n">
-        <v>1041.833577898515</v>
+        <v>971.0441935912299</v>
       </c>
       <c r="T38" t="n">
-        <v>1041.833577898515</v>
+        <v>1020.14350728728</v>
       </c>
       <c r="U38" t="n">
-        <v>1041.833577898515</v>
+        <v>1041.833577898516</v>
       </c>
       <c r="V38" t="n">
-        <v>992.5203387426621</v>
+        <v>992.5203387426625</v>
       </c>
       <c r="W38" t="n">
-        <v>926.0185337114403</v>
+        <v>926.0185337114407</v>
       </c>
       <c r="X38" t="n">
-        <v>837.4094049742193</v>
+        <v>837.4094049742196</v>
       </c>
       <c r="Y38" t="n">
-        <v>726.0701215665501</v>
+        <v>726.0701215665503</v>
       </c>
     </row>
     <row r="39">
@@ -7227,31 +7227,31 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>309.270200111103</v>
+        <v>705.0199822253163</v>
       </c>
       <c r="C39" t="n">
-        <v>309.270200111103</v>
+        <v>515.60770795828</v>
       </c>
       <c r="D39" t="n">
-        <v>309.270200111103</v>
+        <v>354.8275917193117</v>
       </c>
       <c r="E39" t="n">
-        <v>309.270200111103</v>
+        <v>181.2643878407262</v>
       </c>
       <c r="F39" t="n">
-        <v>309.270200111103</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="G39" t="n">
-        <v>309.270200111103</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="H39" t="n">
-        <v>182.2663736045622</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="I39" t="n">
-        <v>73.82473685802552</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="J39" t="n">
-        <v>20.83667155797031</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="K39" t="n">
         <v>58.82873859027495</v>
@@ -7263,40 +7263,40 @@
         <v>357.9220480425913</v>
       </c>
       <c r="N39" t="n">
-        <v>562.873315936441</v>
+        <v>562.8733159364409</v>
       </c>
       <c r="O39" t="n">
-        <v>694.616603218728</v>
+        <v>694.6166032187277</v>
       </c>
       <c r="P39" t="n">
-        <v>778.2757042100239</v>
+        <v>778.2757042100237</v>
       </c>
       <c r="Q39" t="n">
-        <v>771.3600410982376</v>
+        <v>771.3600410982373</v>
       </c>
       <c r="R39" t="n">
-        <v>635.2907094311324</v>
+        <v>771.3600410982373</v>
       </c>
       <c r="S39" t="n">
-        <v>635.2907094311324</v>
+        <v>771.3600410982373</v>
       </c>
       <c r="T39" t="n">
-        <v>635.2907094311324</v>
+        <v>771.3600410982373</v>
       </c>
       <c r="U39" t="n">
-        <v>635.2907094311324</v>
+        <v>771.3600410982373</v>
       </c>
       <c r="V39" t="n">
-        <v>635.2907094311324</v>
+        <v>705.0199822253163</v>
       </c>
       <c r="W39" t="n">
-        <v>635.2907094311324</v>
+        <v>705.0199822253163</v>
       </c>
       <c r="X39" t="n">
-        <v>415.7827150478288</v>
+        <v>705.0199822253163</v>
       </c>
       <c r="Y39" t="n">
-        <v>309.270200111103</v>
+        <v>705.0199822253163</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>20.83667155797031</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="C40" t="n">
-        <v>20.83667155797031</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="D40" t="n">
-        <v>20.83667155797031</v>
+        <v>56.03657271633976</v>
       </c>
       <c r="E40" t="n">
-        <v>20.83667155797031</v>
+        <v>56.03657271633976</v>
       </c>
       <c r="F40" t="n">
-        <v>20.83667155797031</v>
+        <v>56.03657271633976</v>
       </c>
       <c r="G40" t="n">
-        <v>20.83667155797031</v>
+        <v>56.03657271633976</v>
       </c>
       <c r="H40" t="n">
-        <v>20.83667155797031</v>
+        <v>56.03657271633976</v>
       </c>
       <c r="I40" t="n">
-        <v>20.83667155797031</v>
+        <v>56.03657271633976</v>
       </c>
       <c r="J40" t="n">
-        <v>20.83667155797031</v>
+        <v>56.03657271633976</v>
       </c>
       <c r="K40" t="n">
-        <v>20.83667155797031</v>
+        <v>56.03657271633976</v>
       </c>
       <c r="L40" t="n">
-        <v>20.83667155797031</v>
+        <v>56.03657271633976</v>
       </c>
       <c r="M40" t="n">
-        <v>20.83667155797031</v>
+        <v>56.03657271633976</v>
       </c>
       <c r="N40" t="n">
-        <v>20.83667155797031</v>
+        <v>56.03657271633976</v>
       </c>
       <c r="O40" t="n">
-        <v>20.83667155797031</v>
+        <v>56.03657271633976</v>
       </c>
       <c r="P40" t="n">
-        <v>20.83667155797031</v>
+        <v>56.03657271633976</v>
       </c>
       <c r="Q40" t="n">
-        <v>20.83667155797031</v>
+        <v>56.03657271633976</v>
       </c>
       <c r="R40" t="n">
-        <v>20.83667155797031</v>
+        <v>56.03657271633976</v>
       </c>
       <c r="S40" t="n">
-        <v>56.03657271633964</v>
+        <v>56.03657271633976</v>
       </c>
       <c r="T40" t="n">
-        <v>56.03657271633964</v>
+        <v>56.03657271633976</v>
       </c>
       <c r="U40" t="n">
-        <v>39.27205564330161</v>
+        <v>39.27205564330168</v>
       </c>
       <c r="V40" t="n">
-        <v>39.27205564330161</v>
+        <v>39.27205564330168</v>
       </c>
       <c r="W40" t="n">
-        <v>20.83667155797031</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="X40" t="n">
-        <v>20.83667155797031</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="Y40" t="n">
-        <v>20.83667155797031</v>
+        <v>20.83667155797032</v>
       </c>
     </row>
     <row r="41">
@@ -7400,43 +7400,43 @@
         <v>314.7985606641696</v>
       </c>
       <c r="G41" t="n">
-        <v>135.1611646770912</v>
+        <v>135.1611646770911</v>
       </c>
       <c r="H41" t="n">
-        <v>28.06910159062234</v>
+        <v>28.06910159062233</v>
       </c>
       <c r="I41" t="n">
-        <v>28.06910159062234</v>
+        <v>28.06910159062233</v>
       </c>
       <c r="J41" t="n">
-        <v>37.77776771053695</v>
+        <v>28.06910159062233</v>
       </c>
       <c r="K41" t="n">
-        <v>269.7470094566597</v>
+        <v>28.06910159062233</v>
       </c>
       <c r="L41" t="n">
-        <v>316.5203476869536</v>
+        <v>298.1732672980983</v>
       </c>
       <c r="M41" t="n">
-        <v>636.0275051793186</v>
+        <v>617.6804247904632</v>
       </c>
       <c r="N41" t="n">
-        <v>711.4147551125567</v>
+        <v>931.6545214929146</v>
       </c>
       <c r="O41" t="n">
-        <v>984.2782855151995</v>
+        <v>965.9312051263441</v>
       </c>
       <c r="P41" t="n">
-        <v>1207.971916131037</v>
+        <v>1189.624835742182</v>
       </c>
       <c r="Q41" t="n">
-        <v>1357.780066433129</v>
+        <v>1339.432986044274</v>
       </c>
       <c r="R41" t="n">
-        <v>1403.455079531117</v>
+        <v>1385.107999142262</v>
       </c>
       <c r="S41" t="n">
-        <v>1403.455079531117</v>
+        <v>1385.107999142262</v>
       </c>
       <c r="T41" t="n">
         <v>1403.455079531117</v>
@@ -7464,34 +7464,34 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>316.502630143755</v>
+        <v>712.2524122579683</v>
       </c>
       <c r="C42" t="n">
-        <v>316.502630143755</v>
+        <v>522.840137990932</v>
       </c>
       <c r="D42" t="n">
-        <v>316.502630143755</v>
+        <v>362.0600217519637</v>
       </c>
       <c r="E42" t="n">
-        <v>316.502630143755</v>
+        <v>188.4968178733782</v>
       </c>
       <c r="F42" t="n">
-        <v>316.502630143755</v>
+        <v>28.06910159062233</v>
       </c>
       <c r="G42" t="n">
-        <v>316.502630143755</v>
+        <v>28.06910159062233</v>
       </c>
       <c r="H42" t="n">
-        <v>189.4988036372142</v>
+        <v>28.06910159062233</v>
       </c>
       <c r="I42" t="n">
-        <v>81.05716689067755</v>
+        <v>28.06910159062233</v>
       </c>
       <c r="J42" t="n">
-        <v>28.06910159062234</v>
+        <v>28.06910159062233</v>
       </c>
       <c r="K42" t="n">
-        <v>66.06116862292698</v>
+        <v>66.06116862292697</v>
       </c>
       <c r="L42" t="n">
         <v>183.4327335947452</v>
@@ -7500,40 +7500,40 @@
         <v>365.1544780752433</v>
       </c>
       <c r="N42" t="n">
-        <v>570.1057459690931</v>
+        <v>570.1057459690929</v>
       </c>
       <c r="O42" t="n">
-        <v>701.84903325138</v>
+        <v>701.8490332513798</v>
       </c>
       <c r="P42" t="n">
-        <v>785.508134242676</v>
+        <v>785.5081342426757</v>
       </c>
       <c r="Q42" t="n">
-        <v>778.5924711308896</v>
+        <v>778.5924711308893</v>
       </c>
       <c r="R42" t="n">
-        <v>642.5231394637844</v>
+        <v>778.5924711308893</v>
       </c>
       <c r="S42" t="n">
-        <v>642.5231394637844</v>
+        <v>778.5924711308893</v>
       </c>
       <c r="T42" t="n">
-        <v>425.3815243669125</v>
+        <v>778.5924711308893</v>
       </c>
       <c r="U42" t="n">
-        <v>425.3815243669125</v>
+        <v>778.5924711308893</v>
       </c>
       <c r="V42" t="n">
-        <v>425.3815243669125</v>
+        <v>778.5924711308893</v>
       </c>
       <c r="W42" t="n">
-        <v>399.414081277403</v>
+        <v>712.2524122579683</v>
       </c>
       <c r="X42" t="n">
-        <v>316.502630143755</v>
+        <v>712.2524122579683</v>
       </c>
       <c r="Y42" t="n">
-        <v>316.502630143755</v>
+        <v>712.2524122579683</v>
       </c>
     </row>
     <row r="43">
@@ -7543,16 +7543,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>28.06910159062234</v>
+        <v>29.12676343560915</v>
       </c>
       <c r="C43" t="n">
-        <v>31.84852983944971</v>
+        <v>29.12676343560915</v>
       </c>
       <c r="D43" t="n">
-        <v>31.84852983944971</v>
+        <v>29.12676343560915</v>
       </c>
       <c r="E43" t="n">
-        <v>130.1759968085602</v>
+        <v>29.12676343560915</v>
       </c>
       <c r="F43" t="n">
         <v>130.1759968085602</v>
@@ -7606,13 +7606,13 @@
         <v>77.8811138844992</v>
       </c>
       <c r="W43" t="n">
-        <v>28.06910159062234</v>
+        <v>28.06910159062233</v>
       </c>
       <c r="X43" t="n">
-        <v>28.06910159062234</v>
+        <v>29.12676343560915</v>
       </c>
       <c r="Y43" t="n">
-        <v>28.06910159062234</v>
+        <v>29.12676343560915</v>
       </c>
     </row>
     <row r="44">
@@ -7622,58 +7622,58 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>818.504175867672</v>
+        <v>818.5041758676715</v>
       </c>
       <c r="C44" t="n">
-        <v>708.1923754002157</v>
+        <v>708.1923754002155</v>
       </c>
       <c r="D44" t="n">
-        <v>610.4395019418014</v>
+        <v>610.4395019418012</v>
       </c>
       <c r="E44" t="n">
-        <v>478.6394038173173</v>
+        <v>478.6394038173171</v>
       </c>
       <c r="F44" t="n">
-        <v>314.7985606641696</v>
+        <v>314.7985606641694</v>
       </c>
       <c r="G44" t="n">
-        <v>135.1611646770912</v>
+        <v>135.1611646770911</v>
       </c>
       <c r="H44" t="n">
-        <v>28.06910159062234</v>
+        <v>28.06910159062233</v>
       </c>
       <c r="I44" t="n">
-        <v>28.06910159062234</v>
+        <v>28.06910159062233</v>
       </c>
       <c r="J44" t="n">
         <v>190.670379421188</v>
       </c>
       <c r="K44" t="n">
-        <v>387.8554767950471</v>
+        <v>422.6396211673108</v>
       </c>
       <c r="L44" t="n">
-        <v>434.6288150253411</v>
+        <v>540.213978302791</v>
       </c>
       <c r="M44" t="n">
-        <v>754.135972517706</v>
+        <v>859.721135795156</v>
       </c>
       <c r="N44" t="n">
-        <v>1068.110069220157</v>
+        <v>1173.695232497607</v>
       </c>
       <c r="O44" t="n">
-        <v>1102.386752853587</v>
+        <v>1207.971916131037</v>
       </c>
       <c r="P44" t="n">
-        <v>1326.080383469424</v>
+        <v>1207.971916131037</v>
       </c>
       <c r="Q44" t="n">
-        <v>1326.080383469424</v>
+        <v>1357.780066433129</v>
       </c>
       <c r="R44" t="n">
-        <v>1371.755396567412</v>
+        <v>1403.455079531117</v>
       </c>
       <c r="S44" t="n">
-        <v>1385.107999142262</v>
+        <v>1403.455079531117</v>
       </c>
       <c r="T44" t="n">
         <v>1403.455079531117</v>
@@ -7691,7 +7691,7 @@
         <v>1095.654860675236</v>
       </c>
       <c r="Y44" t="n">
-        <v>952.9389490590215</v>
+        <v>952.9389490590211</v>
       </c>
     </row>
     <row r="45">
@@ -7701,34 +7701,34 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>286.7576319630768</v>
+        <v>378.2614920966269</v>
       </c>
       <c r="C45" t="n">
-        <v>286.7576319630768</v>
+        <v>188.8492178295906</v>
       </c>
       <c r="D45" t="n">
-        <v>286.7576319630768</v>
+        <v>28.06910159062233</v>
       </c>
       <c r="E45" t="n">
-        <v>286.7576319630768</v>
+        <v>28.06910159062233</v>
       </c>
       <c r="F45" t="n">
-        <v>286.7576319630768</v>
+        <v>28.06910159062233</v>
       </c>
       <c r="G45" t="n">
-        <v>136.510738337159</v>
+        <v>28.06910159062233</v>
       </c>
       <c r="H45" t="n">
-        <v>136.510738337159</v>
+        <v>28.06910159062233</v>
       </c>
       <c r="I45" t="n">
-        <v>28.06910159062234</v>
+        <v>28.06910159062233</v>
       </c>
       <c r="J45" t="n">
-        <v>28.06910159062234</v>
+        <v>28.06910159062233</v>
       </c>
       <c r="K45" t="n">
-        <v>66.06116862292698</v>
+        <v>66.06116862292697</v>
       </c>
       <c r="L45" t="n">
         <v>183.4327335947452</v>
@@ -7737,40 +7737,40 @@
         <v>365.1544780752433</v>
       </c>
       <c r="N45" t="n">
-        <v>570.1057459690931</v>
+        <v>570.1057459690929</v>
       </c>
       <c r="O45" t="n">
-        <v>701.84903325138</v>
+        <v>701.8490332513798</v>
       </c>
       <c r="P45" t="n">
-        <v>785.508134242676</v>
+        <v>785.5081342426757</v>
       </c>
       <c r="Q45" t="n">
-        <v>785.508134242676</v>
+        <v>785.5081342426757</v>
       </c>
       <c r="R45" t="n">
-        <v>785.508134242676</v>
+        <v>785.5081342426757</v>
       </c>
       <c r="S45" t="n">
-        <v>785.508134242676</v>
+        <v>785.5081342426757</v>
       </c>
       <c r="T45" t="n">
-        <v>785.508134242676</v>
+        <v>785.5081342426757</v>
       </c>
       <c r="U45" t="n">
-        <v>785.508134242676</v>
+        <v>785.5081342426757</v>
       </c>
       <c r="V45" t="n">
-        <v>542.42841614631</v>
+        <v>785.5081342426757</v>
       </c>
       <c r="W45" t="n">
-        <v>286.7576319630768</v>
+        <v>603.9021851612993</v>
       </c>
       <c r="X45" t="n">
-        <v>286.7576319630768</v>
+        <v>603.9021851612993</v>
       </c>
       <c r="Y45" t="n">
-        <v>286.7576319630768</v>
+        <v>378.2614920966269</v>
       </c>
     </row>
     <row r="46">
@@ -7780,52 +7780,52 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>28.06910159062234</v>
+        <v>28.06910159062233</v>
       </c>
       <c r="C46" t="n">
-        <v>101.863339197583</v>
+        <v>28.06910159062233</v>
       </c>
       <c r="D46" t="n">
-        <v>101.863339197583</v>
+        <v>28.06910159062233</v>
       </c>
       <c r="E46" t="n">
-        <v>101.863339197583</v>
+        <v>28.06910159062233</v>
       </c>
       <c r="F46" t="n">
-        <v>101.863339197583</v>
+        <v>28.06910159062233</v>
       </c>
       <c r="G46" t="n">
-        <v>101.863339197583</v>
+        <v>28.06910159062233</v>
       </c>
       <c r="H46" t="n">
-        <v>101.863339197583</v>
+        <v>28.06910159062233</v>
       </c>
       <c r="I46" t="n">
-        <v>101.863339197583</v>
+        <v>28.06910159062233</v>
       </c>
       <c r="J46" t="n">
-        <v>101.863339197583</v>
+        <v>130.1759968085602</v>
       </c>
       <c r="K46" t="n">
-        <v>101.863339197583</v>
+        <v>130.1759968085602</v>
       </c>
       <c r="L46" t="n">
-        <v>101.863339197583</v>
+        <v>130.1759968085602</v>
       </c>
       <c r="M46" t="n">
-        <v>101.863339197583</v>
+        <v>130.1759968085602</v>
       </c>
       <c r="N46" t="n">
-        <v>101.863339197583</v>
+        <v>130.1759968085602</v>
       </c>
       <c r="O46" t="n">
-        <v>101.863339197583</v>
+        <v>130.1759968085602</v>
       </c>
       <c r="P46" t="n">
-        <v>101.863339197583</v>
+        <v>130.1759968085602</v>
       </c>
       <c r="Q46" t="n">
-        <v>101.863339197583</v>
+        <v>130.1759968085602</v>
       </c>
       <c r="R46" t="n">
         <v>130.1759968085602</v>
@@ -7843,13 +7843,13 @@
         <v>77.8811138844992</v>
       </c>
       <c r="W46" t="n">
-        <v>28.06910159062234</v>
+        <v>28.06910159062233</v>
       </c>
       <c r="X46" t="n">
-        <v>28.06910159062234</v>
+        <v>28.06910159062233</v>
       </c>
       <c r="Y46" t="n">
-        <v>28.06910159062234</v>
+        <v>28.06910159062233</v>
       </c>
     </row>
   </sheetData>
@@ -8769,7 +8769,7 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K12" t="n">
-        <v>171.373473584151</v>
+        <v>171.3734735841511</v>
       </c>
       <c r="L12" t="n">
         <v>240.3045437566416</v>
@@ -8778,7 +8778,7 @@
         <v>301.77688131</v>
       </c>
       <c r="N12" t="n">
-        <v>292.1547529041438</v>
+        <v>292.1547529041439</v>
       </c>
       <c r="O12" t="n">
         <v>255.2227828913207</v>
@@ -9006,13 +9006,13 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K15" t="n">
-        <v>171.373473584151</v>
+        <v>171.3734735841511</v>
       </c>
       <c r="L15" t="n">
         <v>240.3045437566416</v>
       </c>
       <c r="M15" t="n">
-        <v>301.7768813099999</v>
+        <v>301.77688131</v>
       </c>
       <c r="N15" t="n">
         <v>292.1547529041439</v>
@@ -9486,7 +9486,7 @@
         <v>240.3045437566416</v>
       </c>
       <c r="M21" t="n">
-        <v>301.77688131</v>
+        <v>301.7768813100001</v>
       </c>
       <c r="N21" t="n">
         <v>292.1547529041439</v>
@@ -23255,28 +23255,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>32.83929482664994</v>
+        <v>195.757591053278</v>
       </c>
       <c r="C11" t="n">
-        <v>171.8758480566236</v>
+        <v>171.8758480566235</v>
       </c>
       <c r="D11" t="n">
         <v>159.442510317672</v>
       </c>
       <c r="E11" t="n">
-        <v>193.1492627370809</v>
+        <v>193.1492627370808</v>
       </c>
       <c r="F11" t="n">
         <v>224.8696003154582</v>
       </c>
       <c r="G11" t="n">
-        <v>51.94581057046804</v>
+        <v>240.5081876210495</v>
       </c>
       <c r="H11" t="n">
-        <v>168.6883080494461</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>62.66716559384198</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23303,28 +23303,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>16.5307887271877</v>
+        <v>16.53078872718766</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>44.13476116065503</v>
+        <v>44.13476116065497</v>
       </c>
       <c r="U11" t="n">
-        <v>71.82086528673099</v>
+        <v>71.82086528673094</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>159.5668145012116</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>181.4530649701509</v>
+        <v>181.4530649701508</v>
       </c>
       <c r="Y11" t="n">
-        <v>15.39354104331312</v>
+        <v>54.83515591060262</v>
       </c>
     </row>
     <row r="12">
@@ -23498,22 +23498,22 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>159.4425103176721</v>
+        <v>159.442510317672</v>
       </c>
       <c r="E14" t="n">
-        <v>193.1492627370809</v>
+        <v>4.586885686499386</v>
       </c>
       <c r="F14" t="n">
-        <v>224.8696003154583</v>
+        <v>224.8696003154582</v>
       </c>
       <c r="G14" t="n">
         <v>240.5081876210496</v>
       </c>
       <c r="H14" t="n">
-        <v>43.39464720855537</v>
+        <v>102.1394407505899</v>
       </c>
       <c r="I14" t="n">
-        <v>62.66716559384201</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,25 +23543,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>49.17968824550871</v>
+        <v>49.17968824550869</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>71.82086528673099</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>142.5501342845968</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>159.5668145012116</v>
       </c>
       <c r="X14" t="n">
-        <v>181.4530649701509</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>203.9559180938947</v>
+        <v>203.9559180938946</v>
       </c>
     </row>
     <row r="15">
@@ -23978,7 +23978,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>6.252776074688882e-13</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>220482.9987941149</v>
+        <v>220482.998794115</v>
       </c>
       <c r="C2" t="n">
         <v>220482.9987941149</v>
@@ -26320,19 +26320,19 @@
         <v>220482.998794115</v>
       </c>
       <c r="E2" t="n">
+        <v>189997.5222551197</v>
+      </c>
+      <c r="F2" t="n">
         <v>189997.5222551194</v>
       </c>
-      <c r="F2" t="n">
-        <v>189997.5222551193</v>
-      </c>
       <c r="G2" t="n">
-        <v>220929.6372146339</v>
+        <v>220929.637214634</v>
       </c>
       <c r="H2" t="n">
         <v>220929.6372146339</v>
       </c>
       <c r="I2" t="n">
-        <v>220929.6372146338</v>
+        <v>220929.637214634</v>
       </c>
       <c r="J2" t="n">
         <v>220929.6372146338</v>
@@ -26341,7 +26341,7 @@
         <v>220929.6372146338</v>
       </c>
       <c r="L2" t="n">
-        <v>220929.6372146338</v>
+        <v>220929.6372146339</v>
       </c>
       <c r="M2" t="n">
         <v>220929.6372146339</v>
@@ -26372,13 +26372,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>280312.8421842062</v>
+        <v>280312.8421842064</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>95275.95397400481</v>
+        <v>95275.95397400478</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26393,16 +26393,16 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>95275.9539740047</v>
+        <v>95275.95397400469</v>
       </c>
       <c r="M3" t="n">
-        <v>46874.16014145972</v>
+        <v>46874.1601414597</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>72403.48181660016</v>
+        <v>72403.48181660024</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26424,7 +26424,7 @@
         <v>440811.1417349353</v>
       </c>
       <c r="E4" t="n">
-        <v>331148.6906652544</v>
+        <v>331148.6906652545</v>
       </c>
       <c r="F4" t="n">
         <v>331148.6906652544</v>
@@ -26442,7 +26442,7 @@
         <v>402517.6175033181</v>
       </c>
       <c r="K4" t="n">
-        <v>402517.6175033182</v>
+        <v>402517.6175033181</v>
       </c>
       <c r="L4" t="n">
         <v>402517.617503318</v>
@@ -26485,13 +26485,13 @@
         <v>38676.1388413194</v>
       </c>
       <c r="H5" t="n">
-        <v>38676.1388413194</v>
+        <v>38676.13884131939</v>
       </c>
       <c r="I5" t="n">
-        <v>38676.1388413194</v>
+        <v>38676.13884131939</v>
       </c>
       <c r="J5" t="n">
-        <v>47453.77647951489</v>
+        <v>47453.77647951488</v>
       </c>
       <c r="K5" t="n">
         <v>47453.77647951489</v>
@@ -26519,46 +26519,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-253955.7429408204</v>
+        <v>-253960.2093250254</v>
       </c>
       <c r="C6" t="n">
-        <v>-253955.7429408204</v>
+        <v>-253960.2093250256</v>
       </c>
       <c r="D6" t="n">
-        <v>-253955.7429408203</v>
+        <v>-253960.2093250255</v>
       </c>
       <c r="E6" t="n">
-        <v>-450127.9567173598</v>
+        <v>-450437.277866955</v>
       </c>
       <c r="F6" t="n">
-        <v>-169815.1145331537</v>
+        <v>-170124.4356827487</v>
       </c>
       <c r="G6" t="n">
         <v>-314634.1226706521</v>
       </c>
       <c r="H6" t="n">
-        <v>-219358.1686966473</v>
+        <v>-219358.1686966472</v>
       </c>
       <c r="I6" t="n">
-        <v>-219358.1686966473</v>
+        <v>-219358.1686966472</v>
       </c>
       <c r="J6" t="n">
         <v>-372686.7602925404</v>
       </c>
       <c r="K6" t="n">
-        <v>-229041.7567681993</v>
+        <v>-229041.7567681992</v>
       </c>
       <c r="L6" t="n">
-        <v>-324317.7107422039</v>
+        <v>-324317.7107422037</v>
       </c>
       <c r="M6" t="n">
         <v>-268552.1271183476</v>
       </c>
       <c r="N6" t="n">
-        <v>-221677.9669768878</v>
+        <v>-221677.9669768879</v>
       </c>
       <c r="O6" t="n">
-        <v>-297353.9152517458</v>
+        <v>-297353.9152517459</v>
       </c>
       <c r="P6" t="n">
         <v>-224950.4334351457</v>
@@ -26692,7 +26692,7 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="F2" t="n">
         <v>178.3296493245552</v>
@@ -26707,7 +26707,7 @@
         <v>297.4245917920612</v>
       </c>
       <c r="J2" t="n">
-        <v>213.4669766680328</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="K2" t="n">
         <v>213.4669766680328</v>
@@ -26817,19 +26817,19 @@
         <v>449.0207715252105</v>
       </c>
       <c r="L4" t="n">
-        <v>449.0207715252104</v>
+        <v>449.0207715252105</v>
       </c>
       <c r="M4" t="n">
-        <v>260.4583944746288</v>
+        <v>260.458394474629</v>
       </c>
       <c r="N4" t="n">
-        <v>260.4583944746288</v>
+        <v>260.458394474629</v>
       </c>
       <c r="O4" t="n">
-        <v>350.8637698827793</v>
+        <v>350.8637698827792</v>
       </c>
       <c r="P4" t="n">
-        <v>350.8637698827793</v>
+        <v>350.8637698827792</v>
       </c>
     </row>
   </sheetData>
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26929,7 +26929,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>94.3720342005268</v>
+        <v>94.37203420052688</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26938,13 +26938,13 @@
         <v>119.0949424675059</v>
       </c>
       <c r="M2" t="n">
-        <v>58.59270017682465</v>
+        <v>58.59270017682462</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>63.3091722740667</v>
+        <v>63.30917227406684</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27048,7 +27048,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>90.40537540815041</v>
+        <v>90.40537540815023</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>94.3720342005268</v>
+        <v>94.37203420052688</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -28087,37 +28087,37 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="C11" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="D11" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="E11" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="F11" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="G11" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="H11" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="I11" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="J11" t="n">
-        <v>178.3296493245552</v>
+        <v>76.75309993802786</v>
       </c>
       <c r="K11" t="n">
-        <v>178.3296493245552</v>
+        <v>120.3033661104567</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>141.3165808583654</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -28129,34 +28129,34 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>160.0433975822947</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="Q11" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="R11" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="S11" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="T11" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="U11" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="V11" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="W11" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="X11" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="Y11" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245553</v>
       </c>
     </row>
     <row r="12">
@@ -28169,13 +28169,13 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C12" t="n">
-        <v>175.4817308844856</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="D12" t="n">
         <v>159.1723150765785</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F12" t="n">
         <v>158.8234391199283</v>
@@ -28211,31 +28211,31 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>6.84650648066852</v>
+        <v>6.846506480668527</v>
       </c>
       <c r="R12" t="n">
         <v>134.7086383504342</v>
       </c>
       <c r="S12" t="n">
-        <v>178.3296493245552</v>
+        <v>3.65415904468577</v>
       </c>
       <c r="T12" t="n">
         <v>26.40782189532177</v>
       </c>
       <c r="U12" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="V12" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="W12" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="X12" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="Y12" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245553</v>
       </c>
     </row>
     <row r="13">
@@ -28248,73 +28248,73 @@
         <v>177.6169206649681</v>
       </c>
       <c r="C13" t="n">
-        <v>166.4571809719723</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="D13" t="n">
-        <v>145.1826502507107</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="E13" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="F13" t="n">
-        <v>178.3296493245552</v>
+        <v>138.9268822184467</v>
       </c>
       <c r="G13" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="H13" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="I13" t="n">
-        <v>178.3296493245552</v>
+        <v>164.8484353357569</v>
       </c>
       <c r="J13" t="n">
-        <v>178.3296493245552</v>
+        <v>120.2289512774728</v>
       </c>
       <c r="K13" t="n">
-        <v>67.01246855587067</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="L13" t="n">
-        <v>178.3296493245552</v>
+        <v>32.12940745055729</v>
       </c>
       <c r="M13" t="n">
-        <v>77.60058738158409</v>
+        <v>106.363088242947</v>
       </c>
       <c r="N13" t="n">
-        <v>16.49709222984363</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="O13" t="n">
-        <v>178.3296493245552</v>
+        <v>37.45757960830507</v>
       </c>
       <c r="P13" t="n">
         <v>58.4603693146088</v>
       </c>
       <c r="Q13" t="n">
-        <v>127.204364743505</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="R13" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="S13" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="T13" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="U13" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="V13" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="W13" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="X13" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="Y13" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245553</v>
       </c>
     </row>
     <row r="14">
@@ -28366,10 +28366,10 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>107.3810150715948</v>
+        <v>107.3810150715949</v>
       </c>
       <c r="Q14" t="n">
-        <v>89.67545097688969</v>
+        <v>89.67545097688972</v>
       </c>
       <c r="R14" t="n">
         <v>178.3296493245552</v>
@@ -28406,7 +28406,7 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C15" t="n">
-        <v>178.3296493245552</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
         <v>159.1723150765785</v>
@@ -28427,7 +28427,7 @@
         <v>107.3572203790713</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>52.45818464705467</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -28451,13 +28451,13 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>134.7086383504342</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>3.025074842490397</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="T15" t="n">
-        <v>33.88341257818607</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="U15" t="n">
         <v>178.3296493245552</v>
@@ -28469,7 +28469,7 @@
         <v>178.3296493245552</v>
       </c>
       <c r="X15" t="n">
-        <v>178.3296493245552</v>
+        <v>119.1589411240559</v>
       </c>
       <c r="Y15" t="n">
         <v>178.3296493245552</v>
@@ -28482,22 +28482,22 @@
         </is>
       </c>
       <c r="B16" t="n">
+        <v>177.6169206649681</v>
+      </c>
+      <c r="C16" t="n">
         <v>178.3296493245552</v>
-      </c>
-      <c r="C16" t="n">
-        <v>166.4571809719723</v>
       </c>
       <c r="D16" t="n">
         <v>178.3296493245552</v>
       </c>
       <c r="E16" t="n">
-        <v>141.676141212225</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="F16" t="n">
         <v>178.3296493245552</v>
       </c>
       <c r="G16" t="n">
-        <v>170.1411528956831</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="H16" t="n">
         <v>178.3296493245552</v>
@@ -28509,13 +28509,13 @@
         <v>178.3296493245552</v>
       </c>
       <c r="K16" t="n">
-        <v>67.01246855587067</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="L16" t="n">
         <v>178.3296493245552</v>
       </c>
       <c r="M16" t="n">
-        <v>178.3296493245552</v>
+        <v>62.13600890272232</v>
       </c>
       <c r="N16" t="n">
         <v>16.49709222984363</v>
@@ -28527,7 +28527,7 @@
         <v>58.4603693146088</v>
       </c>
       <c r="Q16" t="n">
-        <v>178.3296493245552</v>
+        <v>127.204364743505</v>
       </c>
       <c r="R16" t="n">
         <v>178.3296493245552</v>
@@ -28588,7 +28588,7 @@
         <v>265.3154769886094</v>
       </c>
       <c r="K17" t="n">
-        <v>123.6945525077716</v>
+        <v>118.7317571155267</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -28603,22 +28603,22 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>15.04365268017752</v>
+        <v>15.04365268017754</v>
       </c>
       <c r="Q17" t="n">
-        <v>89.67545097688969</v>
+        <v>89.67545097688972</v>
       </c>
       <c r="R17" t="n">
-        <v>194.860438051743</v>
+        <v>297.4245917920612</v>
       </c>
       <c r="S17" t="n">
+        <v>227.5093375700639</v>
+      </c>
+      <c r="T17" t="n">
+        <v>222.4644104852103</v>
+      </c>
+      <c r="U17" t="n">
         <v>297.4245917920612</v>
-      </c>
-      <c r="T17" t="n">
-        <v>297.4245917920612</v>
-      </c>
-      <c r="U17" t="n">
-        <v>250.1505146112862</v>
       </c>
       <c r="V17" t="n">
         <v>297.4245917920612</v>
@@ -28640,19 +28640,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D18" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
         <v>148.7444246896586</v>
@@ -28661,7 +28661,7 @@
         <v>125.7337882414754</v>
       </c>
       <c r="I18" t="n">
-        <v>107.3572203790713</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -28688,7 +28688,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>59.42100303563859</v>
       </c>
       <c r="S18" t="n">
         <v>191.5874518930719</v>
@@ -28700,7 +28700,7 @@
         <v>237.2280576689302</v>
       </c>
       <c r="V18" t="n">
-        <v>67.15802345769453</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W18" t="n">
         <v>266.7045835770116</v>
@@ -28749,10 +28749,10 @@
         <v>67.01246855587067</v>
       </c>
       <c r="L19" t="n">
-        <v>32.12940745055728</v>
+        <v>32.12940745055729</v>
       </c>
       <c r="M19" t="n">
-        <v>25.19323846374674</v>
+        <v>25.19323846374675</v>
       </c>
       <c r="N19" t="n">
         <v>16.49709222984363</v>
@@ -28819,34 +28819,34 @@
         <v>297.4245917920612</v>
       </c>
       <c r="I20" t="n">
+        <v>240.9968149183972</v>
+      </c>
+      <c r="J20" t="n">
+        <v>100.3527488800974</v>
+      </c>
+      <c r="K20" t="n">
+        <v>6.684449518273233</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>203.6060297307591</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>89.67545097688972</v>
+      </c>
+      <c r="R20" t="n">
         <v>297.4245917920612</v>
-      </c>
-      <c r="J20" t="n">
-        <v>76.75309993802784</v>
-      </c>
-      <c r="K20" t="n">
-        <v>195.2468265688547</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>15.04365268017752</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>206.685553966388</v>
-      </c>
-      <c r="R20" t="n">
-        <v>194.860438051743</v>
       </c>
       <c r="S20" t="n">
         <v>297.4245917920612</v>
@@ -28855,7 +28855,7 @@
         <v>297.4245917920612</v>
       </c>
       <c r="U20" t="n">
-        <v>250.1505146112862</v>
+        <v>297.4245917920612</v>
       </c>
       <c r="V20" t="n">
         <v>297.4245917920612</v>
@@ -28877,16 +28877,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>171.8275718397997</v>
+        <v>22.8003511082365</v>
       </c>
       <c r="F21" t="n">
         <v>158.8234391199283</v>
@@ -28937,16 +28937,16 @@
         <v>237.2280576689302</v>
       </c>
       <c r="V21" t="n">
-        <v>52.08654386482073</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W21" t="n">
-        <v>158.8793074723669</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X21" t="n">
         <v>217.3129144394706</v>
       </c>
       <c r="Y21" t="n">
-        <v>34.8219090834441</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="22">
@@ -28986,10 +28986,10 @@
         <v>67.01246855587067</v>
       </c>
       <c r="L22" t="n">
-        <v>32.12940745055728</v>
+        <v>32.12940745055729</v>
       </c>
       <c r="M22" t="n">
-        <v>25.19323846374674</v>
+        <v>25.19323846374675</v>
       </c>
       <c r="N22" t="n">
         <v>16.49709222984363</v>
@@ -29056,40 +29056,40 @@
         <v>297.4245917920612</v>
       </c>
       <c r="I23" t="n">
-        <v>240.9968149183972</v>
+        <v>297.4245917920612</v>
       </c>
       <c r="J23" t="n">
-        <v>76.75309993802784</v>
+        <v>76.75309993802786</v>
       </c>
       <c r="K23" t="n">
-        <v>6.684449518273219</v>
+        <v>6.684449518273233</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>4.686134177413734</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>112.4136397442804</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>153.9394642895416</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>203.6060297307591</v>
+        <v>15.04365268017754</v>
       </c>
       <c r="Q23" t="n">
-        <v>89.67545097688969</v>
+        <v>245.4097000958776</v>
       </c>
       <c r="R23" t="n">
-        <v>194.860438051743</v>
+        <v>297.4245917920612</v>
       </c>
       <c r="S23" t="n">
-        <v>227.5093375700639</v>
+        <v>297.4245917920612</v>
       </c>
       <c r="T23" t="n">
-        <v>222.4644104852103</v>
+        <v>297.4245917920612</v>
       </c>
       <c r="U23" t="n">
         <v>297.4245917920612</v>
@@ -29114,7 +29114,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>176.7504943976657</v>
+        <v>40.23050588858362</v>
       </c>
       <c r="C24" t="n">
         <v>187.5181515243659</v>
@@ -29126,16 +29126,16 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F24" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
         <v>148.7444246896586</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>125.7337882414754</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>107.3572203790713</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -29171,13 +29171,13 @@
         <v>214.9701989459033</v>
       </c>
       <c r="U24" t="n">
-        <v>48.66568061834866</v>
+        <v>237.2280576689302</v>
       </c>
       <c r="V24" t="n">
         <v>240.6489209154022</v>
       </c>
       <c r="W24" t="n">
-        <v>204.4521645685477</v>
+        <v>78.14220652643007</v>
       </c>
       <c r="X24" t="n">
         <v>28.75053738888909</v>
@@ -29223,10 +29223,10 @@
         <v>67.01246855587067</v>
       </c>
       <c r="L25" t="n">
-        <v>32.12940745055728</v>
+        <v>32.12940745055729</v>
       </c>
       <c r="M25" t="n">
-        <v>25.19323846374674</v>
+        <v>25.19323846374675</v>
       </c>
       <c r="N25" t="n">
         <v>16.49709222984363</v>
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>213.4669766680328</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="C26" t="n">
-        <v>213.4669766680328</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="D26" t="n">
-        <v>213.4669766680328</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="E26" t="n">
-        <v>213.4669766680328</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="F26" t="n">
-        <v>213.4669766680328</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="G26" t="n">
-        <v>213.4669766680328</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="H26" t="n">
-        <v>213.4669766680328</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="I26" t="n">
-        <v>213.4669766680328</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="J26" t="n">
-        <v>213.4669766680328</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="K26" t="n">
-        <v>213.4669766680328</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="L26" t="n">
-        <v>213.4669766680328</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="M26" t="n">
-        <v>213.4669766680328</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="N26" t="n">
-        <v>213.4669766680328</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="O26" t="n">
-        <v>213.4669766680328</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="P26" t="n">
-        <v>213.4669766680328</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="Q26" t="n">
-        <v>213.4669766680328</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="R26" t="n">
-        <v>213.4669766680328</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="S26" t="n">
-        <v>213.4669766680328</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="T26" t="n">
-        <v>213.4669766680328</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="U26" t="n">
-        <v>213.4669766680328</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="V26" t="n">
-        <v>213.4669766680328</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="W26" t="n">
-        <v>213.4669766680328</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="X26" t="n">
-        <v>213.4669766680328</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="Y26" t="n">
-        <v>213.4669766680328</v>
+        <v>213.4669766680327</v>
       </c>
     </row>
     <row r="27">
@@ -29354,19 +29354,19 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C27" t="n">
-        <v>101.2185984991405</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>159.1723150765785</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G27" t="n">
-        <v>148.7444246896586</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>125.7337882414754</v>
@@ -29375,7 +29375,7 @@
         <v>107.3572203790713</v>
       </c>
       <c r="J27" t="n">
-        <v>52.45818464705466</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -29396,7 +29396,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>6.84650648066852</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>134.7086383504342</v>
@@ -29405,22 +29405,22 @@
         <v>191.5874518930719</v>
       </c>
       <c r="T27" t="n">
-        <v>213.4669766680328</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="U27" t="n">
-        <v>213.4669766680328</v>
+        <v>192.0836800248274</v>
       </c>
       <c r="V27" t="n">
-        <v>213.4669766680328</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="X27" t="n">
-        <v>213.4669766680328</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="Y27" t="n">
-        <v>213.4669766680328</v>
+        <v>213.4669766680327</v>
       </c>
     </row>
     <row r="28">
@@ -29430,10 +29430,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>213.4669766680328</v>
+        <v>177.6169206649681</v>
       </c>
       <c r="C28" t="n">
-        <v>213.4669766680328</v>
+        <v>166.4571809719723</v>
       </c>
       <c r="D28" t="n">
         <v>145.1826502507107</v>
@@ -29445,10 +29445,10 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G28" t="n">
-        <v>213.4669766680328</v>
+        <v>168.7006242014745</v>
       </c>
       <c r="H28" t="n">
-        <v>213.4669766680328</v>
+        <v>165.8230575663656</v>
       </c>
       <c r="I28" t="n">
         <v>164.8484353357569</v>
@@ -29460,10 +29460,10 @@
         <v>67.01246855587067</v>
       </c>
       <c r="L28" t="n">
-        <v>32.12940745055728</v>
+        <v>32.12940745055729</v>
       </c>
       <c r="M28" t="n">
-        <v>25.19323846374674</v>
+        <v>25.19323846374675</v>
       </c>
       <c r="N28" t="n">
         <v>16.49709222984363</v>
@@ -29472,34 +29472,34 @@
         <v>37.45757960830507</v>
       </c>
       <c r="P28" t="n">
-        <v>58.4603693146088</v>
+        <v>194.8490923803039</v>
       </c>
       <c r="Q28" t="n">
-        <v>184.629369153353</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="R28" t="n">
-        <v>203.4231839810569</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="S28" t="n">
-        <v>213.4669766680328</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="T28" t="n">
-        <v>213.4669766680328</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="U28" t="n">
-        <v>213.4669766680328</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="V28" t="n">
-        <v>213.4669766680328</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="W28" t="n">
-        <v>213.4669766680328</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="X28" t="n">
-        <v>213.4669766680328</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="Y28" t="n">
-        <v>213.4669766680328</v>
+        <v>213.4669766680327</v>
       </c>
     </row>
     <row r="29">
@@ -29554,7 +29554,7 @@
         <v>213.4669766680328</v>
       </c>
       <c r="Q29" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="R29" t="n">
         <v>213.4669766680328</v>
@@ -29588,10 +29588,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C30" t="n">
-        <v>59.33645589576801</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D30" t="n">
         <v>159.1723150765785</v>
@@ -29600,16 +29600,16 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G30" t="n">
         <v>148.7444246896586</v>
       </c>
       <c r="H30" t="n">
-        <v>125.7337882414754</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>88.91211243134947</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -29642,13 +29642,13 @@
         <v>191.5874518930719</v>
       </c>
       <c r="T30" t="n">
-        <v>213.4669766680328</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
         <v>213.4669766680328</v>
       </c>
       <c r="V30" t="n">
-        <v>213.4669766680328</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
         <v>213.4669766680328</v>
@@ -29682,7 +29682,7 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G31" t="n">
-        <v>213.4669766680328</v>
+        <v>168.7006242014745</v>
       </c>
       <c r="H31" t="n">
         <v>165.8230575663656</v>
@@ -29697,19 +29697,19 @@
         <v>67.01246855587067</v>
       </c>
       <c r="L31" t="n">
-        <v>32.12940745055728</v>
+        <v>32.12940745055729</v>
       </c>
       <c r="M31" t="n">
-        <v>25.19323846374674</v>
+        <v>25.19323846374675</v>
       </c>
       <c r="N31" t="n">
         <v>16.49709222984363</v>
       </c>
       <c r="O31" t="n">
-        <v>37.45757960830507</v>
+        <v>183.8900953609758</v>
       </c>
       <c r="P31" t="n">
-        <v>160.126532600721</v>
+        <v>58.4603693146088</v>
       </c>
       <c r="Q31" t="n">
         <v>213.4669766680328</v>
@@ -29779,7 +29779,7 @@
         <v>213.4669766680327</v>
       </c>
       <c r="M32" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680337</v>
       </c>
       <c r="N32" t="n">
         <v>213.4669766680327</v>
@@ -29828,7 +29828,7 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C33" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
         <v>159.1723150765785</v>
@@ -29837,16 +29837,16 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G33" t="n">
         <v>148.7444246896586</v>
       </c>
       <c r="H33" t="n">
-        <v>125.7337882414754</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>107.3572203790713</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -29873,7 +29873,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>134.7086383504342</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>191.5874518930719</v>
@@ -29888,13 +29888,13 @@
         <v>213.4669766680327</v>
       </c>
       <c r="W33" t="n">
-        <v>122.0017633098025</v>
+        <v>90.31470525904621</v>
       </c>
       <c r="X33" t="n">
         <v>213.4669766680327</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>213.4669766680327</v>
       </c>
     </row>
     <row r="34">
@@ -29907,16 +29907,16 @@
         <v>177.6169206649681</v>
       </c>
       <c r="C34" t="n">
-        <v>213.4669766680327</v>
+        <v>166.4571809719723</v>
       </c>
       <c r="D34" t="n">
-        <v>213.4669766680327</v>
+        <v>145.1826502507107</v>
       </c>
       <c r="E34" t="n">
         <v>141.676141212225</v>
       </c>
       <c r="F34" t="n">
-        <v>138.9268822184467</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="G34" t="n">
         <v>168.7006242014745</v>
@@ -29928,16 +29928,16 @@
         <v>213.4669766680327</v>
       </c>
       <c r="J34" t="n">
-        <v>131.3237037203709</v>
+        <v>182.1215240711433</v>
       </c>
       <c r="K34" t="n">
         <v>67.01246855587067</v>
       </c>
       <c r="L34" t="n">
-        <v>32.12940745055728</v>
+        <v>32.12940745055729</v>
       </c>
       <c r="M34" t="n">
-        <v>25.19323846374674</v>
+        <v>25.19323846374675</v>
       </c>
       <c r="N34" t="n">
         <v>16.49709222984363</v>
@@ -29952,7 +29952,7 @@
         <v>127.204364743505</v>
       </c>
       <c r="R34" t="n">
-        <v>213.4669766680327</v>
+        <v>203.4231839810569</v>
       </c>
       <c r="S34" t="n">
         <v>213.4669766680327</v>
@@ -30010,7 +30010,7 @@
         <v>272.0596768448573</v>
       </c>
       <c r="K35" t="n">
-        <v>267.142843992902</v>
+        <v>267.1428439929022</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
@@ -30025,22 +30025,22 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
+        <v>15.04365268017754</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>201.1484835537367</v>
+      </c>
+      <c r="R35" t="n">
         <v>272.0596768448573</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>89.67545097688969</v>
-      </c>
-      <c r="R35" t="n">
-        <v>194.860438051743</v>
       </c>
       <c r="S35" t="n">
         <v>272.0596768448573</v>
       </c>
       <c r="T35" t="n">
-        <v>222.4644104852103</v>
+        <v>272.0596768448573</v>
       </c>
       <c r="U35" t="n">
-        <v>253.3111904097852</v>
+        <v>272.0596768448573</v>
       </c>
       <c r="V35" t="n">
         <v>272.0596768448573</v>
@@ -30062,31 +30062,31 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>65.97201842134726</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G36" t="n">
-        <v>76.22125992479803</v>
+        <v>148.7444246896586</v>
       </c>
       <c r="H36" t="n">
-        <v>125.7337882414754</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>107.3572203790713</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>52.45818464705466</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -30107,7 +30107,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>6.84650648066852</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>134.7086383504342</v>
@@ -30159,7 +30159,7 @@
         <v>168.7006242014745</v>
       </c>
       <c r="H37" t="n">
-        <v>201.3785132818902</v>
+        <v>165.8230575663656</v>
       </c>
       <c r="I37" t="n">
         <v>164.8484353357569</v>
@@ -30171,10 +30171,10 @@
         <v>67.01246855587067</v>
       </c>
       <c r="L37" t="n">
-        <v>32.12940745055728</v>
+        <v>32.12940745055729</v>
       </c>
       <c r="M37" t="n">
-        <v>25.19323846374674</v>
+        <v>25.19323846374675</v>
       </c>
       <c r="N37" t="n">
         <v>16.49709222984363</v>
@@ -30195,7 +30195,7 @@
         <v>235.4354176286827</v>
       </c>
       <c r="T37" t="n">
-        <v>223.7609144406078</v>
+        <v>259.3163701561325</v>
       </c>
       <c r="U37" t="n">
         <v>272.0596768448573</v>
@@ -30241,16 +30241,16 @@
         <v>272.0596768448573</v>
       </c>
       <c r="I38" t="n">
-        <v>272.0596768448573</v>
+        <v>240.9968149183972</v>
       </c>
       <c r="J38" t="n">
         <v>272.0596768448573</v>
       </c>
       <c r="K38" t="n">
-        <v>267.142843992902</v>
+        <v>6.684449518273233</v>
       </c>
       <c r="L38" t="n">
-        <v>213.2125982824127</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -30262,22 +30262,22 @@
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>15.04365268017752</v>
+        <v>272.0596768448573</v>
       </c>
       <c r="Q38" t="n">
-        <v>89.67545097688969</v>
+        <v>272.0596768448573</v>
       </c>
       <c r="R38" t="n">
         <v>272.0596768448573</v>
       </c>
       <c r="S38" t="n">
-        <v>241.8245397325092</v>
+        <v>235.653715790146</v>
       </c>
       <c r="T38" t="n">
-        <v>222.4644104852103</v>
+        <v>272.0596768448573</v>
       </c>
       <c r="U38" t="n">
-        <v>250.1505146112862</v>
+        <v>272.0596768448573</v>
       </c>
       <c r="V38" t="n">
         <v>272.0596768448573</v>
@@ -30302,28 +30302,28 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C39" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
         <v>148.7444246896586</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>125.7337882414754</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>107.3572203790713</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>52.45818464705467</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -30347,7 +30347,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>134.7086383504342</v>
       </c>
       <c r="S39" t="n">
         <v>191.5874518930719</v>
@@ -30359,16 +30359,16 @@
         <v>237.2280576689302</v>
       </c>
       <c r="V39" t="n">
-        <v>240.6489209154022</v>
+        <v>174.9722626312105</v>
       </c>
       <c r="W39" t="n">
         <v>266.7045835770116</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y39" t="n">
-        <v>117.9368963466671</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="40">
@@ -30384,7 +30384,7 @@
         <v>166.4571809719723</v>
       </c>
       <c r="D40" t="n">
-        <v>145.1826502507107</v>
+        <v>180.7381059662354</v>
       </c>
       <c r="E40" t="n">
         <v>141.676141212225</v>
@@ -30408,10 +30408,10 @@
         <v>67.01246855587067</v>
       </c>
       <c r="L40" t="n">
-        <v>32.12940745055728</v>
+        <v>32.12940745055729</v>
       </c>
       <c r="M40" t="n">
-        <v>25.19323846374674</v>
+        <v>25.19323846374675</v>
       </c>
       <c r="N40" t="n">
         <v>16.49709222984363</v>
@@ -30429,7 +30429,7 @@
         <v>203.4231839810569</v>
       </c>
       <c r="S40" t="n">
-        <v>270.9908733442072</v>
+        <v>235.4354176286827</v>
       </c>
       <c r="T40" t="n">
         <v>223.7609144406078</v>
@@ -30481,22 +30481,22 @@
         <v>240.9968149183972</v>
       </c>
       <c r="J41" t="n">
-        <v>86.55983339248704</v>
+        <v>76.75309993802786</v>
       </c>
       <c r="K41" t="n">
-        <v>240.9968149183972</v>
+        <v>6.684449518273233</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>225.5866944213959</v>
       </c>
       <c r="M41" t="n">
         <v>240.9968149183972</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>240.9968149183972</v>
       </c>
       <c r="O41" t="n">
-        <v>240.9968149183972</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
         <v>240.9968149183972</v>
@@ -30511,7 +30511,7 @@
         <v>227.5093375700639</v>
       </c>
       <c r="T41" t="n">
-        <v>222.4644104852103</v>
+        <v>240.9968149183972</v>
       </c>
       <c r="U41" t="n">
         <v>240.9968149183972</v>
@@ -30539,28 +30539,28 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C42" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
         <v>148.7444246896586</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>125.7337882414754</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>107.3572203790713</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>52.45818464705467</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -30584,13 +30584,13 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>134.7086383504342</v>
       </c>
       <c r="S42" t="n">
         <v>191.5874518930719</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>214.9701989459033</v>
       </c>
       <c r="U42" t="n">
         <v>237.2280576689302</v>
@@ -30599,10 +30599,10 @@
         <v>240.6489209154022</v>
       </c>
       <c r="W42" t="n">
-        <v>240.9968149183972</v>
+        <v>201.0279252928198</v>
       </c>
       <c r="X42" t="n">
-        <v>135.2305778171591</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y42" t="n">
         <v>223.3842861340256</v>
@@ -30618,16 +30618,16 @@
         <v>177.6169206649681</v>
       </c>
       <c r="C43" t="n">
-        <v>170.2747852637172</v>
+        <v>166.4571809719723</v>
       </c>
       <c r="D43" t="n">
         <v>145.1826502507107</v>
       </c>
       <c r="E43" t="n">
+        <v>141.676141212225</v>
+      </c>
+      <c r="F43" t="n">
         <v>240.9968149183972</v>
-      </c>
-      <c r="F43" t="n">
-        <v>138.9268822184467</v>
       </c>
       <c r="G43" t="n">
         <v>168.7006242014745</v>
@@ -30645,10 +30645,10 @@
         <v>67.01246855587067</v>
       </c>
       <c r="L43" t="n">
-        <v>32.12940745055728</v>
+        <v>32.12940745055729</v>
       </c>
       <c r="M43" t="n">
-        <v>25.19323846374674</v>
+        <v>25.19323846374675</v>
       </c>
       <c r="N43" t="n">
         <v>16.49709222984363</v>
@@ -30681,7 +30681,7 @@
         <v>240.9968149183972</v>
       </c>
       <c r="X43" t="n">
-        <v>221.9194554082425</v>
+        <v>222.987800706209</v>
       </c>
       <c r="Y43" t="n">
         <v>217.1412728141684</v>
@@ -30721,10 +30721,10 @@
         <v>240.9968149183972</v>
       </c>
       <c r="K44" t="n">
-        <v>205.8613155524744</v>
+        <v>240.9968149183972</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>71.51618071230939</v>
       </c>
       <c r="M44" t="n">
         <v>240.9968149183972</v>
@@ -30736,19 +30736,19 @@
         <v>0</v>
       </c>
       <c r="P44" t="n">
+        <v>15.04365268017754</v>
+      </c>
+      <c r="Q44" t="n">
         <v>240.9968149183972</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>89.67545097688969</v>
       </c>
       <c r="R44" t="n">
         <v>240.9968149183972</v>
       </c>
       <c r="S44" t="n">
-        <v>240.9968149183972</v>
+        <v>227.5093375700639</v>
       </c>
       <c r="T44" t="n">
-        <v>240.9968149183972</v>
+        <v>222.4644104852103</v>
       </c>
       <c r="U44" t="n">
         <v>240.9968149183972</v>
@@ -30776,10 +30776,10 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C45" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
         <v>171.8275718397997</v>
@@ -30788,16 +30788,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>148.7444246896586</v>
       </c>
       <c r="H45" t="n">
         <v>125.7337882414754</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>107.3572203790713</v>
       </c>
       <c r="J45" t="n">
-        <v>52.45818464705466</v>
+        <v>52.45818464705467</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -30818,7 +30818,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>6.84650648066852</v>
+        <v>6.846506480668527</v>
       </c>
       <c r="R45" t="n">
         <v>134.7086383504342</v>
@@ -30833,16 +30833,16 @@
         <v>237.2280576689302</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W45" t="n">
-        <v>13.59050723561069</v>
+        <v>86.9146939864489</v>
       </c>
       <c r="X45" t="n">
         <v>217.3129144394706</v>
       </c>
       <c r="Y45" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -30855,7 +30855,7 @@
         <v>177.6169206649681</v>
       </c>
       <c r="C46" t="n">
-        <v>240.9968149183972</v>
+        <v>166.4571809719723</v>
       </c>
       <c r="D46" t="n">
         <v>145.1826502507107</v>
@@ -30876,16 +30876,16 @@
         <v>164.8484353357569</v>
       </c>
       <c r="J46" t="n">
-        <v>120.2289512774728</v>
+        <v>223.3672292753898</v>
       </c>
       <c r="K46" t="n">
         <v>67.01246855587067</v>
       </c>
       <c r="L46" t="n">
-        <v>32.12940745055728</v>
+        <v>32.12940745055729</v>
       </c>
       <c r="M46" t="n">
-        <v>25.19323846374674</v>
+        <v>25.19323846374675</v>
       </c>
       <c r="N46" t="n">
         <v>16.49709222984363</v>
@@ -30900,7 +30900,7 @@
         <v>127.204364743505</v>
       </c>
       <c r="R46" t="n">
-        <v>232.0218280325491</v>
+        <v>203.4231839810569</v>
       </c>
       <c r="S46" t="n">
         <v>235.4354176286827</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.4070551490069143</v>
+        <v>0.4070551490069141</v>
       </c>
       <c r="H11" t="n">
         <v>4.168753544767061</v>
       </c>
       <c r="I11" t="n">
-        <v>15.69299363208908</v>
+        <v>15.69299363208907</v>
       </c>
       <c r="J11" t="n">
-        <v>34.54829695302562</v>
+        <v>34.54829695302561</v>
       </c>
       <c r="K11" t="n">
-        <v>51.77894141048831</v>
+        <v>51.77894141048829</v>
       </c>
       <c r="L11" t="n">
-        <v>64.23635542690867</v>
+        <v>64.23635542690866</v>
       </c>
       <c r="M11" t="n">
-        <v>71.47532243306038</v>
+        <v>71.47532243306036</v>
       </c>
       <c r="N11" t="n">
-        <v>72.63186787517628</v>
+        <v>72.63186787517627</v>
       </c>
       <c r="O11" t="n">
-        <v>68.58421323723877</v>
+        <v>68.58421323723876</v>
       </c>
       <c r="P11" t="n">
-        <v>58.53503924613057</v>
+        <v>58.53503924613055</v>
       </c>
       <c r="Q11" t="n">
-        <v>43.95737672232044</v>
+        <v>43.95737672232043</v>
       </c>
       <c r="R11" t="n">
-        <v>25.5696780038056</v>
+        <v>25.56967800380559</v>
       </c>
       <c r="S11" t="n">
-        <v>9.275769207995067</v>
+        <v>9.275769207995065</v>
       </c>
       <c r="T11" t="n">
-        <v>1.781883914777768</v>
+        <v>1.781883914777767</v>
       </c>
       <c r="U11" t="n">
-        <v>0.03256441192055314</v>
+        <v>0.03256441192055312</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2177937054332751</v>
+        <v>0.217793705433275</v>
       </c>
       <c r="H12" t="n">
-        <v>2.103428681421368</v>
+        <v>2.103428681421367</v>
       </c>
       <c r="I12" t="n">
-        <v>7.498599068645657</v>
+        <v>7.498599068645654</v>
       </c>
       <c r="J12" t="n">
-        <v>20.57672898569377</v>
+        <v>20.57672898569376</v>
       </c>
       <c r="K12" t="n">
-        <v>35.1689072497232</v>
+        <v>35.16890724972319</v>
       </c>
       <c r="L12" t="n">
-        <v>47.28893590997493</v>
+        <v>47.28893590997492</v>
       </c>
       <c r="M12" t="n">
-        <v>55.18395773193114</v>
+        <v>55.18395773193112</v>
       </c>
       <c r="N12" t="n">
-        <v>56.64451288810429</v>
+        <v>56.64451288810428</v>
       </c>
       <c r="O12" t="n">
-        <v>51.81866288876699</v>
+        <v>51.81866288876697</v>
       </c>
       <c r="P12" t="n">
         <v>41.58904538225408</v>
       </c>
       <c r="Q12" t="n">
-        <v>27.80117545144754</v>
+        <v>27.80117545144753</v>
       </c>
       <c r="R12" t="n">
         <v>13.52231444786598</v>
       </c>
       <c r="S12" t="n">
-        <v>4.045422554868067</v>
+        <v>4.045422554868066</v>
       </c>
       <c r="T12" t="n">
-        <v>0.8778614705841217</v>
+        <v>0.8778614705841213</v>
       </c>
       <c r="U12" t="n">
-        <v>0.01432853325218916</v>
+        <v>0.01432853325218915</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,46 +31911,46 @@
         <v>0.1825909264705196</v>
       </c>
       <c r="H13" t="n">
-        <v>1.623399328074258</v>
+        <v>1.623399328074257</v>
       </c>
       <c r="I13" t="n">
-        <v>5.491007134222538</v>
+        <v>5.491007134222536</v>
       </c>
       <c r="J13" t="n">
-        <v>12.90917850146574</v>
+        <v>12.90917850146573</v>
       </c>
       <c r="K13" t="n">
-        <v>21.21374582084764</v>
+        <v>21.21374582084763</v>
       </c>
       <c r="L13" t="n">
-        <v>27.14629101362617</v>
+        <v>27.14629101362616</v>
       </c>
       <c r="M13" t="n">
         <v>28.62195768301063</v>
       </c>
       <c r="N13" t="n">
-        <v>27.94139150252963</v>
+        <v>27.94139150252962</v>
       </c>
       <c r="O13" t="n">
-        <v>25.80839749785128</v>
+        <v>25.80839749785127</v>
       </c>
       <c r="P13" t="n">
-        <v>22.08354259785266</v>
+        <v>22.08354259785265</v>
       </c>
       <c r="Q13" t="n">
-        <v>15.28950021563597</v>
+        <v>15.28950021563596</v>
       </c>
       <c r="R13" t="n">
-        <v>8.209952021119909</v>
+        <v>8.209952021119905</v>
       </c>
       <c r="S13" t="n">
-        <v>3.182061873127146</v>
+        <v>3.182061873127145</v>
       </c>
       <c r="T13" t="n">
-        <v>0.7801612312831292</v>
+        <v>0.780161231283129</v>
       </c>
       <c r="U13" t="n">
-        <v>0.009959505080210174</v>
+        <v>0.009959505080210171</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.4070551490069143</v>
+        <v>0.4070551490069141</v>
       </c>
       <c r="H14" t="n">
         <v>4.168753544767061</v>
       </c>
       <c r="I14" t="n">
-        <v>15.69299363208908</v>
+        <v>15.69299363208907</v>
       </c>
       <c r="J14" t="n">
-        <v>34.54829695302562</v>
+        <v>34.54829695302561</v>
       </c>
       <c r="K14" t="n">
-        <v>51.77894141048831</v>
+        <v>51.77894141048829</v>
       </c>
       <c r="L14" t="n">
-        <v>64.23635542690867</v>
+        <v>64.23635542690866</v>
       </c>
       <c r="M14" t="n">
-        <v>71.47532243306038</v>
+        <v>71.47532243306036</v>
       </c>
       <c r="N14" t="n">
-        <v>72.63186787517628</v>
+        <v>72.63186787517627</v>
       </c>
       <c r="O14" t="n">
-        <v>68.58421323723877</v>
+        <v>68.58421323723876</v>
       </c>
       <c r="P14" t="n">
-        <v>58.53503924613057</v>
+        <v>58.53503924613055</v>
       </c>
       <c r="Q14" t="n">
-        <v>43.95737672232044</v>
+        <v>43.95737672232043</v>
       </c>
       <c r="R14" t="n">
-        <v>25.5696780038056</v>
+        <v>25.56967800380559</v>
       </c>
       <c r="S14" t="n">
-        <v>9.275769207995067</v>
+        <v>9.275769207995065</v>
       </c>
       <c r="T14" t="n">
-        <v>1.781883914777768</v>
+        <v>1.781883914777767</v>
       </c>
       <c r="U14" t="n">
-        <v>0.03256441192055314</v>
+        <v>0.03256441192055312</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2177937054332751</v>
+        <v>0.217793705433275</v>
       </c>
       <c r="H15" t="n">
-        <v>2.103428681421368</v>
+        <v>2.103428681421367</v>
       </c>
       <c r="I15" t="n">
-        <v>7.498599068645657</v>
+        <v>7.498599068645654</v>
       </c>
       <c r="J15" t="n">
-        <v>20.57672898569377</v>
+        <v>20.57672898569376</v>
       </c>
       <c r="K15" t="n">
-        <v>35.1689072497232</v>
+        <v>35.16890724972319</v>
       </c>
       <c r="L15" t="n">
-        <v>47.28893590997493</v>
+        <v>47.28893590997492</v>
       </c>
       <c r="M15" t="n">
-        <v>55.18395773193114</v>
+        <v>55.18395773193112</v>
       </c>
       <c r="N15" t="n">
-        <v>56.64451288810429</v>
+        <v>56.64451288810428</v>
       </c>
       <c r="O15" t="n">
-        <v>51.81866288876699</v>
+        <v>51.81866288876697</v>
       </c>
       <c r="P15" t="n">
         <v>41.58904538225408</v>
       </c>
       <c r="Q15" t="n">
-        <v>27.80117545144754</v>
+        <v>27.80117545144753</v>
       </c>
       <c r="R15" t="n">
         <v>13.52231444786598</v>
       </c>
       <c r="S15" t="n">
-        <v>4.045422554868067</v>
+        <v>4.045422554868066</v>
       </c>
       <c r="T15" t="n">
-        <v>0.8778614705841217</v>
+        <v>0.8778614705841213</v>
       </c>
       <c r="U15" t="n">
-        <v>0.01432853325218916</v>
+        <v>0.01432853325218915</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,46 +32148,46 @@
         <v>0.1825909264705196</v>
       </c>
       <c r="H16" t="n">
-        <v>1.623399328074258</v>
+        <v>1.623399328074257</v>
       </c>
       <c r="I16" t="n">
-        <v>5.491007134222538</v>
+        <v>5.491007134222536</v>
       </c>
       <c r="J16" t="n">
-        <v>12.90917850146574</v>
+        <v>12.90917850146573</v>
       </c>
       <c r="K16" t="n">
-        <v>21.21374582084764</v>
+        <v>21.21374582084763</v>
       </c>
       <c r="L16" t="n">
-        <v>27.14629101362617</v>
+        <v>27.14629101362616</v>
       </c>
       <c r="M16" t="n">
         <v>28.62195768301063</v>
       </c>
       <c r="N16" t="n">
-        <v>27.94139150252963</v>
+        <v>27.94139150252962</v>
       </c>
       <c r="O16" t="n">
-        <v>25.80839749785128</v>
+        <v>25.80839749785127</v>
       </c>
       <c r="P16" t="n">
-        <v>22.08354259785266</v>
+        <v>22.08354259785265</v>
       </c>
       <c r="Q16" t="n">
-        <v>15.28950021563597</v>
+        <v>15.28950021563596</v>
       </c>
       <c r="R16" t="n">
-        <v>8.209952021119909</v>
+        <v>8.209952021119905</v>
       </c>
       <c r="S16" t="n">
-        <v>3.182061873127146</v>
+        <v>3.182061873127145</v>
       </c>
       <c r="T16" t="n">
-        <v>0.7801612312831292</v>
+        <v>0.780161231283129</v>
       </c>
       <c r="U16" t="n">
-        <v>0.009959505080210174</v>
+        <v>0.009959505080210171</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.4070551490069143</v>
+        <v>0.4070551490069141</v>
       </c>
       <c r="H17" t="n">
         <v>4.168753544767061</v>
       </c>
       <c r="I17" t="n">
-        <v>15.69299363208908</v>
+        <v>15.69299363208907</v>
       </c>
       <c r="J17" t="n">
-        <v>34.54829695302562</v>
+        <v>34.54829695302561</v>
       </c>
       <c r="K17" t="n">
-        <v>51.77894141048831</v>
+        <v>51.77894141048829</v>
       </c>
       <c r="L17" t="n">
-        <v>64.23635542690867</v>
+        <v>64.23635542690866</v>
       </c>
       <c r="M17" t="n">
-        <v>71.47532243306038</v>
+        <v>71.47532243306036</v>
       </c>
       <c r="N17" t="n">
-        <v>72.63186787517628</v>
+        <v>72.63186787517627</v>
       </c>
       <c r="O17" t="n">
-        <v>68.58421323723877</v>
+        <v>68.58421323723876</v>
       </c>
       <c r="P17" t="n">
-        <v>58.53503924613057</v>
+        <v>58.53503924613055</v>
       </c>
       <c r="Q17" t="n">
-        <v>43.95737672232044</v>
+        <v>43.95737672232043</v>
       </c>
       <c r="R17" t="n">
-        <v>25.5696780038056</v>
+        <v>25.56967800380559</v>
       </c>
       <c r="S17" t="n">
-        <v>9.275769207995067</v>
+        <v>9.275769207995065</v>
       </c>
       <c r="T17" t="n">
-        <v>1.781883914777768</v>
+        <v>1.781883914777767</v>
       </c>
       <c r="U17" t="n">
-        <v>0.03256441192055314</v>
+        <v>0.03256441192055312</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.2177937054332751</v>
+        <v>0.217793705433275</v>
       </c>
       <c r="H18" t="n">
-        <v>2.103428681421368</v>
+        <v>2.103428681421367</v>
       </c>
       <c r="I18" t="n">
-        <v>7.498599068645657</v>
+        <v>7.498599068645654</v>
       </c>
       <c r="J18" t="n">
-        <v>20.57672898569377</v>
+        <v>20.57672898569376</v>
       </c>
       <c r="K18" t="n">
-        <v>35.1689072497232</v>
+        <v>35.16890724972319</v>
       </c>
       <c r="L18" t="n">
-        <v>47.28893590997493</v>
+        <v>47.28893590997492</v>
       </c>
       <c r="M18" t="n">
-        <v>55.18395773193114</v>
+        <v>55.18395773193112</v>
       </c>
       <c r="N18" t="n">
-        <v>56.64451288810429</v>
+        <v>56.64451288810428</v>
       </c>
       <c r="O18" t="n">
-        <v>51.81866288876699</v>
+        <v>51.81866288876697</v>
       </c>
       <c r="P18" t="n">
         <v>41.58904538225408</v>
       </c>
       <c r="Q18" t="n">
-        <v>27.80117545144754</v>
+        <v>27.80117545144753</v>
       </c>
       <c r="R18" t="n">
         <v>13.52231444786598</v>
       </c>
       <c r="S18" t="n">
-        <v>4.045422554868067</v>
+        <v>4.045422554868066</v>
       </c>
       <c r="T18" t="n">
-        <v>0.8778614705841217</v>
+        <v>0.8778614705841213</v>
       </c>
       <c r="U18" t="n">
-        <v>0.01432853325218916</v>
+        <v>0.01432853325218915</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,46 +32385,46 @@
         <v>0.1825909264705196</v>
       </c>
       <c r="H19" t="n">
-        <v>1.623399328074258</v>
+        <v>1.623399328074257</v>
       </c>
       <c r="I19" t="n">
-        <v>5.491007134222538</v>
+        <v>5.491007134222536</v>
       </c>
       <c r="J19" t="n">
-        <v>12.90917850146574</v>
+        <v>12.90917850146573</v>
       </c>
       <c r="K19" t="n">
-        <v>21.21374582084764</v>
+        <v>21.21374582084763</v>
       </c>
       <c r="L19" t="n">
-        <v>27.14629101362617</v>
+        <v>27.14629101362616</v>
       </c>
       <c r="M19" t="n">
         <v>28.62195768301063</v>
       </c>
       <c r="N19" t="n">
-        <v>27.94139150252963</v>
+        <v>27.94139150252962</v>
       </c>
       <c r="O19" t="n">
-        <v>25.80839749785128</v>
+        <v>25.80839749785127</v>
       </c>
       <c r="P19" t="n">
-        <v>22.08354259785266</v>
+        <v>22.08354259785265</v>
       </c>
       <c r="Q19" t="n">
-        <v>15.28950021563597</v>
+        <v>15.28950021563596</v>
       </c>
       <c r="R19" t="n">
-        <v>8.209952021119909</v>
+        <v>8.209952021119905</v>
       </c>
       <c r="S19" t="n">
-        <v>3.182061873127146</v>
+        <v>3.182061873127145</v>
       </c>
       <c r="T19" t="n">
-        <v>0.7801612312831292</v>
+        <v>0.780161231283129</v>
       </c>
       <c r="U19" t="n">
-        <v>0.009959505080210174</v>
+        <v>0.009959505080210171</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.4070551490069143</v>
+        <v>0.4070551490069141</v>
       </c>
       <c r="H20" t="n">
         <v>4.168753544767061</v>
       </c>
       <c r="I20" t="n">
-        <v>15.69299363208908</v>
+        <v>15.69299363208907</v>
       </c>
       <c r="J20" t="n">
-        <v>34.54829695302562</v>
+        <v>34.54829695302561</v>
       </c>
       <c r="K20" t="n">
-        <v>51.77894141048831</v>
+        <v>51.77894141048829</v>
       </c>
       <c r="L20" t="n">
-        <v>64.23635542690867</v>
+        <v>64.23635542690866</v>
       </c>
       <c r="M20" t="n">
-        <v>71.47532243306038</v>
+        <v>71.47532243306036</v>
       </c>
       <c r="N20" t="n">
-        <v>72.63186787517628</v>
+        <v>72.63186787517627</v>
       </c>
       <c r="O20" t="n">
-        <v>68.58421323723877</v>
+        <v>68.58421323723876</v>
       </c>
       <c r="P20" t="n">
-        <v>58.53503924613057</v>
+        <v>58.53503924613055</v>
       </c>
       <c r="Q20" t="n">
-        <v>43.95737672232044</v>
+        <v>43.95737672232043</v>
       </c>
       <c r="R20" t="n">
-        <v>25.5696780038056</v>
+        <v>25.56967800380559</v>
       </c>
       <c r="S20" t="n">
-        <v>9.275769207995067</v>
+        <v>9.275769207995065</v>
       </c>
       <c r="T20" t="n">
-        <v>1.781883914777768</v>
+        <v>1.781883914777767</v>
       </c>
       <c r="U20" t="n">
-        <v>0.03256441192055314</v>
+        <v>0.03256441192055312</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2177937054332751</v>
+        <v>0.217793705433275</v>
       </c>
       <c r="H21" t="n">
-        <v>2.103428681421368</v>
+        <v>2.103428681421367</v>
       </c>
       <c r="I21" t="n">
-        <v>7.498599068645657</v>
+        <v>7.498599068645654</v>
       </c>
       <c r="J21" t="n">
-        <v>20.57672898569377</v>
+        <v>20.57672898569376</v>
       </c>
       <c r="K21" t="n">
-        <v>35.1689072497232</v>
+        <v>35.16890724972319</v>
       </c>
       <c r="L21" t="n">
-        <v>47.28893590997493</v>
+        <v>47.28893590997492</v>
       </c>
       <c r="M21" t="n">
-        <v>55.18395773193114</v>
+        <v>55.18395773193112</v>
       </c>
       <c r="N21" t="n">
-        <v>56.64451288810429</v>
+        <v>56.64451288810428</v>
       </c>
       <c r="O21" t="n">
-        <v>51.81866288876699</v>
+        <v>51.81866288876697</v>
       </c>
       <c r="P21" t="n">
         <v>41.58904538225408</v>
       </c>
       <c r="Q21" t="n">
-        <v>27.80117545144754</v>
+        <v>27.80117545144753</v>
       </c>
       <c r="R21" t="n">
         <v>13.52231444786598</v>
       </c>
       <c r="S21" t="n">
-        <v>4.045422554868067</v>
+        <v>4.045422554868066</v>
       </c>
       <c r="T21" t="n">
-        <v>0.8778614705841217</v>
+        <v>0.8778614705841213</v>
       </c>
       <c r="U21" t="n">
-        <v>0.01432853325218916</v>
+        <v>0.01432853325218915</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,46 +32622,46 @@
         <v>0.1825909264705196</v>
       </c>
       <c r="H22" t="n">
-        <v>1.623399328074258</v>
+        <v>1.623399328074257</v>
       </c>
       <c r="I22" t="n">
-        <v>5.491007134222538</v>
+        <v>5.491007134222536</v>
       </c>
       <c r="J22" t="n">
-        <v>12.90917850146574</v>
+        <v>12.90917850146573</v>
       </c>
       <c r="K22" t="n">
-        <v>21.21374582084764</v>
+        <v>21.21374582084763</v>
       </c>
       <c r="L22" t="n">
-        <v>27.14629101362617</v>
+        <v>27.14629101362616</v>
       </c>
       <c r="M22" t="n">
         <v>28.62195768301063</v>
       </c>
       <c r="N22" t="n">
-        <v>27.94139150252963</v>
+        <v>27.94139150252962</v>
       </c>
       <c r="O22" t="n">
-        <v>25.80839749785128</v>
+        <v>25.80839749785127</v>
       </c>
       <c r="P22" t="n">
-        <v>22.08354259785266</v>
+        <v>22.08354259785265</v>
       </c>
       <c r="Q22" t="n">
-        <v>15.28950021563597</v>
+        <v>15.28950021563596</v>
       </c>
       <c r="R22" t="n">
-        <v>8.209952021119909</v>
+        <v>8.209952021119905</v>
       </c>
       <c r="S22" t="n">
-        <v>3.182061873127146</v>
+        <v>3.182061873127145</v>
       </c>
       <c r="T22" t="n">
-        <v>0.7801612312831292</v>
+        <v>0.780161231283129</v>
       </c>
       <c r="U22" t="n">
-        <v>0.009959505080210174</v>
+        <v>0.009959505080210171</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.4070551490069143</v>
+        <v>0.4070551490069141</v>
       </c>
       <c r="H23" t="n">
         <v>4.168753544767061</v>
       </c>
       <c r="I23" t="n">
-        <v>15.69299363208908</v>
+        <v>15.69299363208907</v>
       </c>
       <c r="J23" t="n">
-        <v>34.54829695302562</v>
+        <v>34.54829695302561</v>
       </c>
       <c r="K23" t="n">
-        <v>51.77894141048831</v>
+        <v>51.77894141048829</v>
       </c>
       <c r="L23" t="n">
-        <v>64.23635542690867</v>
+        <v>64.23635542690866</v>
       </c>
       <c r="M23" t="n">
-        <v>71.47532243306038</v>
+        <v>71.47532243306036</v>
       </c>
       <c r="N23" t="n">
-        <v>72.63186787517628</v>
+        <v>72.63186787517627</v>
       </c>
       <c r="O23" t="n">
-        <v>68.58421323723877</v>
+        <v>68.58421323723876</v>
       </c>
       <c r="P23" t="n">
-        <v>58.53503924613057</v>
+        <v>58.53503924613055</v>
       </c>
       <c r="Q23" t="n">
-        <v>43.95737672232044</v>
+        <v>43.95737672232043</v>
       </c>
       <c r="R23" t="n">
-        <v>25.5696780038056</v>
+        <v>25.56967800380559</v>
       </c>
       <c r="S23" t="n">
-        <v>9.275769207995067</v>
+        <v>9.275769207995065</v>
       </c>
       <c r="T23" t="n">
-        <v>1.781883914777768</v>
+        <v>1.781883914777767</v>
       </c>
       <c r="U23" t="n">
-        <v>0.03256441192055314</v>
+        <v>0.03256441192055312</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.2177937054332751</v>
+        <v>0.217793705433275</v>
       </c>
       <c r="H24" t="n">
-        <v>2.103428681421368</v>
+        <v>2.103428681421367</v>
       </c>
       <c r="I24" t="n">
-        <v>7.498599068645657</v>
+        <v>7.498599068645654</v>
       </c>
       <c r="J24" t="n">
-        <v>20.57672898569377</v>
+        <v>20.57672898569376</v>
       </c>
       <c r="K24" t="n">
-        <v>35.1689072497232</v>
+        <v>35.16890724972319</v>
       </c>
       <c r="L24" t="n">
-        <v>47.28893590997493</v>
+        <v>47.28893590997492</v>
       </c>
       <c r="M24" t="n">
-        <v>55.18395773193114</v>
+        <v>55.18395773193112</v>
       </c>
       <c r="N24" t="n">
-        <v>56.64451288810429</v>
+        <v>56.64451288810428</v>
       </c>
       <c r="O24" t="n">
-        <v>51.81866288876699</v>
+        <v>51.81866288876697</v>
       </c>
       <c r="P24" t="n">
         <v>41.58904538225408</v>
       </c>
       <c r="Q24" t="n">
-        <v>27.80117545144754</v>
+        <v>27.80117545144753</v>
       </c>
       <c r="R24" t="n">
         <v>13.52231444786598</v>
       </c>
       <c r="S24" t="n">
-        <v>4.045422554868067</v>
+        <v>4.045422554868066</v>
       </c>
       <c r="T24" t="n">
-        <v>0.8778614705841217</v>
+        <v>0.8778614705841213</v>
       </c>
       <c r="U24" t="n">
-        <v>0.01432853325218916</v>
+        <v>0.01432853325218915</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,46 +32859,46 @@
         <v>0.1825909264705196</v>
       </c>
       <c r="H25" t="n">
-        <v>1.623399328074258</v>
+        <v>1.623399328074257</v>
       </c>
       <c r="I25" t="n">
-        <v>5.491007134222538</v>
+        <v>5.491007134222536</v>
       </c>
       <c r="J25" t="n">
-        <v>12.90917850146574</v>
+        <v>12.90917850146573</v>
       </c>
       <c r="K25" t="n">
-        <v>21.21374582084764</v>
+        <v>21.21374582084763</v>
       </c>
       <c r="L25" t="n">
-        <v>27.14629101362617</v>
+        <v>27.14629101362616</v>
       </c>
       <c r="M25" t="n">
         <v>28.62195768301063</v>
       </c>
       <c r="N25" t="n">
-        <v>27.94139150252963</v>
+        <v>27.94139150252962</v>
       </c>
       <c r="O25" t="n">
-        <v>25.80839749785128</v>
+        <v>25.80839749785127</v>
       </c>
       <c r="P25" t="n">
-        <v>22.08354259785266</v>
+        <v>22.08354259785265</v>
       </c>
       <c r="Q25" t="n">
-        <v>15.28950021563597</v>
+        <v>15.28950021563596</v>
       </c>
       <c r="R25" t="n">
-        <v>8.209952021119909</v>
+        <v>8.209952021119905</v>
       </c>
       <c r="S25" t="n">
-        <v>3.182061873127146</v>
+        <v>3.182061873127145</v>
       </c>
       <c r="T25" t="n">
-        <v>0.7801612312831292</v>
+        <v>0.780161231283129</v>
       </c>
       <c r="U25" t="n">
-        <v>0.009959505080210174</v>
+        <v>0.009959505080210171</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.4070551490069143</v>
+        <v>0.4070551490069141</v>
       </c>
       <c r="H26" t="n">
         <v>4.168753544767061</v>
       </c>
       <c r="I26" t="n">
-        <v>15.69299363208908</v>
+        <v>15.69299363208907</v>
       </c>
       <c r="J26" t="n">
-        <v>34.54829695302562</v>
+        <v>34.54829695302561</v>
       </c>
       <c r="K26" t="n">
-        <v>51.77894141048831</v>
+        <v>51.77894141048829</v>
       </c>
       <c r="L26" t="n">
-        <v>64.23635542690867</v>
+        <v>64.23635542690866</v>
       </c>
       <c r="M26" t="n">
-        <v>71.47532243306038</v>
+        <v>71.47532243306036</v>
       </c>
       <c r="N26" t="n">
-        <v>72.63186787517628</v>
+        <v>72.63186787517627</v>
       </c>
       <c r="O26" t="n">
-        <v>68.58421323723877</v>
+        <v>68.58421323723876</v>
       </c>
       <c r="P26" t="n">
-        <v>58.53503924613057</v>
+        <v>58.53503924613055</v>
       </c>
       <c r="Q26" t="n">
-        <v>43.95737672232044</v>
+        <v>43.95737672232043</v>
       </c>
       <c r="R26" t="n">
-        <v>25.5696780038056</v>
+        <v>25.56967800380559</v>
       </c>
       <c r="S26" t="n">
-        <v>9.275769207995067</v>
+        <v>9.275769207995065</v>
       </c>
       <c r="T26" t="n">
-        <v>1.781883914777768</v>
+        <v>1.781883914777767</v>
       </c>
       <c r="U26" t="n">
-        <v>0.03256441192055314</v>
+        <v>0.03256441192055312</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.2177937054332751</v>
+        <v>0.217793705433275</v>
       </c>
       <c r="H27" t="n">
-        <v>2.103428681421368</v>
+        <v>2.103428681421367</v>
       </c>
       <c r="I27" t="n">
-        <v>7.498599068645657</v>
+        <v>7.498599068645654</v>
       </c>
       <c r="J27" t="n">
-        <v>20.57672898569377</v>
+        <v>20.57672898569376</v>
       </c>
       <c r="K27" t="n">
-        <v>35.1689072497232</v>
+        <v>35.16890724972319</v>
       </c>
       <c r="L27" t="n">
-        <v>47.28893590997493</v>
+        <v>47.28893590997492</v>
       </c>
       <c r="M27" t="n">
-        <v>55.18395773193114</v>
+        <v>55.18395773193112</v>
       </c>
       <c r="N27" t="n">
-        <v>56.64451288810429</v>
+        <v>56.64451288810428</v>
       </c>
       <c r="O27" t="n">
-        <v>51.81866288876699</v>
+        <v>51.81866288876697</v>
       </c>
       <c r="P27" t="n">
         <v>41.58904538225408</v>
       </c>
       <c r="Q27" t="n">
-        <v>27.80117545144754</v>
+        <v>27.80117545144753</v>
       </c>
       <c r="R27" t="n">
         <v>13.52231444786598</v>
       </c>
       <c r="S27" t="n">
-        <v>4.045422554868067</v>
+        <v>4.045422554868066</v>
       </c>
       <c r="T27" t="n">
-        <v>0.8778614705841217</v>
+        <v>0.8778614705841213</v>
       </c>
       <c r="U27" t="n">
-        <v>0.01432853325218916</v>
+        <v>0.01432853325218915</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,46 +33096,46 @@
         <v>0.1825909264705196</v>
       </c>
       <c r="H28" t="n">
-        <v>1.623399328074258</v>
+        <v>1.623399328074257</v>
       </c>
       <c r="I28" t="n">
-        <v>5.491007134222538</v>
+        <v>5.491007134222536</v>
       </c>
       <c r="J28" t="n">
-        <v>12.90917850146574</v>
+        <v>12.90917850146573</v>
       </c>
       <c r="K28" t="n">
-        <v>21.21374582084764</v>
+        <v>21.21374582084763</v>
       </c>
       <c r="L28" t="n">
-        <v>27.14629101362617</v>
+        <v>27.14629101362616</v>
       </c>
       <c r="M28" t="n">
         <v>28.62195768301063</v>
       </c>
       <c r="N28" t="n">
-        <v>27.94139150252963</v>
+        <v>27.94139150252962</v>
       </c>
       <c r="O28" t="n">
-        <v>25.80839749785128</v>
+        <v>25.80839749785127</v>
       </c>
       <c r="P28" t="n">
-        <v>22.08354259785266</v>
+        <v>22.08354259785265</v>
       </c>
       <c r="Q28" t="n">
-        <v>15.28950021563597</v>
+        <v>15.28950021563596</v>
       </c>
       <c r="R28" t="n">
-        <v>8.209952021119909</v>
+        <v>8.209952021119905</v>
       </c>
       <c r="S28" t="n">
-        <v>3.182061873127146</v>
+        <v>3.182061873127145</v>
       </c>
       <c r="T28" t="n">
-        <v>0.7801612312831292</v>
+        <v>0.780161231283129</v>
       </c>
       <c r="U28" t="n">
-        <v>0.009959505080210174</v>
+        <v>0.009959505080210171</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.4070551490069143</v>
+        <v>0.4070551490069141</v>
       </c>
       <c r="H29" t="n">
         <v>4.168753544767061</v>
       </c>
       <c r="I29" t="n">
-        <v>15.69299363208908</v>
+        <v>15.69299363208907</v>
       </c>
       <c r="J29" t="n">
-        <v>34.54829695302562</v>
+        <v>34.54829695302561</v>
       </c>
       <c r="K29" t="n">
-        <v>51.77894141048831</v>
+        <v>51.77894141048829</v>
       </c>
       <c r="L29" t="n">
-        <v>64.23635542690867</v>
+        <v>64.23635542690866</v>
       </c>
       <c r="M29" t="n">
-        <v>71.47532243306038</v>
+        <v>71.47532243306036</v>
       </c>
       <c r="N29" t="n">
-        <v>72.63186787517628</v>
+        <v>72.63186787517627</v>
       </c>
       <c r="O29" t="n">
-        <v>68.58421323723877</v>
+        <v>68.58421323723876</v>
       </c>
       <c r="P29" t="n">
-        <v>58.53503924613057</v>
+        <v>58.53503924613055</v>
       </c>
       <c r="Q29" t="n">
-        <v>43.95737672232044</v>
+        <v>43.95737672232043</v>
       </c>
       <c r="R29" t="n">
-        <v>25.5696780038056</v>
+        <v>25.56967800380559</v>
       </c>
       <c r="S29" t="n">
-        <v>9.275769207995067</v>
+        <v>9.275769207995065</v>
       </c>
       <c r="T29" t="n">
-        <v>1.781883914777768</v>
+        <v>1.781883914777767</v>
       </c>
       <c r="U29" t="n">
-        <v>0.03256441192055314</v>
+        <v>0.03256441192055312</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.2177937054332751</v>
+        <v>0.217793705433275</v>
       </c>
       <c r="H30" t="n">
-        <v>2.103428681421368</v>
+        <v>2.103428681421367</v>
       </c>
       <c r="I30" t="n">
-        <v>7.498599068645657</v>
+        <v>7.498599068645654</v>
       </c>
       <c r="J30" t="n">
-        <v>20.57672898569377</v>
+        <v>20.57672898569376</v>
       </c>
       <c r="K30" t="n">
-        <v>35.1689072497232</v>
+        <v>35.16890724972319</v>
       </c>
       <c r="L30" t="n">
-        <v>47.28893590997493</v>
+        <v>47.28893590997492</v>
       </c>
       <c r="M30" t="n">
-        <v>55.18395773193114</v>
+        <v>55.18395773193112</v>
       </c>
       <c r="N30" t="n">
-        <v>56.64451288810429</v>
+        <v>56.64451288810428</v>
       </c>
       <c r="O30" t="n">
-        <v>51.81866288876699</v>
+        <v>51.81866288876697</v>
       </c>
       <c r="P30" t="n">
         <v>41.58904538225408</v>
       </c>
       <c r="Q30" t="n">
-        <v>27.80117545144754</v>
+        <v>27.80117545144753</v>
       </c>
       <c r="R30" t="n">
         <v>13.52231444786598</v>
       </c>
       <c r="S30" t="n">
-        <v>4.045422554868067</v>
+        <v>4.045422554868066</v>
       </c>
       <c r="T30" t="n">
-        <v>0.8778614705841217</v>
+        <v>0.8778614705841213</v>
       </c>
       <c r="U30" t="n">
-        <v>0.01432853325218916</v>
+        <v>0.01432853325218915</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,46 +33333,46 @@
         <v>0.1825909264705196</v>
       </c>
       <c r="H31" t="n">
-        <v>1.623399328074258</v>
+        <v>1.623399328074257</v>
       </c>
       <c r="I31" t="n">
-        <v>5.491007134222538</v>
+        <v>5.491007134222536</v>
       </c>
       <c r="J31" t="n">
-        <v>12.90917850146574</v>
+        <v>12.90917850146573</v>
       </c>
       <c r="K31" t="n">
-        <v>21.21374582084764</v>
+        <v>21.21374582084763</v>
       </c>
       <c r="L31" t="n">
-        <v>27.14629101362617</v>
+        <v>27.14629101362616</v>
       </c>
       <c r="M31" t="n">
         <v>28.62195768301063</v>
       </c>
       <c r="N31" t="n">
-        <v>27.94139150252963</v>
+        <v>27.94139150252962</v>
       </c>
       <c r="O31" t="n">
-        <v>25.80839749785128</v>
+        <v>25.80839749785127</v>
       </c>
       <c r="P31" t="n">
-        <v>22.08354259785266</v>
+        <v>22.08354259785265</v>
       </c>
       <c r="Q31" t="n">
-        <v>15.28950021563597</v>
+        <v>15.28950021563596</v>
       </c>
       <c r="R31" t="n">
-        <v>8.209952021119909</v>
+        <v>8.209952021119905</v>
       </c>
       <c r="S31" t="n">
-        <v>3.182061873127146</v>
+        <v>3.182061873127145</v>
       </c>
       <c r="T31" t="n">
-        <v>0.7801612312831292</v>
+        <v>0.780161231283129</v>
       </c>
       <c r="U31" t="n">
-        <v>0.009959505080210174</v>
+        <v>0.009959505080210171</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.4070551490069143</v>
+        <v>0.4070551490069141</v>
       </c>
       <c r="H32" t="n">
         <v>4.168753544767061</v>
       </c>
       <c r="I32" t="n">
-        <v>15.69299363208908</v>
+        <v>15.69299363208907</v>
       </c>
       <c r="J32" t="n">
-        <v>34.54829695302562</v>
+        <v>34.54829695302561</v>
       </c>
       <c r="K32" t="n">
-        <v>51.77894141048831</v>
+        <v>51.77894141048829</v>
       </c>
       <c r="L32" t="n">
-        <v>64.23635542690867</v>
+        <v>64.23635542690866</v>
       </c>
       <c r="M32" t="n">
-        <v>71.47532243306038</v>
+        <v>71.47532243306036</v>
       </c>
       <c r="N32" t="n">
-        <v>72.63186787517628</v>
+        <v>72.63186787517627</v>
       </c>
       <c r="O32" t="n">
-        <v>68.58421323723877</v>
+        <v>68.58421323723876</v>
       </c>
       <c r="P32" t="n">
-        <v>58.53503924613057</v>
+        <v>58.53503924613055</v>
       </c>
       <c r="Q32" t="n">
-        <v>43.95737672232044</v>
+        <v>43.95737672232043</v>
       </c>
       <c r="R32" t="n">
-        <v>25.5696780038056</v>
+        <v>25.56967800380559</v>
       </c>
       <c r="S32" t="n">
-        <v>9.275769207995067</v>
+        <v>9.275769207995065</v>
       </c>
       <c r="T32" t="n">
-        <v>1.781883914777768</v>
+        <v>1.781883914777767</v>
       </c>
       <c r="U32" t="n">
-        <v>0.03256441192055314</v>
+        <v>0.03256441192055312</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.2177937054332751</v>
+        <v>0.217793705433275</v>
       </c>
       <c r="H33" t="n">
-        <v>2.103428681421368</v>
+        <v>2.103428681421367</v>
       </c>
       <c r="I33" t="n">
-        <v>7.498599068645657</v>
+        <v>7.498599068645654</v>
       </c>
       <c r="J33" t="n">
-        <v>20.57672898569377</v>
+        <v>20.57672898569376</v>
       </c>
       <c r="K33" t="n">
-        <v>35.1689072497232</v>
+        <v>35.16890724972319</v>
       </c>
       <c r="L33" t="n">
-        <v>47.28893590997493</v>
+        <v>47.28893590997492</v>
       </c>
       <c r="M33" t="n">
-        <v>55.18395773193114</v>
+        <v>55.18395773193112</v>
       </c>
       <c r="N33" t="n">
-        <v>56.64451288810429</v>
+        <v>56.64451288810428</v>
       </c>
       <c r="O33" t="n">
-        <v>51.81866288876699</v>
+        <v>51.81866288876697</v>
       </c>
       <c r="P33" t="n">
         <v>41.58904538225408</v>
       </c>
       <c r="Q33" t="n">
-        <v>27.80117545144754</v>
+        <v>27.80117545144753</v>
       </c>
       <c r="R33" t="n">
         <v>13.52231444786598</v>
       </c>
       <c r="S33" t="n">
-        <v>4.045422554868067</v>
+        <v>4.045422554868066</v>
       </c>
       <c r="T33" t="n">
-        <v>0.8778614705841217</v>
+        <v>0.8778614705841213</v>
       </c>
       <c r="U33" t="n">
-        <v>0.01432853325218916</v>
+        <v>0.01432853325218915</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,46 +33570,46 @@
         <v>0.1825909264705196</v>
       </c>
       <c r="H34" t="n">
-        <v>1.623399328074258</v>
+        <v>1.623399328074257</v>
       </c>
       <c r="I34" t="n">
-        <v>5.491007134222538</v>
+        <v>5.491007134222536</v>
       </c>
       <c r="J34" t="n">
-        <v>12.90917850146574</v>
+        <v>12.90917850146573</v>
       </c>
       <c r="K34" t="n">
-        <v>21.21374582084764</v>
+        <v>21.21374582084763</v>
       </c>
       <c r="L34" t="n">
-        <v>27.14629101362617</v>
+        <v>27.14629101362616</v>
       </c>
       <c r="M34" t="n">
         <v>28.62195768301063</v>
       </c>
       <c r="N34" t="n">
-        <v>27.94139150252963</v>
+        <v>27.94139150252962</v>
       </c>
       <c r="O34" t="n">
-        <v>25.80839749785128</v>
+        <v>25.80839749785127</v>
       </c>
       <c r="P34" t="n">
-        <v>22.08354259785266</v>
+        <v>22.08354259785265</v>
       </c>
       <c r="Q34" t="n">
-        <v>15.28950021563597</v>
+        <v>15.28950021563596</v>
       </c>
       <c r="R34" t="n">
-        <v>8.209952021119909</v>
+        <v>8.209952021119905</v>
       </c>
       <c r="S34" t="n">
-        <v>3.182061873127146</v>
+        <v>3.182061873127145</v>
       </c>
       <c r="T34" t="n">
-        <v>0.7801612312831292</v>
+        <v>0.780161231283129</v>
       </c>
       <c r="U34" t="n">
-        <v>0.009959505080210174</v>
+        <v>0.009959505080210171</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.4070551490069143</v>
+        <v>0.4070551490069141</v>
       </c>
       <c r="H35" t="n">
         <v>4.168753544767061</v>
       </c>
       <c r="I35" t="n">
-        <v>15.69299363208908</v>
+        <v>15.69299363208907</v>
       </c>
       <c r="J35" t="n">
-        <v>34.54829695302562</v>
+        <v>34.54829695302561</v>
       </c>
       <c r="K35" t="n">
-        <v>51.77894141048831</v>
+        <v>51.77894141048829</v>
       </c>
       <c r="L35" t="n">
-        <v>64.23635542690867</v>
+        <v>64.23635542690866</v>
       </c>
       <c r="M35" t="n">
-        <v>71.47532243306038</v>
+        <v>71.47532243306036</v>
       </c>
       <c r="N35" t="n">
-        <v>72.63186787517628</v>
+        <v>72.63186787517627</v>
       </c>
       <c r="O35" t="n">
-        <v>68.58421323723877</v>
+        <v>68.58421323723876</v>
       </c>
       <c r="P35" t="n">
-        <v>58.53503924613057</v>
+        <v>58.53503924613055</v>
       </c>
       <c r="Q35" t="n">
-        <v>43.95737672232044</v>
+        <v>43.95737672232043</v>
       </c>
       <c r="R35" t="n">
-        <v>25.5696780038056</v>
+        <v>25.56967800380559</v>
       </c>
       <c r="S35" t="n">
-        <v>9.275769207995067</v>
+        <v>9.275769207995065</v>
       </c>
       <c r="T35" t="n">
-        <v>1.781883914777768</v>
+        <v>1.781883914777767</v>
       </c>
       <c r="U35" t="n">
-        <v>0.03256441192055314</v>
+        <v>0.03256441192055312</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.2177937054332751</v>
+        <v>0.217793705433275</v>
       </c>
       <c r="H36" t="n">
-        <v>2.103428681421368</v>
+        <v>2.103428681421367</v>
       </c>
       <c r="I36" t="n">
-        <v>7.498599068645657</v>
+        <v>7.498599068645654</v>
       </c>
       <c r="J36" t="n">
-        <v>20.57672898569377</v>
+        <v>20.57672898569376</v>
       </c>
       <c r="K36" t="n">
-        <v>35.1689072497232</v>
+        <v>35.16890724972319</v>
       </c>
       <c r="L36" t="n">
-        <v>47.28893590997493</v>
+        <v>47.28893590997492</v>
       </c>
       <c r="M36" t="n">
-        <v>55.18395773193114</v>
+        <v>55.18395773193112</v>
       </c>
       <c r="N36" t="n">
-        <v>56.64451288810429</v>
+        <v>56.64451288810428</v>
       </c>
       <c r="O36" t="n">
-        <v>51.81866288876699</v>
+        <v>51.81866288876697</v>
       </c>
       <c r="P36" t="n">
         <v>41.58904538225408</v>
       </c>
       <c r="Q36" t="n">
-        <v>27.80117545144754</v>
+        <v>27.80117545144753</v>
       </c>
       <c r="R36" t="n">
         <v>13.52231444786598</v>
       </c>
       <c r="S36" t="n">
-        <v>4.045422554868067</v>
+        <v>4.045422554868066</v>
       </c>
       <c r="T36" t="n">
-        <v>0.8778614705841217</v>
+        <v>0.8778614705841213</v>
       </c>
       <c r="U36" t="n">
-        <v>0.01432853325218916</v>
+        <v>0.01432853325218915</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,46 +33807,46 @@
         <v>0.1825909264705196</v>
       </c>
       <c r="H37" t="n">
-        <v>1.623399328074258</v>
+        <v>1.623399328074257</v>
       </c>
       <c r="I37" t="n">
-        <v>5.491007134222538</v>
+        <v>5.491007134222536</v>
       </c>
       <c r="J37" t="n">
-        <v>12.90917850146574</v>
+        <v>12.90917850146573</v>
       </c>
       <c r="K37" t="n">
-        <v>21.21374582084764</v>
+        <v>21.21374582084763</v>
       </c>
       <c r="L37" t="n">
-        <v>27.14629101362617</v>
+        <v>27.14629101362616</v>
       </c>
       <c r="M37" t="n">
         <v>28.62195768301063</v>
       </c>
       <c r="N37" t="n">
-        <v>27.94139150252963</v>
+        <v>27.94139150252962</v>
       </c>
       <c r="O37" t="n">
-        <v>25.80839749785128</v>
+        <v>25.80839749785127</v>
       </c>
       <c r="P37" t="n">
-        <v>22.08354259785266</v>
+        <v>22.08354259785265</v>
       </c>
       <c r="Q37" t="n">
-        <v>15.28950021563597</v>
+        <v>15.28950021563596</v>
       </c>
       <c r="R37" t="n">
-        <v>8.209952021119909</v>
+        <v>8.209952021119905</v>
       </c>
       <c r="S37" t="n">
-        <v>3.182061873127146</v>
+        <v>3.182061873127145</v>
       </c>
       <c r="T37" t="n">
-        <v>0.7801612312831292</v>
+        <v>0.780161231283129</v>
       </c>
       <c r="U37" t="n">
-        <v>0.009959505080210174</v>
+        <v>0.009959505080210171</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.4070551490069143</v>
+        <v>0.4070551490069141</v>
       </c>
       <c r="H38" t="n">
         <v>4.168753544767061</v>
       </c>
       <c r="I38" t="n">
-        <v>15.69299363208908</v>
+        <v>15.69299363208907</v>
       </c>
       <c r="J38" t="n">
-        <v>34.54829695302562</v>
+        <v>34.54829695302561</v>
       </c>
       <c r="K38" t="n">
-        <v>51.77894141048831</v>
+        <v>51.77894141048829</v>
       </c>
       <c r="L38" t="n">
-        <v>64.23635542690867</v>
+        <v>64.23635542690866</v>
       </c>
       <c r="M38" t="n">
-        <v>71.47532243306038</v>
+        <v>71.47532243306036</v>
       </c>
       <c r="N38" t="n">
-        <v>72.63186787517628</v>
+        <v>72.63186787517627</v>
       </c>
       <c r="O38" t="n">
-        <v>68.58421323723877</v>
+        <v>68.58421323723876</v>
       </c>
       <c r="P38" t="n">
-        <v>58.53503924613057</v>
+        <v>58.53503924613055</v>
       </c>
       <c r="Q38" t="n">
-        <v>43.95737672232044</v>
+        <v>43.95737672232043</v>
       </c>
       <c r="R38" t="n">
-        <v>25.5696780038056</v>
+        <v>25.56967800380559</v>
       </c>
       <c r="S38" t="n">
-        <v>9.275769207995067</v>
+        <v>9.275769207995065</v>
       </c>
       <c r="T38" t="n">
-        <v>1.781883914777768</v>
+        <v>1.781883914777767</v>
       </c>
       <c r="U38" t="n">
-        <v>0.03256441192055314</v>
+        <v>0.03256441192055312</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.2177937054332751</v>
+        <v>0.217793705433275</v>
       </c>
       <c r="H39" t="n">
-        <v>2.103428681421368</v>
+        <v>2.103428681421367</v>
       </c>
       <c r="I39" t="n">
-        <v>7.498599068645657</v>
+        <v>7.498599068645654</v>
       </c>
       <c r="J39" t="n">
-        <v>20.57672898569377</v>
+        <v>20.57672898569376</v>
       </c>
       <c r="K39" t="n">
-        <v>35.1689072497232</v>
+        <v>35.16890724972319</v>
       </c>
       <c r="L39" t="n">
-        <v>47.28893590997493</v>
+        <v>47.28893590997492</v>
       </c>
       <c r="M39" t="n">
-        <v>55.18395773193114</v>
+        <v>55.18395773193112</v>
       </c>
       <c r="N39" t="n">
-        <v>56.64451288810429</v>
+        <v>56.64451288810428</v>
       </c>
       <c r="O39" t="n">
-        <v>51.81866288876699</v>
+        <v>51.81866288876697</v>
       </c>
       <c r="P39" t="n">
         <v>41.58904538225408</v>
       </c>
       <c r="Q39" t="n">
-        <v>27.80117545144754</v>
+        <v>27.80117545144753</v>
       </c>
       <c r="R39" t="n">
         <v>13.52231444786598</v>
       </c>
       <c r="S39" t="n">
-        <v>4.045422554868067</v>
+        <v>4.045422554868066</v>
       </c>
       <c r="T39" t="n">
-        <v>0.8778614705841217</v>
+        <v>0.8778614705841213</v>
       </c>
       <c r="U39" t="n">
-        <v>0.01432853325218916</v>
+        <v>0.01432853325218915</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,46 +34044,46 @@
         <v>0.1825909264705196</v>
       </c>
       <c r="H40" t="n">
-        <v>1.623399328074258</v>
+        <v>1.623399328074257</v>
       </c>
       <c r="I40" t="n">
-        <v>5.491007134222538</v>
+        <v>5.491007134222536</v>
       </c>
       <c r="J40" t="n">
-        <v>12.90917850146574</v>
+        <v>12.90917850146573</v>
       </c>
       <c r="K40" t="n">
-        <v>21.21374582084764</v>
+        <v>21.21374582084763</v>
       </c>
       <c r="L40" t="n">
-        <v>27.14629101362617</v>
+        <v>27.14629101362616</v>
       </c>
       <c r="M40" t="n">
         <v>28.62195768301063</v>
       </c>
       <c r="N40" t="n">
-        <v>27.94139150252963</v>
+        <v>27.94139150252962</v>
       </c>
       <c r="O40" t="n">
-        <v>25.80839749785128</v>
+        <v>25.80839749785127</v>
       </c>
       <c r="P40" t="n">
-        <v>22.08354259785266</v>
+        <v>22.08354259785265</v>
       </c>
       <c r="Q40" t="n">
-        <v>15.28950021563597</v>
+        <v>15.28950021563596</v>
       </c>
       <c r="R40" t="n">
-        <v>8.209952021119909</v>
+        <v>8.209952021119905</v>
       </c>
       <c r="S40" t="n">
-        <v>3.182061873127146</v>
+        <v>3.182061873127145</v>
       </c>
       <c r="T40" t="n">
-        <v>0.7801612312831292</v>
+        <v>0.780161231283129</v>
       </c>
       <c r="U40" t="n">
-        <v>0.009959505080210174</v>
+        <v>0.009959505080210171</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.4070551490069143</v>
+        <v>0.4070551490069141</v>
       </c>
       <c r="H41" t="n">
         <v>4.168753544767061</v>
       </c>
       <c r="I41" t="n">
-        <v>15.69299363208908</v>
+        <v>15.69299363208907</v>
       </c>
       <c r="J41" t="n">
-        <v>34.54829695302562</v>
+        <v>34.54829695302561</v>
       </c>
       <c r="K41" t="n">
-        <v>51.77894141048831</v>
+        <v>51.77894141048829</v>
       </c>
       <c r="L41" t="n">
-        <v>64.23635542690867</v>
+        <v>64.23635542690866</v>
       </c>
       <c r="M41" t="n">
-        <v>71.47532243306038</v>
+        <v>71.47532243306036</v>
       </c>
       <c r="N41" t="n">
-        <v>72.63186787517628</v>
+        <v>72.63186787517627</v>
       </c>
       <c r="O41" t="n">
-        <v>68.58421323723877</v>
+        <v>68.58421323723876</v>
       </c>
       <c r="P41" t="n">
-        <v>58.53503924613057</v>
+        <v>58.53503924613055</v>
       </c>
       <c r="Q41" t="n">
-        <v>43.95737672232044</v>
+        <v>43.95737672232043</v>
       </c>
       <c r="R41" t="n">
-        <v>25.5696780038056</v>
+        <v>25.56967800380559</v>
       </c>
       <c r="S41" t="n">
-        <v>9.275769207995067</v>
+        <v>9.275769207995065</v>
       </c>
       <c r="T41" t="n">
-        <v>1.781883914777768</v>
+        <v>1.781883914777767</v>
       </c>
       <c r="U41" t="n">
-        <v>0.03256441192055314</v>
+        <v>0.03256441192055312</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.2177937054332751</v>
+        <v>0.217793705433275</v>
       </c>
       <c r="H42" t="n">
-        <v>2.103428681421368</v>
+        <v>2.103428681421367</v>
       </c>
       <c r="I42" t="n">
-        <v>7.498599068645657</v>
+        <v>7.498599068645654</v>
       </c>
       <c r="J42" t="n">
-        <v>20.57672898569377</v>
+        <v>20.57672898569376</v>
       </c>
       <c r="K42" t="n">
-        <v>35.1689072497232</v>
+        <v>35.16890724972319</v>
       </c>
       <c r="L42" t="n">
-        <v>47.28893590997493</v>
+        <v>47.28893590997492</v>
       </c>
       <c r="M42" t="n">
-        <v>55.18395773193114</v>
+        <v>55.18395773193112</v>
       </c>
       <c r="N42" t="n">
-        <v>56.64451288810429</v>
+        <v>56.64451288810428</v>
       </c>
       <c r="O42" t="n">
-        <v>51.81866288876699</v>
+        <v>51.81866288876697</v>
       </c>
       <c r="P42" t="n">
         <v>41.58904538225408</v>
       </c>
       <c r="Q42" t="n">
-        <v>27.80117545144754</v>
+        <v>27.80117545144753</v>
       </c>
       <c r="R42" t="n">
         <v>13.52231444786598</v>
       </c>
       <c r="S42" t="n">
-        <v>4.045422554868067</v>
+        <v>4.045422554868066</v>
       </c>
       <c r="T42" t="n">
-        <v>0.8778614705841217</v>
+        <v>0.8778614705841213</v>
       </c>
       <c r="U42" t="n">
-        <v>0.01432853325218916</v>
+        <v>0.01432853325218915</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,46 +34281,46 @@
         <v>0.1825909264705196</v>
       </c>
       <c r="H43" t="n">
-        <v>1.623399328074258</v>
+        <v>1.623399328074257</v>
       </c>
       <c r="I43" t="n">
-        <v>5.491007134222538</v>
+        <v>5.491007134222536</v>
       </c>
       <c r="J43" t="n">
-        <v>12.90917850146574</v>
+        <v>12.90917850146573</v>
       </c>
       <c r="K43" t="n">
-        <v>21.21374582084764</v>
+        <v>21.21374582084763</v>
       </c>
       <c r="L43" t="n">
-        <v>27.14629101362617</v>
+        <v>27.14629101362616</v>
       </c>
       <c r="M43" t="n">
         <v>28.62195768301063</v>
       </c>
       <c r="N43" t="n">
-        <v>27.94139150252963</v>
+        <v>27.94139150252962</v>
       </c>
       <c r="O43" t="n">
-        <v>25.80839749785128</v>
+        <v>25.80839749785127</v>
       </c>
       <c r="P43" t="n">
-        <v>22.08354259785266</v>
+        <v>22.08354259785265</v>
       </c>
       <c r="Q43" t="n">
-        <v>15.28950021563597</v>
+        <v>15.28950021563596</v>
       </c>
       <c r="R43" t="n">
-        <v>8.209952021119909</v>
+        <v>8.209952021119905</v>
       </c>
       <c r="S43" t="n">
-        <v>3.182061873127146</v>
+        <v>3.182061873127145</v>
       </c>
       <c r="T43" t="n">
-        <v>0.7801612312831292</v>
+        <v>0.780161231283129</v>
       </c>
       <c r="U43" t="n">
-        <v>0.009959505080210174</v>
+        <v>0.009959505080210171</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.4070551490069143</v>
+        <v>0.4070551490069141</v>
       </c>
       <c r="H44" t="n">
         <v>4.168753544767061</v>
       </c>
       <c r="I44" t="n">
-        <v>15.69299363208908</v>
+        <v>15.69299363208907</v>
       </c>
       <c r="J44" t="n">
-        <v>34.54829695302562</v>
+        <v>34.54829695302561</v>
       </c>
       <c r="K44" t="n">
-        <v>51.77894141048831</v>
+        <v>51.77894141048829</v>
       </c>
       <c r="L44" t="n">
-        <v>64.23635542690867</v>
+        <v>64.23635542690866</v>
       </c>
       <c r="M44" t="n">
-        <v>71.47532243306038</v>
+        <v>71.47532243306036</v>
       </c>
       <c r="N44" t="n">
-        <v>72.63186787517628</v>
+        <v>72.63186787517627</v>
       </c>
       <c r="O44" t="n">
-        <v>68.58421323723877</v>
+        <v>68.58421323723876</v>
       </c>
       <c r="P44" t="n">
-        <v>58.53503924613057</v>
+        <v>58.53503924613055</v>
       </c>
       <c r="Q44" t="n">
-        <v>43.95737672232044</v>
+        <v>43.95737672232043</v>
       </c>
       <c r="R44" t="n">
-        <v>25.5696780038056</v>
+        <v>25.56967800380559</v>
       </c>
       <c r="S44" t="n">
-        <v>9.275769207995067</v>
+        <v>9.275769207995065</v>
       </c>
       <c r="T44" t="n">
-        <v>1.781883914777768</v>
+        <v>1.781883914777767</v>
       </c>
       <c r="U44" t="n">
-        <v>0.03256441192055314</v>
+        <v>0.03256441192055312</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.2177937054332751</v>
+        <v>0.217793705433275</v>
       </c>
       <c r="H45" t="n">
-        <v>2.103428681421368</v>
+        <v>2.103428681421367</v>
       </c>
       <c r="I45" t="n">
-        <v>7.498599068645657</v>
+        <v>7.498599068645654</v>
       </c>
       <c r="J45" t="n">
-        <v>20.57672898569377</v>
+        <v>20.57672898569376</v>
       </c>
       <c r="K45" t="n">
-        <v>35.1689072497232</v>
+        <v>35.16890724972319</v>
       </c>
       <c r="L45" t="n">
-        <v>47.28893590997493</v>
+        <v>47.28893590997492</v>
       </c>
       <c r="M45" t="n">
-        <v>55.18395773193114</v>
+        <v>55.18395773193112</v>
       </c>
       <c r="N45" t="n">
-        <v>56.64451288810429</v>
+        <v>56.64451288810428</v>
       </c>
       <c r="O45" t="n">
-        <v>51.81866288876699</v>
+        <v>51.81866288876697</v>
       </c>
       <c r="P45" t="n">
         <v>41.58904538225408</v>
       </c>
       <c r="Q45" t="n">
-        <v>27.80117545144754</v>
+        <v>27.80117545144753</v>
       </c>
       <c r="R45" t="n">
         <v>13.52231444786598</v>
       </c>
       <c r="S45" t="n">
-        <v>4.045422554868067</v>
+        <v>4.045422554868066</v>
       </c>
       <c r="T45" t="n">
-        <v>0.8778614705841217</v>
+        <v>0.8778614705841213</v>
       </c>
       <c r="U45" t="n">
-        <v>0.01432853325218916</v>
+        <v>0.01432853325218915</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,46 +34518,46 @@
         <v>0.1825909264705196</v>
       </c>
       <c r="H46" t="n">
-        <v>1.623399328074258</v>
+        <v>1.623399328074257</v>
       </c>
       <c r="I46" t="n">
-        <v>5.491007134222538</v>
+        <v>5.491007134222536</v>
       </c>
       <c r="J46" t="n">
-        <v>12.90917850146574</v>
+        <v>12.90917850146573</v>
       </c>
       <c r="K46" t="n">
-        <v>21.21374582084764</v>
+        <v>21.21374582084763</v>
       </c>
       <c r="L46" t="n">
-        <v>27.14629101362617</v>
+        <v>27.14629101362616</v>
       </c>
       <c r="M46" t="n">
         <v>28.62195768301063</v>
       </c>
       <c r="N46" t="n">
-        <v>27.94139150252963</v>
+        <v>27.94139150252962</v>
       </c>
       <c r="O46" t="n">
-        <v>25.80839749785128</v>
+        <v>25.80839749785127</v>
       </c>
       <c r="P46" t="n">
-        <v>22.08354259785266</v>
+        <v>22.08354259785265</v>
       </c>
       <c r="Q46" t="n">
-        <v>15.28950021563597</v>
+        <v>15.28950021563596</v>
       </c>
       <c r="R46" t="n">
-        <v>8.209952021119909</v>
+        <v>8.209952021119905</v>
       </c>
       <c r="S46" t="n">
-        <v>3.182061873127146</v>
+        <v>3.182061873127145</v>
       </c>
       <c r="T46" t="n">
-        <v>0.7801612312831292</v>
+        <v>0.780161231283129</v>
       </c>
       <c r="U46" t="n">
-        <v>0.009959505080210174</v>
+        <v>0.009959505080210171</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35407,28 +35407,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>101.5765493865274</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>171.645199806282</v>
+        <v>113.6189165921835</v>
       </c>
       <c r="L11" t="n">
-        <v>47.2457961922161</v>
+        <v>188.5623770505815</v>
       </c>
       <c r="M11" t="n">
-        <v>81.73768759914314</v>
+        <v>81.73768759914311</v>
       </c>
       <c r="N11" t="n">
-        <v>76.14873730630109</v>
+        <v>76.14873730630107</v>
       </c>
       <c r="O11" t="n">
-        <v>34.62291276103994</v>
+        <v>34.62291276103993</v>
       </c>
       <c r="P11" t="n">
-        <v>144.9997449021171</v>
+        <v>163.2859966443777</v>
       </c>
       <c r="Q11" t="n">
-        <v>88.65419834766556</v>
+        <v>88.65419834766558</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35489,13 +35489,13 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>38.3758252851562</v>
+        <v>38.37582528515633</v>
       </c>
       <c r="L12" t="n">
         <v>118.55713633517</v>
       </c>
       <c r="M12" t="n">
-        <v>183.5573176570688</v>
+        <v>183.5573176570687</v>
       </c>
       <c r="N12" t="n">
         <v>188.5623770505815</v>
@@ -35544,49 +35544,49 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>11.87246835258296</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>33.1469990738446</v>
       </c>
       <c r="E13" t="n">
-        <v>36.65350811233026</v>
+        <v>36.65350811233031</v>
       </c>
       <c r="F13" t="n">
-        <v>39.4027671061086</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>9.629025123080803</v>
+        <v>9.62902512308086</v>
       </c>
       <c r="H13" t="n">
-        <v>12.50659175818963</v>
+        <v>12.50659175818969</v>
       </c>
       <c r="I13" t="n">
-        <v>13.48121398879837</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>58.10069804708247</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>111.3171807686846</v>
       </c>
       <c r="L13" t="n">
-        <v>146.200241873998</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>52.40734891783735</v>
+        <v>81.16984977920021</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>161.8325570947117</v>
       </c>
       <c r="O13" t="n">
-        <v>140.8720697162502</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>51.12528458105029</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35653,13 +35653,13 @@
         <v>188.5623770505815</v>
       </c>
       <c r="M14" t="n">
-        <v>81.73768759914314</v>
+        <v>81.73768759914311</v>
       </c>
       <c r="N14" t="n">
-        <v>76.14873730630109</v>
+        <v>76.14873730630107</v>
       </c>
       <c r="O14" t="n">
-        <v>34.62291276103994</v>
+        <v>34.62291276103993</v>
       </c>
       <c r="P14" t="n">
         <v>92.33736239141733</v>
@@ -35726,7 +35726,7 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>38.3758252851562</v>
+        <v>38.37582528515633</v>
       </c>
       <c r="L15" t="n">
         <v>118.55713633517</v>
@@ -35778,40 +35778,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.7127286595871283</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>11.8724683525829</v>
       </c>
       <c r="D16" t="n">
-        <v>33.14699907384451</v>
+        <v>33.14699907384454</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>36.65350811233026</v>
       </c>
       <c r="F16" t="n">
-        <v>39.40276710610857</v>
+        <v>39.4027671061086</v>
       </c>
       <c r="G16" t="n">
-        <v>1.440528694208645</v>
+        <v>9.629025123080803</v>
       </c>
       <c r="H16" t="n">
-        <v>12.5065917581896</v>
+        <v>12.50659175818963</v>
       </c>
       <c r="I16" t="n">
-        <v>13.48121398879834</v>
+        <v>13.48121398879837</v>
       </c>
       <c r="J16" t="n">
-        <v>58.10069804708244</v>
+        <v>58.10069804708246</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>111.3171807686846</v>
       </c>
       <c r="L16" t="n">
         <v>146.200241873998</v>
       </c>
       <c r="M16" t="n">
-        <v>153.1364108608085</v>
+        <v>36.94277043897558</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
@@ -35823,7 +35823,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>51.12528458105021</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,19 +35884,19 @@
         <v>188.5623770505815</v>
       </c>
       <c r="K17" t="n">
-        <v>117.0101029894984</v>
+        <v>112.0473075972535</v>
       </c>
       <c r="L17" t="n">
-        <v>47.2457961922161</v>
+        <v>47.24579619221609</v>
       </c>
       <c r="M17" t="n">
-        <v>81.73768759914314</v>
+        <v>81.73768759914311</v>
       </c>
       <c r="N17" t="n">
-        <v>76.14873730630109</v>
+        <v>76.14873730630107</v>
       </c>
       <c r="O17" t="n">
-        <v>34.62291276103994</v>
+        <v>34.62291276103993</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -35905,16 +35905,16 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>102.5641537403183</v>
       </c>
       <c r="S17" t="n">
-        <v>69.91525422199729</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>74.96018130685094</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>47.27407718077497</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -35963,13 +35963,13 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>38.37582528515619</v>
+        <v>38.3758252851562</v>
       </c>
       <c r="L18" t="n">
         <v>118.55713633517</v>
       </c>
       <c r="M18" t="n">
-        <v>183.5573176570688</v>
+        <v>183.5573176570687</v>
       </c>
       <c r="N18" t="n">
         <v>188.5623770505815</v>
@@ -36115,43 +36115,43 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>56.42777687366399</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>23.59964894206958</v>
       </c>
       <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>47.24579619221609</v>
+      </c>
+      <c r="M20" t="n">
+        <v>81.73768759914311</v>
+      </c>
+      <c r="N20" t="n">
+        <v>76.14873730630107</v>
+      </c>
+      <c r="O20" t="n">
+        <v>34.62291276103993</v>
+      </c>
+      <c r="P20" t="n">
         <v>188.5623770505815</v>
       </c>
-      <c r="L20" t="n">
-        <v>47.2457961922161</v>
-      </c>
-      <c r="M20" t="n">
-        <v>81.73768759914314</v>
-      </c>
-      <c r="N20" t="n">
-        <v>76.14873730630109</v>
-      </c>
-      <c r="O20" t="n">
-        <v>34.62291276103994</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
       <c r="Q20" t="n">
-        <v>117.0101029894983</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>102.5641537403182</v>
       </c>
       <c r="S20" t="n">
-        <v>69.91525422199729</v>
+        <v>69.91525422199723</v>
       </c>
       <c r="T20" t="n">
-        <v>74.96018130685094</v>
+        <v>74.96018130685088</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>47.27407718077492</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -36206,7 +36206,7 @@
         <v>118.55713633517</v>
       </c>
       <c r="M21" t="n">
-        <v>183.5573176570688</v>
+        <v>183.5573176570689</v>
       </c>
       <c r="N21" t="n">
         <v>188.5623770505815</v>
@@ -36215,7 +36215,7 @@
         <v>133.0740275578655</v>
       </c>
       <c r="P21" t="n">
-        <v>84.50414241545049</v>
+        <v>84.50414241545047</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36352,7 +36352,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>56.42777687366393</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -36361,34 +36361,34 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>47.2457961922161</v>
+        <v>47.24579619221609</v>
       </c>
       <c r="M23" t="n">
-        <v>86.42382177655688</v>
+        <v>81.73768759914311</v>
       </c>
       <c r="N23" t="n">
-        <v>188.5623770505815</v>
+        <v>76.14873730630107</v>
       </c>
       <c r="O23" t="n">
-        <v>188.5623770505815</v>
+        <v>34.62291276103993</v>
       </c>
       <c r="P23" t="n">
-        <v>188.5623770505815</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>155.7342491189879</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>102.5641537403182</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>69.91525422199723</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>74.96018130685088</v>
       </c>
       <c r="U23" t="n">
-        <v>47.27407718077497</v>
+        <v>47.27407718077492</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -36443,10 +36443,10 @@
         <v>118.55713633517</v>
       </c>
       <c r="M24" t="n">
-        <v>183.5573176570688</v>
+        <v>183.5573176570687</v>
       </c>
       <c r="N24" t="n">
-        <v>188.5623770505815</v>
+        <v>188.5623770505816</v>
       </c>
       <c r="O24" t="n">
         <v>133.0740275578655</v>
@@ -36598,13 +36598,13 @@
         <v>206.7825271497595</v>
       </c>
       <c r="L26" t="n">
-        <v>260.7127728602489</v>
+        <v>260.7127728602488</v>
       </c>
       <c r="M26" t="n">
         <v>295.2046642671759</v>
       </c>
       <c r="N26" t="n">
-        <v>289.6157139743339</v>
+        <v>289.6157139743338</v>
       </c>
       <c r="O26" t="n">
         <v>248.0898894290727</v>
@@ -36613,10 +36613,10 @@
         <v>198.4233239878552</v>
       </c>
       <c r="Q26" t="n">
-        <v>123.7915256911431</v>
+        <v>123.791525691143</v>
       </c>
       <c r="R26" t="n">
-        <v>18.60653861628982</v>
+        <v>18.60653861628978</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36680,7 +36680,7 @@
         <v>118.55713633517</v>
       </c>
       <c r="M27" t="n">
-        <v>183.5573176570688</v>
+        <v>183.5573176570687</v>
       </c>
       <c r="N27" t="n">
         <v>207.0214827210603</v>
@@ -36726,10 +36726,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>35.85005600306468</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>47.00979569606042</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -36741,10 +36741,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>44.76635246655832</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>47.64391910166715</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -36768,13 +36768,13 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>136.3887230656951</v>
       </c>
       <c r="Q28" t="n">
-        <v>57.42500440984796</v>
+        <v>86.26261192452773</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>10.04379268697588</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -36829,13 +36829,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>136.713876730005</v>
+        <v>136.7138767300049</v>
       </c>
       <c r="K29" t="n">
-        <v>206.7825271497596</v>
+        <v>206.7825271497595</v>
       </c>
       <c r="L29" t="n">
-        <v>260.7127728602489</v>
+        <v>260.7127728602488</v>
       </c>
       <c r="M29" t="n">
         <v>295.2046642671759</v>
@@ -36847,13 +36847,13 @@
         <v>248.0898894290727</v>
       </c>
       <c r="P29" t="n">
-        <v>198.4233239878553</v>
+        <v>198.4233239878552</v>
       </c>
       <c r="Q29" t="n">
-        <v>123.791525691143</v>
+        <v>123.7915256911431</v>
       </c>
       <c r="R29" t="n">
-        <v>18.60653861628985</v>
+        <v>18.60653861628981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36917,7 +36917,7 @@
         <v>118.55713633517</v>
       </c>
       <c r="M30" t="n">
-        <v>183.5573176570688</v>
+        <v>183.5573176570687</v>
       </c>
       <c r="N30" t="n">
         <v>207.0214827210603</v>
@@ -36978,7 +36978,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>44.76635246655835</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -37002,13 +37002,13 @@
         <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>146.4325157526708</v>
       </c>
       <c r="P31" t="n">
-        <v>101.6661632861122</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>86.26261192452779</v>
+        <v>86.26261192452776</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,13 +37069,13 @@
         <v>136.7138767300048</v>
       </c>
       <c r="K32" t="n">
-        <v>206.7825271497595</v>
+        <v>206.7825271497594</v>
       </c>
       <c r="L32" t="n">
-        <v>260.7127728602488</v>
+        <v>260.7127728602487</v>
       </c>
       <c r="M32" t="n">
-        <v>295.2046642671758</v>
+        <v>295.2046642671768</v>
       </c>
       <c r="N32" t="n">
         <v>289.6157139743337</v>
@@ -37084,13 +37084,13 @@
         <v>248.0898894290726</v>
       </c>
       <c r="P32" t="n">
-        <v>198.4233239878552</v>
+        <v>198.4233239878551</v>
       </c>
       <c r="Q32" t="n">
-        <v>123.791525691143</v>
+        <v>123.7915256911429</v>
       </c>
       <c r="R32" t="n">
-        <v>18.60653861628973</v>
+        <v>18.6065386162897</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37154,7 +37154,7 @@
         <v>118.55713633517</v>
       </c>
       <c r="M33" t="n">
-        <v>183.5573176570688</v>
+        <v>183.5573176570687</v>
       </c>
       <c r="N33" t="n">
         <v>207.0214827210603</v>
@@ -37203,28 +37203,28 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>47.00979569606034</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>68.28432641732198</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>74.54009444958601</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>47.64391910166707</v>
+        <v>47.64391910166704</v>
       </c>
       <c r="I34" t="n">
-        <v>48.6185413322758</v>
+        <v>48.61854133227578</v>
       </c>
       <c r="J34" t="n">
-        <v>11.09475244289811</v>
+        <v>61.8925727936705</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -37248,7 +37248,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>10.04379268697583</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -37300,43 +37300,43 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>31.06286192646011</v>
+        <v>31.06286192646004</v>
       </c>
       <c r="J35" t="n">
-        <v>195.3065769068295</v>
+        <v>195.3065769068294</v>
       </c>
       <c r="K35" t="n">
-        <v>260.4583944746288</v>
+        <v>260.458394474629</v>
       </c>
       <c r="L35" t="n">
-        <v>47.2457961922161</v>
+        <v>47.24579619221609</v>
       </c>
       <c r="M35" t="n">
-        <v>81.73768759914314</v>
+        <v>81.73768759914311</v>
       </c>
       <c r="N35" t="n">
-        <v>76.14873730630109</v>
+        <v>76.14873730630107</v>
       </c>
       <c r="O35" t="n">
-        <v>34.62291276103994</v>
+        <v>34.62291276103993</v>
       </c>
       <c r="P35" t="n">
-        <v>257.0160241646798</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>111.473032576847</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>77.19923879311432</v>
       </c>
       <c r="S35" t="n">
-        <v>44.5503392747934</v>
+        <v>44.55033927479334</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>49.595266359647</v>
       </c>
       <c r="U35" t="n">
-        <v>3.160675798498958</v>
+        <v>21.90916223357103</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -37391,7 +37391,7 @@
         <v>118.55713633517</v>
       </c>
       <c r="M36" t="n">
-        <v>183.5573176570688</v>
+        <v>183.5573176570687</v>
       </c>
       <c r="N36" t="n">
         <v>207.0214827210603</v>
@@ -37455,7 +37455,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>35.55545571552457</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -37491,7 +37491,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>35.55545571552469</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -37537,43 +37537,43 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>31.06286192646011</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>195.3065769068295</v>
+        <v>195.3065769068294</v>
       </c>
       <c r="K38" t="n">
-        <v>260.4583944746288</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>260.4583944746288</v>
+        <v>47.24579619221609</v>
       </c>
       <c r="M38" t="n">
-        <v>81.73768759914314</v>
+        <v>81.73768759914311</v>
       </c>
       <c r="N38" t="n">
-        <v>76.14873730630109</v>
+        <v>76.14873730630107</v>
       </c>
       <c r="O38" t="n">
-        <v>34.62291276103994</v>
+        <v>34.62291276103993</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>257.0160241646797</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>182.3842258679676</v>
       </c>
       <c r="R38" t="n">
-        <v>77.19923879311438</v>
+        <v>77.19923879311432</v>
       </c>
       <c r="S38" t="n">
-        <v>14.31520216244528</v>
+        <v>8.144378220082089</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>49.595266359647</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>21.90916223357103</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -37628,7 +37628,7 @@
         <v>118.55713633517</v>
       </c>
       <c r="M39" t="n">
-        <v>183.5573176570688</v>
+        <v>183.5573176570687</v>
       </c>
       <c r="N39" t="n">
         <v>207.0214827210603</v>
@@ -37680,7 +37680,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>35.55545571552469</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -37725,7 +37725,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>35.55545571552457</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -37777,22 +37777,22 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>9.806733454459199</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>234.312365400124</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>47.2457961922161</v>
+        <v>272.832490613612</v>
       </c>
       <c r="M41" t="n">
         <v>322.7345025175404</v>
       </c>
       <c r="N41" t="n">
-        <v>76.14873730630109</v>
+        <v>317.1455522246983</v>
       </c>
       <c r="O41" t="n">
-        <v>275.6197276794372</v>
+        <v>34.62291276103993</v>
       </c>
       <c r="P41" t="n">
         <v>225.9531622382197</v>
@@ -37801,13 +37801,13 @@
         <v>151.3213639415075</v>
       </c>
       <c r="R41" t="n">
-        <v>46.13637686665428</v>
+        <v>46.13637686665427</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>18.53240443318696</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -37865,7 +37865,7 @@
         <v>118.55713633517</v>
       </c>
       <c r="M42" t="n">
-        <v>183.5573176570688</v>
+        <v>183.5573176570687</v>
       </c>
       <c r="N42" t="n">
         <v>207.0214827210603</v>
@@ -37914,16 +37914,16 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>3.817604291744817</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>99.32067370617224</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>102.0699326999506</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -37977,7 +37977,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>1.068345297966479</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -38017,10 +38017,10 @@
         <v>164.2437149803694</v>
       </c>
       <c r="K44" t="n">
-        <v>199.1768660342011</v>
+        <v>234.312365400124</v>
       </c>
       <c r="L44" t="n">
-        <v>47.2457961922161</v>
+        <v>118.7619769045255</v>
       </c>
       <c r="M44" t="n">
         <v>322.7345025175404</v>
@@ -38029,22 +38029,22 @@
         <v>317.1455522246983</v>
       </c>
       <c r="O44" t="n">
-        <v>34.62291276103994</v>
+        <v>34.62291276103993</v>
       </c>
       <c r="P44" t="n">
-        <v>225.9531622382197</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>151.3213639415075</v>
       </c>
       <c r="R44" t="n">
-        <v>46.13637686665428</v>
+        <v>46.13637686665427</v>
       </c>
       <c r="S44" t="n">
-        <v>13.4874773483333</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>18.53240443318696</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -38102,7 +38102,7 @@
         <v>118.55713633517</v>
       </c>
       <c r="M45" t="n">
-        <v>183.5573176570688</v>
+        <v>183.5573176570687</v>
       </c>
       <c r="N45" t="n">
         <v>207.0214827210603</v>
@@ -38151,7 +38151,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>74.53963394642489</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>103.1382779979171</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -38196,7 +38196,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>28.59864405149218</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
